--- a/Stability Coding.xlsx
+++ b/Stability Coding.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1180" windowWidth="28160" windowHeight="18320" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="1089">
   <si>
     <t>Mounties</t>
   </si>
@@ -2425,9 +2425,6 @@
   </si>
   <si>
     <t xml:space="preserve">Québec Solidaire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quebec independent party </t>
   </si>
   <si>
     <t>L'Opposition Loyale de Sa Majesté</t>
@@ -3320,6 +3317,36 @@
   </si>
   <si>
     <t>emplois</t>
+  </si>
+  <si>
+    <t>Ezra Levant</t>
+  </si>
+  <si>
+    <t>canadian Rush Limbaugh</t>
+  </si>
+  <si>
+    <t>Canadian Fox News</t>
+  </si>
+  <si>
+    <t>The Rebel Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quebec independence party </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refugees </t>
+  </si>
+  <si>
+    <t>réfugiés</t>
+  </si>
+  <si>
+    <t>immigration</t>
+  </si>
+  <si>
+    <t>immigrants</t>
+  </si>
+  <si>
+    <t>immigrés</t>
   </si>
 </sst>
 </file>
@@ -3474,6 +3501,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3492,12 +3525,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3776,10 +3803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F723"/>
+  <dimension ref="A1:F725"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3792,7 +3819,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>781</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3800,10 +3827,10 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>970</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>971</v>
       </c>
       <c r="F1" t="s">
         <v>780</v>
@@ -3828,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3850,7 +3877,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3872,7 +3899,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,7 +3927,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3911,7 +3938,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3922,7 +3949,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3936,7 +3963,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3958,7 +3985,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3972,7 +3999,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3987,7 +4014,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -4001,7 +4028,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4010,10 +4037,10 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>985</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -4026,7 +4053,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>40</v>
@@ -4035,36 +4062,36 @@
         <v>29</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>47</v>
@@ -4073,7 +4100,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4081,10 +4108,10 @@
         <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>992</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -4094,60 +4121,60 @@
       <c r="D25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="29" t="s">
-        <v>999</v>
+      <c r="E25" s="21" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>997</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -4158,7 +4185,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -4166,24 +4193,24 @@
         <v>58</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>1001</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -4193,8 +4220,8 @@
       <c r="D33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>1005</v>
+      <c r="E33" s="21" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -4208,21 +4235,21 @@
         <v>36</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>1007</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -4235,36 +4262,36 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>811</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>812</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>1010</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>43</v>
@@ -4272,7 +4299,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>70</v>
@@ -4282,22 +4309,22 @@
         <v>44</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E41" s="17" t="s">
         <v>1013</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -4306,46 +4333,46 @@
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>1015</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>1017</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>818</v>
+      <c r="C44" s="23" t="s">
+        <v>817</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="20"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="1" t="s">
         <v>52</v>
       </c>
@@ -4354,278 +4381,278 @@
       <c r="B46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="20"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="26" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="23"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="23"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="23"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E50" s="17" t="s">
         <v>1025</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="23"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E51" s="17" t="s">
         <v>1027</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="23"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="23"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E53" s="17" t="s">
         <v>1030</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="23"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="23"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="23"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="23"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E57" s="17" t="s">
         <v>1033</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="23"/>
+      <c r="C58" s="27"/>
       <c r="D58" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="23"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="23"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="23"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="23"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="23"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="27"/>
       <c r="D64" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="23"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E65" s="17" t="s">
         <v>1043</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="23"/>
+      <c r="C66" s="27"/>
       <c r="D66" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="23"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="23"/>
+      <c r="C68" s="27"/>
       <c r="D68" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -4641,7 +4668,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>117</v>
@@ -4650,12 +4677,12 @@
         <v>87</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>115</v>
@@ -4668,160 +4695,160 @@
       <c r="B72" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="26" t="s">
         <v>133</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E72" s="30" t="s">
-        <v>1049</v>
+      <c r="E72" s="22" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="23"/>
+      <c r="C73" s="27"/>
       <c r="D73" s="1" t="s">
         <v>226</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="23"/>
+      <c r="C74" s="27"/>
       <c r="D74" s="1" t="s">
         <v>532</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="23"/>
+      <c r="C75" s="27"/>
       <c r="D75" s="1" t="s">
         <v>533</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="23"/>
+      <c r="C76" s="27"/>
       <c r="D76" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C77" s="23"/>
+      <c r="C77" s="27"/>
       <c r="D77" s="1" t="s">
         <v>534</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C78" s="23"/>
+      <c r="C78" s="27"/>
       <c r="D78" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>1056</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C79" s="23"/>
+      <c r="C79" s="27"/>
       <c r="D79" s="1" t="s">
         <v>601</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C80" s="23"/>
+      <c r="C80" s="27"/>
       <c r="D80" s="1" t="s">
         <v>602</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="23"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="1" t="s">
         <v>603</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C82" s="23"/>
+      <c r="C82" s="27"/>
       <c r="D82" s="1" t="s">
         <v>604</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="23"/>
+      <c r="C83" s="27"/>
       <c r="D83" s="1" t="s">
         <v>605</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="23"/>
+      <c r="C84" s="27"/>
       <c r="D84" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>136</v>
@@ -4830,7 +4857,7 @@
         <v>619</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4841,7 +4868,7 @@
         <v>620</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4868,12 +4895,12 @@
         <v>634</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>139</v>
@@ -4882,7 +4909,7 @@
         <v>683</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4893,577 +4920,592 @@
         <v>691</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="26" t="s">
         <v>224</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>707</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C93" s="23"/>
+      <c r="C93" s="27"/>
       <c r="D93" s="1" t="s">
         <v>708</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C94" s="23"/>
+      <c r="C94" s="27"/>
       <c r="D94" s="1" t="s">
         <v>714</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C95" s="23"/>
+      <c r="C95" s="27"/>
       <c r="D95" s="1" t="s">
         <v>741</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C96" s="23"/>
+      <c r="C96" s="27"/>
       <c r="D96" s="1" t="s">
         <v>756</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="23"/>
+      <c r="C97" s="27"/>
       <c r="D97" s="1" t="s">
         <v>757</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C98" s="23"/>
+      <c r="C98" s="27"/>
       <c r="D98" s="1" t="s">
         <v>784</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C99" s="23"/>
+      <c r="C99" s="27"/>
       <c r="D99" s="1" t="s">
         <v>785</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C100" s="23"/>
+      <c r="C100" s="27"/>
       <c r="D100" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E100" s="17" t="s">
         <v>979</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C101" s="23"/>
+      <c r="C101" s="27"/>
       <c r="D101" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C102" s="23"/>
+      <c r="C102" s="27"/>
       <c r="D102" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C103" s="23"/>
+      <c r="C103" s="27"/>
       <c r="D103" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>1077</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C104" s="23"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C105" s="23"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="1" t="s">
+        <v>1086</v>
+      </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C106" s="23"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C107" s="23"/>
+      <c r="C107" s="27"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="23"/>
+      <c r="C108" s="27"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C109" s="23"/>
+      <c r="C109" s="27"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C110" s="23"/>
+      <c r="C110" s="27"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C111" s="23"/>
+      <c r="C111" s="27"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C112" s="23"/>
+      <c r="C112" s="27"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C113" s="23"/>
+      <c r="C113" s="27"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C114" s="23"/>
+      <c r="C114" s="27"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C115" s="23"/>
+      <c r="C115" s="27"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C116" s="23"/>
+      <c r="C116" s="27"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C117" s="23"/>
+      <c r="C117" s="27"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C118" s="23"/>
+      <c r="C118" s="27"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C119" s="23"/>
+      <c r="C119" s="27"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C120" s="23"/>
+      <c r="C120" s="27"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C121" s="23"/>
+      <c r="C121" s="27"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C122" s="23"/>
+      <c r="C122" s="27"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C123" s="23"/>
+      <c r="C123" s="27"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C124" s="23"/>
+      <c r="C124" s="27"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C125" s="23"/>
+      <c r="C125" s="27"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C126" s="23"/>
+      <c r="C126" s="27"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="23"/>
+      <c r="C127" s="27"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C128" s="23"/>
+      <c r="C128" s="27"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C129" s="23"/>
+      <c r="C129" s="27"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C130" s="23"/>
+      <c r="C130" s="27"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C131" s="23"/>
+      <c r="C131" s="27"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C132" s="23"/>
+      <c r="C132" s="27"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C133" s="23"/>
+      <c r="C133" s="27"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C134" s="23"/>
+      <c r="C134" s="27"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C135" s="23"/>
+      <c r="C135" s="27"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C136" s="23"/>
+      <c r="C136" s="27"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C137" s="23"/>
+      <c r="C137" s="27"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C138" s="23"/>
+      <c r="C138" s="27"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C139" s="23"/>
+      <c r="C139" s="27"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C140" s="23"/>
+      <c r="C140" s="27"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C141" s="23"/>
+      <c r="C141" s="27"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C142" s="23"/>
+      <c r="C142" s="27"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C143" s="23"/>
+      <c r="C143" s="27"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C144" s="23"/>
+      <c r="C144" s="27"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C145" s="23"/>
+      <c r="C145" s="27"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C146" s="23"/>
+      <c r="C146" s="27"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C147" s="23"/>
+      <c r="C147" s="27"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C148" s="23"/>
+      <c r="C148" s="27"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C149" s="23"/>
+      <c r="C149" s="27"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C150" s="23"/>
+      <c r="C150" s="27"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C151" s="23"/>
+      <c r="C151" s="27"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C152" s="23"/>
+      <c r="C152" s="27"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C153" s="23"/>
+      <c r="C153" s="27"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C154" s="23"/>
+      <c r="C154" s="27"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C155" s="23"/>
+      <c r="C155" s="27"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C156" s="23"/>
+      <c r="C156" s="27"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C157" s="23"/>
+      <c r="C157" s="27"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C158" s="23"/>
+      <c r="C158" s="27"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C159" s="23"/>
+      <c r="C159" s="27"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C160" s="23"/>
+      <c r="C160" s="27"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C161" s="23"/>
+      <c r="C161" s="27"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C162" s="23"/>
+      <c r="C162" s="27"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C163" s="23"/>
+      <c r="C163" s="27"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C164" s="23"/>
+      <c r="C164" s="27"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C165" s="23"/>
+      <c r="C165" s="27"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C166" s="23"/>
+      <c r="C166" s="27"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C167" s="23"/>
+      <c r="C167" s="27"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C168" s="23"/>
+      <c r="C168" s="27"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C169" s="23"/>
+      <c r="C169" s="27"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C170" s="23"/>
+      <c r="C170" s="27"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C171" s="23"/>
+      <c r="C171" s="27"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C172" s="23"/>
+      <c r="C172" s="27"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C173" s="23"/>
+      <c r="C173" s="27"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C174" s="23"/>
+      <c r="C174" s="27"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175" s="4" t="s">
@@ -5474,7 +5516,7 @@
       <c r="B176" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C176" s="22" t="s">
+      <c r="C176" s="26" t="s">
         <v>531</v>
       </c>
     </row>
@@ -5482,1843 +5524,1843 @@
       <c r="B177" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C177" s="23"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C178" s="23"/>
+      <c r="C178" s="27"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C179" s="23"/>
+      <c r="C179" s="27"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C180" s="23"/>
+      <c r="C180" s="27"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C181" s="23"/>
+      <c r="C181" s="27"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C182" s="23"/>
+      <c r="C182" s="27"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C183" s="23"/>
+      <c r="C183" s="27"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C184" s="23"/>
+      <c r="C184" s="27"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C185" s="23"/>
+      <c r="C185" s="27"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C186" s="23"/>
+      <c r="C186" s="27"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C187" s="23"/>
+      <c r="C187" s="27"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C188" s="23"/>
+      <c r="C188" s="27"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C189" s="23"/>
+      <c r="C189" s="27"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C190" s="23"/>
+      <c r="C190" s="27"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C191" s="23"/>
+      <c r="C191" s="27"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C192" s="23"/>
+      <c r="C192" s="27"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C193" s="23"/>
+      <c r="C193" s="27"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C194" s="23"/>
+      <c r="C194" s="27"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C195" s="23"/>
+      <c r="C195" s="27"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C196" s="23"/>
+      <c r="C196" s="27"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C197" s="23"/>
+      <c r="C197" s="27"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C198" s="23"/>
+      <c r="C198" s="27"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C199" s="23"/>
+      <c r="C199" s="27"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C200" s="23"/>
+      <c r="C200" s="27"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C201" s="23"/>
+      <c r="C201" s="27"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C202" s="23"/>
+      <c r="C202" s="27"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C203" s="23"/>
+      <c r="C203" s="27"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C204" s="23"/>
+      <c r="C204" s="27"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C205" s="23"/>
+      <c r="C205" s="27"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C206" s="23"/>
+      <c r="C206" s="27"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C207" s="23"/>
+      <c r="C207" s="27"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C208" s="23"/>
+      <c r="C208" s="27"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C209" s="23"/>
+      <c r="C209" s="27"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C210" s="23"/>
+      <c r="C210" s="27"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C211" s="23"/>
+      <c r="C211" s="27"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C212" s="23"/>
+      <c r="C212" s="27"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C213" s="23"/>
+      <c r="C213" s="27"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C214" s="23"/>
+      <c r="C214" s="27"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C215" s="23"/>
+      <c r="C215" s="27"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C216" s="23"/>
+      <c r="C216" s="27"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C217" s="23"/>
+      <c r="C217" s="27"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C218" s="23"/>
+      <c r="C218" s="27"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B219" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C219" s="23"/>
+      <c r="C219" s="27"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C220" s="23"/>
+      <c r="C220" s="27"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B221" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C221" s="23"/>
+      <c r="C221" s="27"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C222" s="23"/>
+      <c r="C222" s="27"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C223" s="23"/>
+      <c r="C223" s="27"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B224" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C224" s="23"/>
+      <c r="C224" s="27"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C225" s="23"/>
+      <c r="C225" s="27"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C226" s="23"/>
+      <c r="C226" s="27"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C227" s="23"/>
+      <c r="C227" s="27"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C228" s="23"/>
+      <c r="C228" s="27"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C229" s="23"/>
+      <c r="C229" s="27"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C230" s="23"/>
+      <c r="C230" s="27"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C231" s="23"/>
+      <c r="C231" s="27"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C232" s="23"/>
+      <c r="C232" s="27"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C233" s="23"/>
+      <c r="C233" s="27"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C234" s="23"/>
+      <c r="C234" s="27"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C235" s="23"/>
+      <c r="C235" s="27"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C236" s="23"/>
+      <c r="C236" s="27"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C237" s="23"/>
+      <c r="C237" s="27"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C238" s="23"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C239" s="23"/>
+      <c r="C239" s="27"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C240" s="23"/>
+      <c r="C240" s="27"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B241" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C241" s="23"/>
+      <c r="C241" s="27"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C242" s="23"/>
+      <c r="C242" s="27"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C243" s="23"/>
+      <c r="C243" s="27"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C244" s="23"/>
+      <c r="C244" s="27"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B245" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C245" s="23"/>
+      <c r="C245" s="27"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C246" s="23"/>
+      <c r="C246" s="27"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C247" s="23"/>
+      <c r="C247" s="27"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C248" s="23"/>
+      <c r="C248" s="27"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C249" s="23"/>
+      <c r="C249" s="27"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B250" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C250" s="23"/>
+      <c r="C250" s="27"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C251" s="23"/>
+      <c r="C251" s="27"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C252" s="23"/>
+      <c r="C252" s="27"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C253" s="23"/>
+      <c r="C253" s="27"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C254" s="23"/>
+      <c r="C254" s="27"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C255" s="23"/>
+      <c r="C255" s="27"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C256" s="23"/>
+      <c r="C256" s="27"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C257" s="23"/>
+      <c r="C257" s="27"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C258" s="23"/>
+      <c r="C258" s="27"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C259" s="23"/>
+      <c r="C259" s="27"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C260" s="23"/>
+      <c r="C260" s="27"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C261" s="23"/>
+      <c r="C261" s="27"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C262" s="23"/>
+      <c r="C262" s="27"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C263" s="23"/>
+      <c r="C263" s="27"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C264" s="23"/>
+      <c r="C264" s="27"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C265" s="23"/>
+      <c r="C265" s="27"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C266" s="23"/>
+      <c r="C266" s="27"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C267" s="23"/>
+      <c r="C267" s="27"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C268" s="23"/>
+      <c r="C268" s="27"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C269" s="23"/>
+      <c r="C269" s="27"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C270" s="23"/>
+      <c r="C270" s="27"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C271" s="23"/>
+      <c r="C271" s="27"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C272" s="23"/>
+      <c r="C272" s="27"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C273" s="23"/>
+      <c r="C273" s="27"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C274" s="23"/>
+      <c r="C274" s="27"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C275" s="23"/>
+      <c r="C275" s="27"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C276" s="23"/>
+      <c r="C276" s="27"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C277" s="23"/>
+      <c r="C277" s="27"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C278" s="23"/>
+      <c r="C278" s="27"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B279" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C279" s="23"/>
+      <c r="C279" s="27"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C280" s="23"/>
+      <c r="C280" s="27"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C281" s="23"/>
+      <c r="C281" s="27"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C282" s="23"/>
+      <c r="C282" s="27"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C283" s="23"/>
+      <c r="C283" s="27"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C284" s="23"/>
+      <c r="C284" s="27"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C285" s="23"/>
+      <c r="C285" s="27"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C286" s="23"/>
+      <c r="C286" s="27"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C287" s="23"/>
+      <c r="C287" s="27"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C288" s="23"/>
+      <c r="C288" s="27"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B289" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C289" s="23"/>
+      <c r="C289" s="27"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B290" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C290" s="23"/>
+      <c r="C290" s="27"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B291" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C291" s="23"/>
+      <c r="C291" s="27"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B292" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C292" s="23"/>
+      <c r="C292" s="27"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B293" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C293" s="23"/>
+      <c r="C293" s="27"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B294" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C294" s="23"/>
+      <c r="C294" s="27"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B295" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C295" s="23"/>
+      <c r="C295" s="27"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B296" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C296" s="23"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B297" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C297" s="23"/>
+      <c r="C297" s="27"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B298" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C298" s="23"/>
+      <c r="C298" s="27"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B299" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C299" s="23"/>
+      <c r="C299" s="27"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B300" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C300" s="23"/>
+      <c r="C300" s="27"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C301" s="23"/>
+      <c r="C301" s="27"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B302" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C302" s="23"/>
+      <c r="C302" s="27"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B303" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C303" s="23"/>
+      <c r="C303" s="27"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B304" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C304" s="23"/>
+      <c r="C304" s="27"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B305" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C305" s="23"/>
+      <c r="C305" s="27"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B306" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C306" s="23"/>
+      <c r="C306" s="27"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B307" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C307" s="23"/>
+      <c r="C307" s="27"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C308" s="23"/>
+      <c r="C308" s="27"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B309" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C309" s="23"/>
+      <c r="C309" s="27"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C310" s="23"/>
+      <c r="C310" s="27"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B311" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C311" s="23"/>
+      <c r="C311" s="27"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B312" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C312" s="23"/>
+      <c r="C312" s="27"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B313" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C313" s="23"/>
+      <c r="C313" s="27"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B314" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C314" s="23"/>
+      <c r="C314" s="27"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B315" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C315" s="23"/>
+      <c r="C315" s="27"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B316" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C316" s="23"/>
+      <c r="C316" s="27"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B317" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C317" s="23"/>
+      <c r="C317" s="27"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B318" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C318" s="23"/>
+      <c r="C318" s="27"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B319" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C319" s="23"/>
+      <c r="C319" s="27"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B320" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C320" s="23"/>
+      <c r="C320" s="27"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B321" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C321" s="23"/>
+      <c r="C321" s="27"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B322" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C322" s="23"/>
+      <c r="C322" s="27"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B323" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C323" s="23"/>
+      <c r="C323" s="27"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B324" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C324" s="23"/>
+      <c r="C324" s="27"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B325" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C325" s="23"/>
+      <c r="C325" s="27"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B326" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C326" s="23"/>
+      <c r="C326" s="27"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B327" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C327" s="23"/>
+      <c r="C327" s="27"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B328" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C328" s="23"/>
+      <c r="C328" s="27"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B329" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C329" s="23"/>
+      <c r="C329" s="27"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B330" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C330" s="23"/>
+      <c r="C330" s="27"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B331" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C331" s="23"/>
+      <c r="C331" s="27"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B332" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C332" s="23"/>
+      <c r="C332" s="27"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B333" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C333" s="23"/>
+      <c r="C333" s="27"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B334" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C334" s="23"/>
+      <c r="C334" s="27"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B335" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C335" s="23"/>
+      <c r="C335" s="27"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C336" s="23"/>
+      <c r="C336" s="27"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B337" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C337" s="23"/>
+      <c r="C337" s="27"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B338" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C338" s="23"/>
+      <c r="C338" s="27"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B339" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C339" s="23"/>
+      <c r="C339" s="27"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B340" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C340" s="23"/>
+      <c r="C340" s="27"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B341" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C341" s="23"/>
+      <c r="C341" s="27"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B342" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C342" s="23"/>
+      <c r="C342" s="27"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B343" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C343" s="23"/>
+      <c r="C343" s="27"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B344" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C344" s="23"/>
+      <c r="C344" s="27"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B345" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C345" s="23"/>
+      <c r="C345" s="27"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B346" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C346" s="23"/>
+      <c r="C346" s="27"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B347" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C347" s="23"/>
+      <c r="C347" s="27"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B348" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C348" s="23"/>
+      <c r="C348" s="27"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B349" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C349" s="23"/>
+      <c r="C349" s="27"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B350" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C350" s="23"/>
+      <c r="C350" s="27"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B351" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C351" s="23"/>
+      <c r="C351" s="27"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B352" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C352" s="23"/>
+      <c r="C352" s="27"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B353" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C353" s="23"/>
+      <c r="C353" s="27"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B354" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C354" s="23"/>
+      <c r="C354" s="27"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B355" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C355" s="23"/>
+      <c r="C355" s="27"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B356" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C356" s="23"/>
+      <c r="C356" s="27"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B357" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C357" s="23"/>
+      <c r="C357" s="27"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B358" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C358" s="23"/>
+      <c r="C358" s="27"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B359" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C359" s="23"/>
+      <c r="C359" s="27"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B360" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C360" s="23"/>
+      <c r="C360" s="27"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B361" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C361" s="23"/>
+      <c r="C361" s="27"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B362" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C362" s="23"/>
+      <c r="C362" s="27"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B363" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C363" s="23"/>
+      <c r="C363" s="27"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B364" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C364" s="23"/>
+      <c r="C364" s="27"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B365" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C365" s="23"/>
+      <c r="C365" s="27"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B366" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C366" s="23"/>
+      <c r="C366" s="27"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B367" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C367" s="23"/>
+      <c r="C367" s="27"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B368" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C368" s="23"/>
+      <c r="C368" s="27"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B369" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C369" s="23"/>
+      <c r="C369" s="27"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B370" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C370" s="23"/>
+      <c r="C370" s="27"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B371" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C371" s="23"/>
+      <c r="C371" s="27"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B372" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C372" s="23"/>
+      <c r="C372" s="27"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B373" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C373" s="23"/>
+      <c r="C373" s="27"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B374" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C374" s="23"/>
+      <c r="C374" s="27"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B375" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C375" s="23"/>
+      <c r="C375" s="27"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B376" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C376" s="23"/>
+      <c r="C376" s="27"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B377" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C377" s="23"/>
+      <c r="C377" s="27"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B378" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C378" s="23"/>
+      <c r="C378" s="27"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B379" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C379" s="23"/>
+      <c r="C379" s="27"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B380" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C380" s="23"/>
+      <c r="C380" s="27"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B381" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C381" s="23"/>
+      <c r="C381" s="27"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B382" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C382" s="23"/>
+      <c r="C382" s="27"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B383" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C383" s="23"/>
+      <c r="C383" s="27"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B384" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C384" s="23"/>
+      <c r="C384" s="27"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B385" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C385" s="23"/>
+      <c r="C385" s="27"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B386" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C386" s="23"/>
+      <c r="C386" s="27"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B387" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C387" s="23"/>
+      <c r="C387" s="27"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B388" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C388" s="23"/>
+      <c r="C388" s="27"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B389" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C389" s="23"/>
+      <c r="C389" s="27"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B390" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C390" s="23"/>
+      <c r="C390" s="27"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B391" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C391" s="23"/>
+      <c r="C391" s="27"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B392" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C392" s="23"/>
+      <c r="C392" s="27"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B393" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C393" s="23"/>
+      <c r="C393" s="27"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B394" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C394" s="23"/>
+      <c r="C394" s="27"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B395" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C395" s="23"/>
+      <c r="C395" s="27"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B396" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C396" s="23"/>
+      <c r="C396" s="27"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B397" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C397" s="23"/>
+      <c r="C397" s="27"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B398" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C398" s="23"/>
+      <c r="C398" s="27"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B399" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C399" s="23"/>
+      <c r="C399" s="27"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B400" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C400" s="23"/>
+      <c r="C400" s="27"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B401" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C401" s="23"/>
+      <c r="C401" s="27"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B402" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C402" s="23"/>
+      <c r="C402" s="27"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B403" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C403" s="23"/>
+      <c r="C403" s="27"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B404" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C404" s="23"/>
+      <c r="C404" s="27"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B405" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C405" s="23"/>
+      <c r="C405" s="27"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B406" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C406" s="23"/>
+      <c r="C406" s="27"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B407" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C407" s="23"/>
+      <c r="C407" s="27"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B408" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C408" s="23"/>
+      <c r="C408" s="27"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B409" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C409" s="23"/>
+      <c r="C409" s="27"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B410" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C410" s="23"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B411" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C411" s="23"/>
+      <c r="C411" s="27"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B412" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C412" s="23"/>
+      <c r="C412" s="27"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B413" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C413" s="23"/>
+      <c r="C413" s="27"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B414" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C414" s="23"/>
+      <c r="C414" s="27"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B415" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C415" s="23"/>
+      <c r="C415" s="27"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B416" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C416" s="23"/>
+      <c r="C416" s="27"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B417" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C417" s="23"/>
+      <c r="C417" s="27"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B418" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C418" s="23"/>
+      <c r="C418" s="27"/>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B419" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C419" s="23"/>
+      <c r="C419" s="27"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B420" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C420" s="23"/>
+      <c r="C420" s="27"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B421" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C421" s="23"/>
+      <c r="C421" s="27"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B422" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C422" s="23"/>
+      <c r="C422" s="27"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B423" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C423" s="23"/>
+      <c r="C423" s="27"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B424" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C424" s="23"/>
+      <c r="C424" s="27"/>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B425" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C425" s="23"/>
+      <c r="C425" s="27"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B426" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C426" s="23"/>
+      <c r="C426" s="27"/>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B427" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C427" s="23"/>
+      <c r="C427" s="27"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B428" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C428" s="23"/>
+      <c r="C428" s="27"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B429" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C429" s="23"/>
+      <c r="C429" s="27"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B430" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C430" s="23"/>
+      <c r="C430" s="27"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B431" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C431" s="23"/>
+      <c r="C431" s="27"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B432" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C432" s="23"/>
+      <c r="C432" s="27"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B433" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C433" s="23"/>
+      <c r="C433" s="27"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B434" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C434" s="23"/>
+      <c r="C434" s="27"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B435" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C435" s="23"/>
+      <c r="C435" s="27"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B436" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C436" s="23"/>
+      <c r="C436" s="27"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B437" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C437" s="23"/>
+      <c r="C437" s="27"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B438" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C438" s="23"/>
+      <c r="C438" s="27"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B439" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C439" s="23"/>
+      <c r="C439" s="27"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B440" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C440" s="23"/>
+      <c r="C440" s="27"/>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B441" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C441" s="23"/>
+      <c r="C441" s="27"/>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B442" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C442" s="23"/>
+      <c r="C442" s="27"/>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B443" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C443" s="23"/>
+      <c r="C443" s="27"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B444" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C444" s="23"/>
+      <c r="C444" s="27"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B445" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C445" s="23"/>
+      <c r="C445" s="27"/>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B446" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C446" s="23"/>
+      <c r="C446" s="27"/>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B447" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C447" s="23"/>
+      <c r="C447" s="27"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B448" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C448" s="23"/>
+      <c r="C448" s="27"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B449" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C449" s="23"/>
+      <c r="C449" s="27"/>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B450" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C450" s="23"/>
+      <c r="C450" s="27"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B451" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C451" s="23"/>
+      <c r="C451" s="27"/>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B452" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C452" s="23"/>
+      <c r="C452" s="27"/>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B453" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C453" s="23"/>
+      <c r="C453" s="27"/>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B454" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C454" s="23"/>
+      <c r="C454" s="27"/>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B455" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C455" s="23"/>
+      <c r="C455" s="27"/>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B456" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C456" s="23"/>
+      <c r="C456" s="27"/>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B457" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C457" s="23"/>
+      <c r="C457" s="27"/>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B458" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C458" s="23"/>
+      <c r="C458" s="27"/>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B459" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C459" s="23"/>
+      <c r="C459" s="27"/>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B460" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C460" s="23"/>
+      <c r="C460" s="27"/>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B461" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C461" s="23"/>
+      <c r="C461" s="27"/>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B462" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C462" s="23"/>
+      <c r="C462" s="27"/>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B463" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C463" s="23"/>
+      <c r="C463" s="27"/>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B464" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C464" s="23"/>
+      <c r="C464" s="27"/>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B465" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C465" s="23"/>
+      <c r="C465" s="27"/>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B466" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C466" s="23"/>
+      <c r="C466" s="27"/>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B467" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C467" s="23"/>
+      <c r="C467" s="27"/>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B468" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C468" s="23"/>
+      <c r="C468" s="27"/>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B469" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C469" s="23"/>
+      <c r="C469" s="27"/>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B470" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C470" s="23"/>
+      <c r="C470" s="27"/>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B471" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C471" s="23"/>
+      <c r="C471" s="27"/>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B472" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C472" s="23"/>
+      <c r="C472" s="27"/>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B473" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C473" s="23"/>
+      <c r="C473" s="27"/>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B474" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C474" s="23"/>
+      <c r="C474" s="27"/>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B475" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C475" s="23"/>
+      <c r="C475" s="27"/>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B476" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C476" s="23"/>
+      <c r="C476" s="27"/>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B477" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C477" s="23"/>
+      <c r="C477" s="27"/>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B478" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C478" s="23"/>
+      <c r="C478" s="27"/>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B479" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C479" s="23"/>
+      <c r="C479" s="27"/>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B480" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C480" s="23"/>
+      <c r="C480" s="27"/>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B481" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C481" s="23"/>
+      <c r="C481" s="27"/>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B482" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C482" s="23"/>
+      <c r="C482" s="27"/>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B483" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C483" s="23"/>
+      <c r="C483" s="27"/>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B484" s="4" t="s">
@@ -7570,7 +7612,7 @@
     </row>
     <row r="515" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B515" s="11" t="s">
         <v>587</v>
@@ -7578,7 +7620,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>588</v>
@@ -7589,7 +7631,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B517" s="5" t="s">
         <v>589</v>
@@ -7608,7 +7650,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B519" s="4" t="s">
         <v>594</v>
@@ -7640,7 +7682,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B523" s="4" t="s">
         <v>606</v>
@@ -7653,7 +7695,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B525" s="4" t="s">
         <v>608</v>
@@ -7661,7 +7703,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B526" s="4" t="s">
         <v>610</v>
@@ -7669,20 +7711,20 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B527" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C527" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="C527" s="1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B528" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C528" s="21" t="s">
+      <c r="C528" s="25" t="s">
         <v>621</v>
       </c>
     </row>
@@ -7690,53 +7732,53 @@
       <c r="B529" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="C529" s="20"/>
+      <c r="C529" s="24"/>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B530" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C530" s="20"/>
+      <c r="C530" s="24"/>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B531" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C531" s="20"/>
+      <c r="C531" s="24"/>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B532" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C532" s="20"/>
+      <c r="C532" s="24"/>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B533" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C533" s="20"/>
+      <c r="C533" s="24"/>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B534" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C534" s="20"/>
+      <c r="C534" s="24"/>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B535" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C535" s="20"/>
+      <c r="C535" s="24"/>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B536" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C536" s="20"/>
+      <c r="C536" s="24"/>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B537" s="11" t="s">
         <v>622</v>
@@ -7744,7 +7786,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B538" s="4" t="s">
         <v>623</v>
@@ -7765,7 +7807,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>625</v>
@@ -7776,7 +7818,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>627</v>
@@ -7789,18 +7831,18 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B544" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B545" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -7815,7 +7857,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B548" s="4" t="s">
         <v>631</v>
@@ -7828,22 +7870,22 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B550" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="B550" s="4" t="s">
+      <c r="C550" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="C550" s="1" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
       <c r="B551" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C551" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="C551" s="1" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -7853,7 +7895,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B553" s="4" t="s">
         <v>635</v>
@@ -7866,7 +7908,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B555" s="4" t="s">
         <v>637</v>
@@ -7874,7 +7916,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B556" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -7887,7 +7929,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B558" s="4" t="s">
         <v>639</v>
@@ -7895,23 +7937,23 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B561" s="4" t="s">
         <v>640</v>
@@ -7919,7 +7961,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B562" s="4" t="s">
         <v>641</v>
@@ -7927,7 +7969,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B563" s="4" t="s">
         <v>642</v>
@@ -7935,7 +7977,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="12" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B564" s="4" t="s">
         <v>650</v>
@@ -7943,15 +7985,15 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B566" s="4" t="s">
         <v>643</v>
@@ -7959,7 +8001,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="12" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B567" s="4" t="s">
         <v>644</v>
@@ -7967,15 +8009,15 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B569" s="4" t="s">
         <v>645</v>
@@ -7983,7 +8025,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="12" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B570" s="4" t="s">
         <v>648</v>
@@ -8004,7 +8046,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B573" s="4" t="s">
         <v>651</v>
@@ -8028,7 +8070,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B576" s="4" t="s">
         <v>656</v>
@@ -8046,7 +8088,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B579" s="4" t="s">
         <v>659</v>
@@ -8054,12 +8096,12 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B580" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B581" s="4" t="s">
         <v>660</v>
@@ -8072,7 +8114,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B583" s="4" t="s">
         <v>709</v>
@@ -8085,15 +8127,15 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B586" s="4" t="s">
         <v>663</v>
@@ -8101,15 +8143,15 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B588" s="4" t="s">
         <v>664</v>
@@ -8117,7 +8159,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B589" s="4" t="s">
         <v>665</v>
@@ -8125,7 +8167,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="12" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B590" s="4" t="s">
         <v>666</v>
@@ -8136,7 +8178,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B591" s="4" t="s">
         <v>668</v>
@@ -8147,7 +8189,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B592" s="5" t="s">
         <v>670</v>
@@ -8160,7 +8202,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B594" s="4" t="s">
         <v>672</v>
@@ -8197,10 +8239,10 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B600" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C600" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="C600" s="1" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -8213,7 +8255,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B602" s="5" t="s">
         <v>681</v>
@@ -8221,7 +8263,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="12" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B603" s="4" t="s">
         <v>682</v>
@@ -8229,7 +8271,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="12" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B604" s="4" t="s">
         <v>536</v>
@@ -8237,7 +8279,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B605" s="4" t="s">
         <v>537</v>
@@ -8245,7 +8287,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B606" s="4" t="s">
         <v>538</v>
@@ -8253,7 +8295,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B607" s="4" t="s">
         <v>539</v>
@@ -8261,7 +8303,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B608" s="4" t="s">
         <v>540</v>
@@ -8269,7 +8311,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B609" s="4" t="s">
         <v>541</v>
@@ -8277,7 +8319,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B610" s="4" t="s">
         <v>542</v>
@@ -8285,7 +8327,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B611" s="4" t="s">
         <v>543</v>
@@ -8293,7 +8335,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="12" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B612" s="4" t="s">
         <v>545</v>
@@ -8301,7 +8343,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="12" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B613" s="4" t="s">
         <v>547</v>
@@ -8309,7 +8351,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="12" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B614" s="4" t="s">
         <v>549</v>
@@ -8317,7 +8359,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B615" s="4" t="s">
         <v>550</v>
@@ -8325,7 +8367,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="12" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B616" s="4" t="s">
         <v>552</v>
@@ -8333,7 +8375,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B617" s="4" t="s">
         <v>554</v>
@@ -8341,7 +8383,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B618" s="4" t="s">
         <v>556</v>
@@ -8349,7 +8391,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B619" s="4" t="s">
         <v>557</v>
@@ -8357,7 +8399,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="12" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B620" s="4" t="s">
         <v>559</v>
@@ -8365,7 +8407,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="12" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B621" s="4" t="s">
         <v>561</v>
@@ -8373,7 +8415,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B622" s="4" t="s">
         <v>563</v>
@@ -8381,7 +8423,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="12" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B623" s="4" t="s">
         <v>565</v>
@@ -8389,7 +8431,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="12" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B624" s="4" t="s">
         <v>567</v>
@@ -8397,7 +8439,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="12" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B625" s="4" t="s">
         <v>569</v>
@@ -8405,7 +8447,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B626" s="4" t="s">
         <v>570</v>
@@ -8413,15 +8455,15 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="12" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B628" s="4" t="s">
         <v>572</v>
@@ -8429,7 +8471,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B629" s="4" t="s">
         <v>574</v>
@@ -8442,7 +8484,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="12" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B631" s="4" t="s">
         <v>578</v>
@@ -8460,7 +8502,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B634" s="4" t="s">
         <v>583</v>
@@ -8484,12 +8526,12 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B637" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B638" s="4" t="s">
         <v>688</v>
@@ -8502,7 +8544,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B640" s="4" t="s">
         <v>690</v>
@@ -8510,7 +8552,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="12" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B641" s="5" t="s">
         <v>692</v>
@@ -8518,7 +8560,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B642" s="4" t="s">
         <v>693</v>
@@ -8531,7 +8573,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B644" s="4" t="s">
         <v>695</v>
@@ -8539,7 +8581,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B645" s="4" t="s">
         <v>696</v>
@@ -8547,7 +8589,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B646" s="4" t="s">
         <v>697</v>
@@ -8560,7 +8602,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>699</v>
@@ -8573,18 +8615,18 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
@@ -8594,7 +8636,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B653" s="4" t="s">
         <v>702</v>
@@ -8602,7 +8644,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B654" s="4" t="s">
         <v>703</v>
@@ -8610,7 +8652,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B655" s="4" t="s">
         <v>704</v>
@@ -8618,7 +8660,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B656" s="4" t="s">
         <v>705</v>
@@ -8626,7 +8668,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="12" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B657" s="4" t="s">
         <v>706</v>
@@ -8634,7 +8676,7 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B658" s="4" t="s">
         <v>709</v>
@@ -8642,7 +8684,7 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="12" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B659" s="4" t="s">
         <v>710</v>
@@ -8655,7 +8697,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="12" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B661" s="4" t="s">
         <v>712</v>
@@ -8663,7 +8705,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B662" s="4" t="s">
         <v>713</v>
@@ -8671,7 +8713,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B663" s="4" t="s">
         <v>715</v>
@@ -8687,12 +8729,12 @@
         <v>716</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B666" s="4" t="s">
         <v>717</v>
@@ -8700,7 +8742,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B667" s="4" t="s">
         <v>718</v>
@@ -8708,7 +8750,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B668" s="4" t="s">
         <v>719</v>
@@ -8716,7 +8758,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="17" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B669" s="4" t="s">
         <v>720</v>
@@ -8729,10 +8771,10 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
@@ -8742,7 +8784,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B673" s="4" t="s">
         <v>723</v>
@@ -8750,7 +8792,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="17" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B674" s="4" t="s">
         <v>724</v>
@@ -8761,12 +8803,12 @@
         <v>725</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B676" s="4" t="s">
         <v>726</v>
@@ -8774,7 +8816,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B677" s="4" t="s">
         <v>727</v>
@@ -8782,7 +8824,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B678" s="4" t="s">
         <v>728</v>
@@ -8790,7 +8832,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="17" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B679" s="4" t="s">
         <v>729</v>
@@ -8798,7 +8840,7 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B680" s="4" t="s">
         <v>730</v>
@@ -8826,7 +8868,7 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="17" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B685" s="4" t="s">
         <v>735</v>
@@ -8834,7 +8876,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B686" s="4" t="s">
         <v>736</v>
@@ -8842,7 +8884,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B687" s="4" t="s">
         <v>737</v>
@@ -8850,7 +8892,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="12" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B688" s="4" t="s">
         <v>738</v>
@@ -8858,7 +8900,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B689" s="4" t="s">
         <v>739</v>
@@ -8871,7 +8913,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="12" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B691" s="4" t="s">
         <v>742</v>
@@ -8889,7 +8931,7 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B694" s="4" t="s">
         <v>745</v>
@@ -8897,7 +8939,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="12" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B695" s="4" t="s">
         <v>746</v>
@@ -8905,7 +8947,7 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="12" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B696" s="4" t="s">
         <v>747</v>
@@ -8918,7 +8960,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B698" s="4" t="s">
         <v>750</v>
@@ -8926,7 +8968,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B699" s="4" t="s">
         <v>751</v>
@@ -8934,7 +8976,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>752</v>
@@ -8947,7 +8989,7 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B702" s="4" t="s">
         <v>753</v>
@@ -8955,7 +8997,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B703" s="4" t="s">
         <v>755</v>
@@ -8965,7 +9007,7 @@
       <c r="B704" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="C704" s="21" t="s">
+      <c r="C704" s="25" t="s">
         <v>779</v>
       </c>
     </row>
@@ -8973,62 +9015,62 @@
       <c r="B705" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="C705" s="20"/>
+      <c r="C705" s="24"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B706" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="C706" s="20"/>
+      <c r="C706" s="24"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B707" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="C707" s="20"/>
+      <c r="C707" s="24"/>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B708" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="C708" s="20"/>
+      <c r="C708" s="24"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B709" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="C709" s="20"/>
+      <c r="C709" s="24"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B710" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="C710" s="20"/>
+      <c r="C710" s="24"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B711" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="C711" s="20"/>
+      <c r="C711" s="24"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B712" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="C712" s="20"/>
+      <c r="C712" s="24"/>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B713" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="C713" s="20"/>
+      <c r="C713" s="24"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="12" t="s">
         <v>787</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>788</v>
@@ -9060,41 +9102,57 @@
         <v>799</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>800</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B719" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B720" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C720" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="C720" s="1" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B721" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B722" s="16" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="C723" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="C723" s="1" t="s">
-        <v>975</v>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B724" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B725" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>1081</v>
       </c>
     </row>
   </sheetData>
@@ -9134,11 +9192,11 @@
       <c r="D1" s="15">
         <v>2015</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="24"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="24"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -9153,11 +9211,11 @@
       <c r="D2" s="15">
         <v>2012</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="24"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -9172,12 +9230,12 @@
       <c r="D3" s="15">
         <v>2015</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
@@ -9192,12 +9250,12 @@
       <c r="D4" s="15">
         <v>2014</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -9212,12 +9270,12 @@
       <c r="D5" s="15">
         <v>2013</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
@@ -9232,12 +9290,12 @@
       <c r="D6" s="15">
         <v>2012</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -9252,12 +9310,12 @@
       <c r="D7" s="15">
         <v>2014</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
@@ -9272,12 +9330,12 @@
       <c r="D8" s="15">
         <v>2011</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
@@ -9292,12 +9350,12 @@
       <c r="D9" s="15">
         <v>2015</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
@@ -9306,34 +9364,34 @@
       <c r="B10" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -9355,18 +9413,18 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="7"/>
-      <c r="D16" s="25"/>
-      <c r="F16" s="26"/>
+      <c r="D16" s="29"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="7"/>
-      <c r="D17" s="25"/>
-      <c r="F17" s="26"/>
+      <c r="D17" s="29"/>
+      <c r="F17" s="30"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
@@ -9395,18 +9453,18 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="7"/>
-      <c r="D21" s="25"/>
-      <c r="F21" s="26"/>
+      <c r="D21" s="29"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="7"/>
-      <c r="D22" s="25"/>
-      <c r="F22" s="26"/>
+      <c r="D22" s="29"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>

--- a/Stability Coding.xlsx
+++ b/Stability Coding.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30520" yWindow="1280" windowWidth="28260" windowHeight="20020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="30520" yWindow="1280" windowWidth="28260" windowHeight="20020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Canada" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="2310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="2321">
   <si>
     <t>Mounties</t>
   </si>
@@ -6748,6 +6748,285 @@
     <t xml:space="preserve">Minsitry of East African Affairs, Commerce and Tourism </t>
   </si>
   <si>
+    <t>Ministry of Labour, Social Security and Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAC </t>
+  </si>
+  <si>
+    <t>African EU, in early stages</t>
+  </si>
+  <si>
+    <t>Labour Department</t>
+  </si>
+  <si>
+    <t>National Employemnet Bureau</t>
+  </si>
+  <si>
+    <t>Directorate of Occupation Safety and Health Services</t>
+  </si>
+  <si>
+    <t>National Council for Children Services</t>
+  </si>
+  <si>
+    <t>Social Development</t>
+  </si>
+  <si>
+    <t>Children Services</t>
+  </si>
+  <si>
+    <t>Social Protection Secreteriat</t>
+  </si>
+  <si>
+    <t>Productivity Centre of Kenya</t>
+  </si>
+  <si>
+    <t>National Human Resource Planning and Department</t>
+  </si>
+  <si>
+    <t>National Council for Persons With Disabilities</t>
+  </si>
+  <si>
+    <t>Registrar of Trade Unions</t>
+  </si>
+  <si>
+    <t>National Industrail Training Authority</t>
+  </si>
+  <si>
+    <t>National Social Security Fund</t>
+  </si>
+  <si>
+    <t>NSSF</t>
+  </si>
+  <si>
+    <t>NITA</t>
+  </si>
+  <si>
+    <t>Energy Regulatory Commission</t>
+  </si>
+  <si>
+    <t>ERC</t>
+  </si>
+  <si>
+    <t>Ministry of Energy and Petroleum</t>
+  </si>
+  <si>
+    <t>Ministry of Agriculture, Livestock and Fisheries</t>
+  </si>
+  <si>
+    <t>Lokichar Basin</t>
+  </si>
+  <si>
+    <t>oil rich area</t>
+  </si>
+  <si>
+    <t>DOSHS</t>
+  </si>
+  <si>
+    <t>Rural Electrification Authority</t>
+  </si>
+  <si>
+    <t>REA</t>
+  </si>
+  <si>
+    <t>National Oil</t>
+  </si>
+  <si>
+    <t>the national oil company of Kenya</t>
+  </si>
+  <si>
+    <t>Kenya Power</t>
+  </si>
+  <si>
+    <t>national electrical utility</t>
+  </si>
+  <si>
+    <t>NCPWD</t>
+  </si>
+  <si>
+    <t>National Development Fund for Persons with Disabilities </t>
+  </si>
+  <si>
+    <t>NDFPD</t>
+  </si>
+  <si>
+    <t>disabilities fund</t>
+  </si>
+  <si>
+    <t>KPRL</t>
+  </si>
+  <si>
+    <t>Kenya Petroleum Refineries Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renewable Energy Portal </t>
+  </si>
+  <si>
+    <t>green energy initiative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Justice </t>
+  </si>
+  <si>
+    <t>DOJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICTA Authority </t>
+  </si>
+  <si>
+    <t>The Judiciary</t>
+  </si>
+  <si>
+    <t>Willy Mutunga</t>
+  </si>
+  <si>
+    <t>Kalpana Rawal</t>
+  </si>
+  <si>
+    <t>Philip Tunoi </t>
+  </si>
+  <si>
+    <t>J.B. Ojwang</t>
+  </si>
+  <si>
+    <t>Mohammed K. Ibrahim</t>
+  </si>
+  <si>
+    <t>Njoki Susanna Ndungu</t>
+  </si>
+  <si>
+    <t>Smokin Wanjala</t>
+  </si>
+  <si>
+    <t>Supremem court Judges</t>
+  </si>
+  <si>
+    <t>kilimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"agriculture" </t>
+  </si>
+  <si>
+    <t>Kenya Seed Company</t>
+  </si>
+  <si>
+    <t>Kenya Meat Commission</t>
+  </si>
+  <si>
+    <t>KMC</t>
+  </si>
+  <si>
+    <t>Nzoia Sugar Company</t>
+  </si>
+  <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>Muhoroni Sugar Company</t>
+  </si>
+  <si>
+    <t>Chemelil Sugar Company</t>
+  </si>
+  <si>
+    <t>Agriculture Fisheries and Food Authority</t>
+  </si>
+  <si>
+    <t>AFFA</t>
+  </si>
+  <si>
+    <t> Ministry of Industrialization Investment and Trade</t>
+  </si>
+  <si>
+    <t>MIIT</t>
+  </si>
+  <si>
+    <t>Anti-Counterfeiting Agency</t>
+  </si>
+  <si>
+    <t>ACA</t>
+  </si>
+  <si>
+    <t>East African Portland Cement Company</t>
+  </si>
+  <si>
+    <t>EAPCC</t>
+  </si>
+  <si>
+    <t>Export Processing Zones Authority</t>
+  </si>
+  <si>
+    <t>EPZA</t>
+  </si>
+  <si>
+    <t>Kenya Accreditation Service </t>
+  </si>
+  <si>
+    <t>KENAS</t>
+  </si>
+  <si>
+    <t>Kenya Bureau of Standards</t>
+  </si>
+  <si>
+    <t>KEBS</t>
+  </si>
+  <si>
+    <t>Kenya Industrial Estates</t>
+  </si>
+  <si>
+    <t>KIE</t>
+  </si>
+  <si>
+    <t>Kenya Industrial Property Institute</t>
+  </si>
+  <si>
+    <t>KIPI</t>
+  </si>
+  <si>
+    <t>Kenya Investment Authority</t>
+  </si>
+  <si>
+    <t>KIA</t>
+  </si>
+  <si>
+    <t>Sacco Societies Regulatory Authority </t>
+  </si>
+  <si>
+    <t>SASRA</t>
+  </si>
+  <si>
+    <t>Kenyan SEC</t>
+  </si>
+  <si>
+    <t>Standards Tribunal</t>
+  </si>
+  <si>
+    <t>Industry oversight group</t>
+  </si>
+  <si>
+    <t>Industrial Property Tribunal</t>
+  </si>
+  <si>
+    <t>intellectual property oversight group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Africa Court of Justice </t>
+  </si>
+  <si>
+    <t>EACJ</t>
+  </si>
+  <si>
+    <t>Judiciary of EAC</t>
+  </si>
+  <si>
+    <t>Ministry of Mining</t>
+  </si>
+  <si>
+    <t>Patrick Njoroge</t>
+  </si>
+  <si>
+    <t>Head of the Central Bank</t>
+  </si>
+  <si>
     <r>
       <t>Jubilee Alliance</t>
     </r>
@@ -6763,284 +7042,38 @@
     </r>
   </si>
   <si>
-    <t>Ministry of Labour, Social Security and Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAC </t>
-  </si>
-  <si>
-    <t>African EU, in early stages</t>
-  </si>
-  <si>
-    <t>Labour Department</t>
-  </si>
-  <si>
-    <t>National Employemnet Bureau</t>
-  </si>
-  <si>
-    <t>Directorate of Occupation Safety and Health Services</t>
-  </si>
-  <si>
-    <t>National Council for Children Services</t>
-  </si>
-  <si>
-    <t>Social Development</t>
-  </si>
-  <si>
-    <t>Children Services</t>
-  </si>
-  <si>
-    <t>Social Protection Secreteriat</t>
-  </si>
-  <si>
-    <t>Productivity Centre of Kenya</t>
-  </si>
-  <si>
-    <t>National Human Resource Planning and Department</t>
-  </si>
-  <si>
-    <t>National Council for Persons With Disabilities</t>
-  </si>
-  <si>
-    <t>Registrar of Trade Unions</t>
-  </si>
-  <si>
-    <t>National Industrail Training Authority</t>
-  </si>
-  <si>
-    <t>National Social Security Fund</t>
-  </si>
-  <si>
-    <t>NSSF</t>
-  </si>
-  <si>
-    <t>NITA</t>
-  </si>
-  <si>
-    <t>Energy Regulatory Commission</t>
-  </si>
-  <si>
-    <t>ERC</t>
-  </si>
-  <si>
-    <t>Ministry of Energy and Petroleum</t>
-  </si>
-  <si>
-    <t>Ministry of Agriculture, Livestock and Fisheries</t>
-  </si>
-  <si>
-    <t>Lokichar Basin</t>
-  </si>
-  <si>
-    <t>oil rich area</t>
-  </si>
-  <si>
-    <t>DOSHS</t>
-  </si>
-  <si>
-    <t>Rural Electrification Authority</t>
-  </si>
-  <si>
-    <t>REA</t>
-  </si>
-  <si>
-    <t>National Oil</t>
-  </si>
-  <si>
-    <t>the national oil company of Kenya</t>
-  </si>
-  <si>
-    <t>Kenya Power</t>
-  </si>
-  <si>
-    <t>national electrical utility</t>
-  </si>
-  <si>
-    <t>NCPWD</t>
-  </si>
-  <si>
-    <t>National Development Fund for Persons with Disabilities </t>
-  </si>
-  <si>
-    <t>NDFPD</t>
-  </si>
-  <si>
-    <t>disabilities fund</t>
-  </si>
-  <si>
-    <t>KPRL</t>
-  </si>
-  <si>
-    <t>Kenya Petroleum Refineries Ltd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renewable Energy Portal </t>
-  </si>
-  <si>
-    <t>green energy initiative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Justice </t>
-  </si>
-  <si>
-    <t>DOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICTA Authority </t>
-  </si>
-  <si>
-    <t>The Judiciary</t>
-  </si>
-  <si>
-    <t>Willy Mutunga</t>
-  </si>
-  <si>
-    <t>Kalpana Rawal</t>
-  </si>
-  <si>
-    <t>Philip Tunoi </t>
-  </si>
-  <si>
-    <t>J.B. Ojwang</t>
-  </si>
-  <si>
-    <t>Mohammed K. Ibrahim</t>
-  </si>
-  <si>
-    <t>Njoki Susanna Ndungu</t>
-  </si>
-  <si>
-    <t>Smokin Wanjala</t>
-  </si>
-  <si>
-    <t>Supremem court Judges</t>
-  </si>
-  <si>
-    <t>kilimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"agriculture" </t>
-  </si>
-  <si>
-    <t>Kenya Seed Company</t>
-  </si>
-  <si>
-    <t>Kenya Meat Commission</t>
-  </si>
-  <si>
-    <t>KMC</t>
-  </si>
-  <si>
-    <t>Nzoia Sugar Company</t>
-  </si>
-  <si>
-    <t>NSC</t>
-  </si>
-  <si>
-    <t>Muhoroni Sugar Company</t>
-  </si>
-  <si>
-    <t>Chemelil Sugar Company</t>
-  </si>
-  <si>
-    <t>Agriculture Fisheries and Food Authority</t>
-  </si>
-  <si>
-    <t>AFFA</t>
-  </si>
-  <si>
-    <t> Ministry of Industrialization Investment and Trade</t>
-  </si>
-  <si>
-    <t>MIIT</t>
-  </si>
-  <si>
-    <t>Anti-Counterfeiting Agency</t>
-  </si>
-  <si>
-    <t>ACA</t>
-  </si>
-  <si>
-    <t>East African Portland Cement Company</t>
-  </si>
-  <si>
-    <t>EAPCC</t>
-  </si>
-  <si>
-    <t>Export Processing Zones Authority</t>
-  </si>
-  <si>
-    <t>EPZA</t>
-  </si>
-  <si>
-    <t>Kenya Accreditation Service </t>
-  </si>
-  <si>
-    <t>KENAS</t>
-  </si>
-  <si>
-    <t>Kenya Bureau of Standards</t>
-  </si>
-  <si>
-    <t>KEBS</t>
-  </si>
-  <si>
-    <t>Kenya Industrial Estates</t>
-  </si>
-  <si>
-    <t>KIE</t>
-  </si>
-  <si>
-    <t>Kenya Industrial Property Institute</t>
-  </si>
-  <si>
-    <t>KIPI</t>
-  </si>
-  <si>
-    <t>Kenya Investment Authority</t>
-  </si>
-  <si>
-    <t>KIA</t>
-  </si>
-  <si>
-    <t>Sacco Societies Regulatory Authority </t>
-  </si>
-  <si>
-    <t>SASRA</t>
-  </si>
-  <si>
-    <t>Kenyan SEC</t>
-  </si>
-  <si>
-    <t>Standards Tribunal</t>
-  </si>
-  <si>
-    <t>Industry oversight group</t>
-  </si>
-  <si>
-    <t>Industrial Property Tribunal</t>
-  </si>
-  <si>
-    <t>intellectual property oversight group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Africa Court of Justice </t>
-  </si>
-  <si>
-    <t>EACJ</t>
-  </si>
-  <si>
-    <t>Judiciary of EAC</t>
-  </si>
-  <si>
-    <t>Ministry of Mining</t>
+    <t>Massai</t>
+  </si>
+  <si>
+    <t>semi-nomadic tribal group</t>
+  </si>
+  <si>
+    <t>emuratare</t>
+  </si>
+  <si>
+    <t>Massai name for femal circumcision</t>
+  </si>
+  <si>
+    <t>female circumcision</t>
+  </si>
+  <si>
+    <t>female genital mutilation</t>
+  </si>
+  <si>
+    <t>emorata</t>
+  </si>
+  <si>
+    <t>women's rights</t>
+  </si>
+  <si>
+    <t>Droits des femmes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7193,63 +7226,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="PT Sans"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="PT Sans"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF787275"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="17"/>
-      <color rgb="FF228B22"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF444444"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color rgb="FF444444"/>
-      <name val="Open Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7278,7 +7260,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -7309,14 +7291,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7338,8 +7313,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -7625,8 +7598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F736"/>
   <sheetViews>
-    <sheetView topLeftCell="B107" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A717" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92:C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8178,7 +8151,7 @@
       <c r="B44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="29" t="s">
         <v>806</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -8192,7 +8165,7 @@
       <c r="B45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="37"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="1" t="s">
         <v>52</v>
       </c>
@@ -8201,7 +8174,7 @@
       <c r="B46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="37"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="1" t="s">
         <v>55</v>
       </c>
@@ -8213,7 +8186,7 @@
       <c r="B47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -8227,7 +8200,7 @@
       <c r="B48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="40"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="1" t="s">
         <v>65</v>
       </c>
@@ -8239,7 +8212,7 @@
       <c r="B49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="40"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="1" t="s">
         <v>1012</v>
       </c>
@@ -8251,7 +8224,7 @@
       <c r="B50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="40"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="1" t="s">
         <v>1013</v>
       </c>
@@ -8263,7 +8236,7 @@
       <c r="B51" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="40"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="1" t="s">
         <v>1015</v>
       </c>
@@ -8275,7 +8248,7 @@
       <c r="B52" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="40"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="1" t="s">
         <v>66</v>
       </c>
@@ -8287,7 +8260,7 @@
       <c r="B53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="40"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="1" t="s">
         <v>1018</v>
       </c>
@@ -8299,7 +8272,7 @@
       <c r="B54" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="40"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="1" t="s">
         <v>67</v>
       </c>
@@ -8311,7 +8284,7 @@
       <c r="B55" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="40"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="1" t="s">
         <v>68</v>
       </c>
@@ -8323,7 +8296,7 @@
       <c r="B56" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="40"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="1" t="s">
         <v>69</v>
       </c>
@@ -8335,7 +8308,7 @@
       <c r="B57" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="40"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="1" t="s">
         <v>1021</v>
       </c>
@@ -8347,7 +8320,7 @@
       <c r="B58" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="40"/>
+      <c r="C58" s="33"/>
       <c r="D58" s="1" t="s">
         <v>73</v>
       </c>
@@ -8359,7 +8332,7 @@
       <c r="B59" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="40"/>
+      <c r="C59" s="33"/>
       <c r="D59" s="1" t="s">
         <v>74</v>
       </c>
@@ -8371,7 +8344,7 @@
       <c r="B60" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="40"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="1" t="s">
         <v>76</v>
       </c>
@@ -8383,7 +8356,7 @@
       <c r="B61" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="40"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="1" t="s">
         <v>77</v>
       </c>
@@ -8395,7 +8368,7 @@
       <c r="B62" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="40"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="1" t="s">
         <v>78</v>
       </c>
@@ -8407,7 +8380,7 @@
       <c r="B63" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="40"/>
+      <c r="C63" s="33"/>
       <c r="D63" s="1" t="s">
         <v>81</v>
       </c>
@@ -8419,7 +8392,7 @@
       <c r="B64" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="40"/>
+      <c r="C64" s="33"/>
       <c r="D64" s="1" t="s">
         <v>82</v>
       </c>
@@ -8431,7 +8404,7 @@
       <c r="B65" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="40"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="1" t="s">
         <v>1031</v>
       </c>
@@ -8443,7 +8416,7 @@
       <c r="B66" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="40"/>
+      <c r="C66" s="33"/>
       <c r="D66" s="1" t="s">
         <v>83</v>
       </c>
@@ -8455,7 +8428,7 @@
       <c r="B67" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="40"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="1" t="s">
         <v>84</v>
       </c>
@@ -8467,7 +8440,7 @@
       <c r="B68" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="40"/>
+      <c r="C68" s="33"/>
       <c r="D68" s="1" t="s">
         <v>85</v>
       </c>
@@ -8515,7 +8488,7 @@
       <c r="B72" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="32" t="s">
         <v>133</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -8529,7 +8502,7 @@
       <c r="B73" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="40"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="1" t="s">
         <v>226</v>
       </c>
@@ -8541,7 +8514,7 @@
       <c r="B74" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="40"/>
+      <c r="C74" s="33"/>
       <c r="D74" s="1" t="s">
         <v>532</v>
       </c>
@@ -8553,7 +8526,7 @@
       <c r="B75" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="40"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="1" t="s">
         <v>533</v>
       </c>
@@ -8565,7 +8538,7 @@
       <c r="B76" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="40"/>
+      <c r="C76" s="33"/>
       <c r="D76" s="1" t="s">
         <v>1042</v>
       </c>
@@ -8574,7 +8547,7 @@
       <c r="B77" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C77" s="40"/>
+      <c r="C77" s="33"/>
       <c r="D77" s="1" t="s">
         <v>534</v>
       </c>
@@ -8586,7 +8559,7 @@
       <c r="B78" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C78" s="40"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="1" t="s">
         <v>1044</v>
       </c>
@@ -8598,7 +8571,7 @@
       <c r="B79" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C79" s="40"/>
+      <c r="C79" s="33"/>
       <c r="D79" s="1" t="s">
         <v>601</v>
       </c>
@@ -8610,7 +8583,7 @@
       <c r="B80" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C80" s="40"/>
+      <c r="C80" s="33"/>
       <c r="D80" s="1" t="s">
         <v>602</v>
       </c>
@@ -8622,7 +8595,7 @@
       <c r="B81" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="40"/>
+      <c r="C81" s="33"/>
       <c r="D81" s="1" t="s">
         <v>603</v>
       </c>
@@ -8634,7 +8607,7 @@
       <c r="B82" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C82" s="40"/>
+      <c r="C82" s="33"/>
       <c r="D82" s="1" t="s">
         <v>604</v>
       </c>
@@ -8646,7 +8619,7 @@
       <c r="B83" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="40"/>
+      <c r="C83" s="33"/>
       <c r="D83" s="1" t="s">
         <v>605</v>
       </c>
@@ -8658,7 +8631,7 @@
       <c r="B84" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="40"/>
+      <c r="C84" s="33"/>
       <c r="D84" s="1" t="s">
         <v>1051</v>
       </c>
@@ -8747,7 +8720,7 @@
       <c r="B92" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="32" t="s">
         <v>224</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -8761,7 +8734,7 @@
       <c r="B93" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C93" s="40"/>
+      <c r="C93" s="33"/>
       <c r="D93" s="1" t="s">
         <v>708</v>
       </c>
@@ -8773,7 +8746,7 @@
       <c r="B94" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C94" s="40"/>
+      <c r="C94" s="33"/>
       <c r="D94" s="1" t="s">
         <v>714</v>
       </c>
@@ -8785,7 +8758,7 @@
       <c r="B95" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C95" s="40"/>
+      <c r="C95" s="33"/>
       <c r="D95" s="1" t="s">
         <v>741</v>
       </c>
@@ -8797,7 +8770,7 @@
       <c r="B96" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C96" s="40"/>
+      <c r="C96" s="33"/>
       <c r="D96" s="1" t="s">
         <v>756</v>
       </c>
@@ -8809,7 +8782,7 @@
       <c r="B97" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="40"/>
+      <c r="C97" s="33"/>
       <c r="D97" s="1" t="s">
         <v>757</v>
       </c>
@@ -8821,7 +8794,7 @@
       <c r="B98" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C98" s="40"/>
+      <c r="C98" s="33"/>
       <c r="D98" s="1" t="s">
         <v>773</v>
       </c>
@@ -8833,7 +8806,7 @@
       <c r="B99" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C99" s="40"/>
+      <c r="C99" s="33"/>
       <c r="D99" s="1" t="s">
         <v>774</v>
       </c>
@@ -8845,7 +8818,7 @@
       <c r="B100" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C100" s="40"/>
+      <c r="C100" s="33"/>
       <c r="D100" s="1" t="s">
         <v>967</v>
       </c>
@@ -8857,7 +8830,7 @@
       <c r="B101" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C101" s="40"/>
+      <c r="C101" s="33"/>
       <c r="D101" s="1" t="s">
         <v>1040</v>
       </c>
@@ -8869,7 +8842,7 @@
       <c r="B102" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C102" s="40"/>
+      <c r="C102" s="33"/>
       <c r="D102" s="1" t="s">
         <v>1046</v>
       </c>
@@ -8878,7 +8851,7 @@
       <c r="B103" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C103" s="40"/>
+      <c r="C103" s="33"/>
       <c r="D103" s="1" t="s">
         <v>1065</v>
       </c>
@@ -8890,7 +8863,7 @@
       <c r="B104" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C104" s="40"/>
+      <c r="C104" s="33"/>
       <c r="D104" s="1" t="s">
         <v>1073</v>
       </c>
@@ -8902,7 +8875,7 @@
       <c r="B105" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C105" s="40"/>
+      <c r="C105" s="33"/>
       <c r="D105" s="1" t="s">
         <v>1075</v>
       </c>
@@ -8911,7 +8884,7 @@
       <c r="B106" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C106" s="40"/>
+      <c r="C106" s="33"/>
       <c r="D106" s="1" t="s">
         <v>1076</v>
       </c>
@@ -8923,7 +8896,7 @@
       <c r="B107" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C107" s="40"/>
+      <c r="C107" s="33"/>
       <c r="D107" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8935,7 +8908,7 @@
       <c r="B108" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="40"/>
+      <c r="C108" s="33"/>
       <c r="D108" s="1" t="s">
         <v>1080</v>
       </c>
@@ -8944,7 +8917,7 @@
       <c r="B109" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C109" s="40"/>
+      <c r="C109" s="33"/>
       <c r="D109" s="1" t="s">
         <v>1120</v>
       </c>
@@ -8953,7 +8926,7 @@
       <c r="B110" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C110" s="40"/>
+      <c r="C110" s="33"/>
       <c r="D110" s="1" t="s">
         <v>1121</v>
       </c>
@@ -8962,7 +8935,7 @@
       <c r="B111" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C111" s="40"/>
+      <c r="C111" s="33"/>
       <c r="D111" s="1" t="s">
         <v>1122</v>
       </c>
@@ -8971,424 +8944,430 @@
       <c r="B112" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C112" s="40"/>
+      <c r="C112" s="33"/>
       <c r="D112" s="1" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C113" s="40"/>
+      <c r="C113" s="33"/>
       <c r="D113" s="1" t="s">
         <v>1757</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C114" s="40"/>
+      <c r="C114" s="33"/>
       <c r="D114" s="1" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C115" s="40"/>
+      <c r="C115" s="33"/>
       <c r="D115" s="1" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C116" s="40"/>
+      <c r="C116" s="33"/>
       <c r="D116" s="1" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C117" s="40"/>
+      <c r="C117" s="33"/>
       <c r="D117" s="1" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C118" s="40"/>
+      <c r="C118" s="33"/>
       <c r="D118" s="1" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C119" s="40"/>
+      <c r="C119" s="33"/>
       <c r="D119" s="1" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C120" s="40"/>
+      <c r="C120" s="33"/>
       <c r="D120" s="1" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C121" s="40"/>
+      <c r="C121" s="33"/>
       <c r="D121" s="1" t="s">
         <v>2095</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C122" s="40"/>
+      <c r="C122" s="33"/>
       <c r="D122" s="1" t="s">
         <v>2096</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C123" s="40"/>
+      <c r="C123" s="33"/>
       <c r="D123" s="1" t="s">
         <v>2107</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C124" s="40"/>
+      <c r="C124" s="33"/>
       <c r="D124" s="1" t="s">
         <v>2108</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C125" s="40"/>
+      <c r="C125" s="33"/>
       <c r="D125" s="1" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C126" s="40"/>
+      <c r="C126" s="33"/>
       <c r="D126" s="1" t="s">
         <v>2216</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="40"/>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C127" s="33"/>
+      <c r="D127" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C128" s="40"/>
+      <c r="C128" s="33"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C129" s="40"/>
+      <c r="C129" s="33"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C130" s="40"/>
+      <c r="C130" s="33"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C131" s="40"/>
+      <c r="C131" s="33"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C132" s="40"/>
+      <c r="C132" s="33"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C133" s="40"/>
+      <c r="C133" s="33"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C134" s="40"/>
+      <c r="C134" s="33"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C135" s="40"/>
+      <c r="C135" s="33"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C136" s="40"/>
+      <c r="C136" s="33"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C137" s="40"/>
+      <c r="C137" s="33"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C138" s="40"/>
+      <c r="C138" s="33"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C139" s="40"/>
+      <c r="C139" s="33"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C140" s="40"/>
+      <c r="C140" s="33"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C141" s="40"/>
+      <c r="C141" s="33"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C142" s="40"/>
+      <c r="C142" s="33"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C143" s="40"/>
+      <c r="C143" s="33"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C144" s="40"/>
+      <c r="C144" s="33"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C145" s="40"/>
+      <c r="C145" s="33"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C146" s="40"/>
+      <c r="C146" s="33"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C147" s="40"/>
+      <c r="C147" s="33"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C148" s="40"/>
+      <c r="C148" s="33"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C149" s="40"/>
+      <c r="C149" s="33"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C150" s="40"/>
+      <c r="C150" s="33"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C151" s="40"/>
+      <c r="C151" s="33"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C152" s="40"/>
+      <c r="C152" s="33"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C153" s="40"/>
+      <c r="C153" s="33"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C154" s="40"/>
+      <c r="C154" s="33"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C155" s="40"/>
+      <c r="C155" s="33"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C156" s="40"/>
+      <c r="C156" s="33"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C157" s="40"/>
+      <c r="C157" s="33"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C158" s="40"/>
+      <c r="C158" s="33"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C159" s="40"/>
+      <c r="C159" s="33"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C160" s="40"/>
+      <c r="C160" s="33"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C161" s="40"/>
+      <c r="C161" s="33"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C162" s="40"/>
+      <c r="C162" s="33"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C163" s="40"/>
+      <c r="C163" s="33"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C164" s="40"/>
+      <c r="C164" s="33"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C165" s="40"/>
+      <c r="C165" s="33"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C166" s="40"/>
+      <c r="C166" s="33"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C167" s="40"/>
+      <c r="C167" s="33"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C168" s="40"/>
+      <c r="C168" s="33"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C169" s="40"/>
+      <c r="C169" s="33"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C170" s="40"/>
+      <c r="C170" s="33"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C171" s="40"/>
+      <c r="C171" s="33"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C172" s="40"/>
+      <c r="C172" s="33"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C173" s="40"/>
+      <c r="C173" s="33"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C174" s="40"/>
+      <c r="C174" s="33"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175" s="4" t="s">
@@ -9399,7 +9378,7 @@
       <c r="B176" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C176" s="39" t="s">
+      <c r="C176" s="32" t="s">
         <v>531</v>
       </c>
     </row>
@@ -9407,1843 +9386,1843 @@
       <c r="B177" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C177" s="40"/>
+      <c r="C177" s="33"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C178" s="40"/>
+      <c r="C178" s="33"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C179" s="40"/>
+      <c r="C179" s="33"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C180" s="40"/>
+      <c r="C180" s="33"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C181" s="40"/>
+      <c r="C181" s="33"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C182" s="40"/>
+      <c r="C182" s="33"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C183" s="40"/>
+      <c r="C183" s="33"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C184" s="40"/>
+      <c r="C184" s="33"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C185" s="40"/>
+      <c r="C185" s="33"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C186" s="40"/>
+      <c r="C186" s="33"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C187" s="40"/>
+      <c r="C187" s="33"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C188" s="40"/>
+      <c r="C188" s="33"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C189" s="40"/>
+      <c r="C189" s="33"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C190" s="40"/>
+      <c r="C190" s="33"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C191" s="40"/>
+      <c r="C191" s="33"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C192" s="40"/>
+      <c r="C192" s="33"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C193" s="40"/>
+      <c r="C193" s="33"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C194" s="40"/>
+      <c r="C194" s="33"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C195" s="40"/>
+      <c r="C195" s="33"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C196" s="40"/>
+      <c r="C196" s="33"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C197" s="40"/>
+      <c r="C197" s="33"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C198" s="40"/>
+      <c r="C198" s="33"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C199" s="40"/>
+      <c r="C199" s="33"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C200" s="40"/>
+      <c r="C200" s="33"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C201" s="40"/>
+      <c r="C201" s="33"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C202" s="40"/>
+      <c r="C202" s="33"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C203" s="40"/>
+      <c r="C203" s="33"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C204" s="40"/>
+      <c r="C204" s="33"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C205" s="40"/>
+      <c r="C205" s="33"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C206" s="40"/>
+      <c r="C206" s="33"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C207" s="40"/>
+      <c r="C207" s="33"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C208" s="40"/>
+      <c r="C208" s="33"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C209" s="40"/>
+      <c r="C209" s="33"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C210" s="40"/>
+      <c r="C210" s="33"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C211" s="40"/>
+      <c r="C211" s="33"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C212" s="40"/>
+      <c r="C212" s="33"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C213" s="40"/>
+      <c r="C213" s="33"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C214" s="40"/>
+      <c r="C214" s="33"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C215" s="40"/>
+      <c r="C215" s="33"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C216" s="40"/>
+      <c r="C216" s="33"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C217" s="40"/>
+      <c r="C217" s="33"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C218" s="40"/>
+      <c r="C218" s="33"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B219" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C219" s="40"/>
+      <c r="C219" s="33"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C220" s="40"/>
+      <c r="C220" s="33"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B221" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C221" s="40"/>
+      <c r="C221" s="33"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C222" s="40"/>
+      <c r="C222" s="33"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C223" s="40"/>
+      <c r="C223" s="33"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B224" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C224" s="40"/>
+      <c r="C224" s="33"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C225" s="40"/>
+      <c r="C225" s="33"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C226" s="40"/>
+      <c r="C226" s="33"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C227" s="40"/>
+      <c r="C227" s="33"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C228" s="40"/>
+      <c r="C228" s="33"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C229" s="40"/>
+      <c r="C229" s="33"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C230" s="40"/>
+      <c r="C230" s="33"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C231" s="40"/>
+      <c r="C231" s="33"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C232" s="40"/>
+      <c r="C232" s="33"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C233" s="40"/>
+      <c r="C233" s="33"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C234" s="40"/>
+      <c r="C234" s="33"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C235" s="40"/>
+      <c r="C235" s="33"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C236" s="40"/>
+      <c r="C236" s="33"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C237" s="40"/>
+      <c r="C237" s="33"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C238" s="40"/>
+      <c r="C238" s="33"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C239" s="40"/>
+      <c r="C239" s="33"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C240" s="40"/>
+      <c r="C240" s="33"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B241" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C241" s="40"/>
+      <c r="C241" s="33"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C242" s="40"/>
+      <c r="C242" s="33"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C243" s="40"/>
+      <c r="C243" s="33"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C244" s="40"/>
+      <c r="C244" s="33"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B245" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C245" s="40"/>
+      <c r="C245" s="33"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C246" s="40"/>
+      <c r="C246" s="33"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C247" s="40"/>
+      <c r="C247" s="33"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C248" s="40"/>
+      <c r="C248" s="33"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C249" s="40"/>
+      <c r="C249" s="33"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B250" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C250" s="40"/>
+      <c r="C250" s="33"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C251" s="40"/>
+      <c r="C251" s="33"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C252" s="40"/>
+      <c r="C252" s="33"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C253" s="40"/>
+      <c r="C253" s="33"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C254" s="40"/>
+      <c r="C254" s="33"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C255" s="40"/>
+      <c r="C255" s="33"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C256" s="40"/>
+      <c r="C256" s="33"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C257" s="40"/>
+      <c r="C257" s="33"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C258" s="40"/>
+      <c r="C258" s="33"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C259" s="40"/>
+      <c r="C259" s="33"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C260" s="40"/>
+      <c r="C260" s="33"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C261" s="40"/>
+      <c r="C261" s="33"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C262" s="40"/>
+      <c r="C262" s="33"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C263" s="40"/>
+      <c r="C263" s="33"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C264" s="40"/>
+      <c r="C264" s="33"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C265" s="40"/>
+      <c r="C265" s="33"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C266" s="40"/>
+      <c r="C266" s="33"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C267" s="40"/>
+      <c r="C267" s="33"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C268" s="40"/>
+      <c r="C268" s="33"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C269" s="40"/>
+      <c r="C269" s="33"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C270" s="40"/>
+      <c r="C270" s="33"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C271" s="40"/>
+      <c r="C271" s="33"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C272" s="40"/>
+      <c r="C272" s="33"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C273" s="40"/>
+      <c r="C273" s="33"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C274" s="40"/>
+      <c r="C274" s="33"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C275" s="40"/>
+      <c r="C275" s="33"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C276" s="40"/>
+      <c r="C276" s="33"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C277" s="40"/>
+      <c r="C277" s="33"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C278" s="40"/>
+      <c r="C278" s="33"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B279" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C279" s="40"/>
+      <c r="C279" s="33"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C280" s="40"/>
+      <c r="C280" s="33"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C281" s="40"/>
+      <c r="C281" s="33"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C282" s="40"/>
+      <c r="C282" s="33"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C283" s="40"/>
+      <c r="C283" s="33"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C284" s="40"/>
+      <c r="C284" s="33"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C285" s="40"/>
+      <c r="C285" s="33"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C286" s="40"/>
+      <c r="C286" s="33"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C287" s="40"/>
+      <c r="C287" s="33"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C288" s="40"/>
+      <c r="C288" s="33"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B289" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C289" s="40"/>
+      <c r="C289" s="33"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B290" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C290" s="40"/>
+      <c r="C290" s="33"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B291" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C291" s="40"/>
+      <c r="C291" s="33"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B292" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C292" s="40"/>
+      <c r="C292" s="33"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B293" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C293" s="40"/>
+      <c r="C293" s="33"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B294" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C294" s="40"/>
+      <c r="C294" s="33"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B295" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C295" s="40"/>
+      <c r="C295" s="33"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B296" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C296" s="40"/>
+      <c r="C296" s="33"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B297" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C297" s="40"/>
+      <c r="C297" s="33"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B298" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C298" s="40"/>
+      <c r="C298" s="33"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B299" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C299" s="40"/>
+      <c r="C299" s="33"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B300" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C300" s="40"/>
+      <c r="C300" s="33"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C301" s="40"/>
+      <c r="C301" s="33"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B302" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C302" s="40"/>
+      <c r="C302" s="33"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B303" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C303" s="40"/>
+      <c r="C303" s="33"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B304" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C304" s="40"/>
+      <c r="C304" s="33"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B305" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C305" s="40"/>
+      <c r="C305" s="33"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B306" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C306" s="40"/>
+      <c r="C306" s="33"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B307" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C307" s="40"/>
+      <c r="C307" s="33"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C308" s="40"/>
+      <c r="C308" s="33"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B309" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C309" s="40"/>
+      <c r="C309" s="33"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C310" s="40"/>
+      <c r="C310" s="33"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B311" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C311" s="40"/>
+      <c r="C311" s="33"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B312" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C312" s="40"/>
+      <c r="C312" s="33"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B313" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C313" s="40"/>
+      <c r="C313" s="33"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B314" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C314" s="40"/>
+      <c r="C314" s="33"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B315" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C315" s="40"/>
+      <c r="C315" s="33"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B316" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C316" s="40"/>
+      <c r="C316" s="33"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B317" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C317" s="40"/>
+      <c r="C317" s="33"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B318" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C318" s="40"/>
+      <c r="C318" s="33"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B319" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C319" s="40"/>
+      <c r="C319" s="33"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B320" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C320" s="40"/>
+      <c r="C320" s="33"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B321" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C321" s="40"/>
+      <c r="C321" s="33"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B322" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C322" s="40"/>
+      <c r="C322" s="33"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B323" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C323" s="40"/>
+      <c r="C323" s="33"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B324" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C324" s="40"/>
+      <c r="C324" s="33"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B325" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C325" s="40"/>
+      <c r="C325" s="33"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B326" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C326" s="40"/>
+      <c r="C326" s="33"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B327" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C327" s="40"/>
+      <c r="C327" s="33"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B328" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C328" s="40"/>
+      <c r="C328" s="33"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B329" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C329" s="40"/>
+      <c r="C329" s="33"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B330" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C330" s="40"/>
+      <c r="C330" s="33"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B331" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C331" s="40"/>
+      <c r="C331" s="33"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B332" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C332" s="40"/>
+      <c r="C332" s="33"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B333" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C333" s="40"/>
+      <c r="C333" s="33"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B334" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C334" s="40"/>
+      <c r="C334" s="33"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B335" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C335" s="40"/>
+      <c r="C335" s="33"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C336" s="40"/>
+      <c r="C336" s="33"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B337" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C337" s="40"/>
+      <c r="C337" s="33"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B338" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C338" s="40"/>
+      <c r="C338" s="33"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B339" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C339" s="40"/>
+      <c r="C339" s="33"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B340" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C340" s="40"/>
+      <c r="C340" s="33"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B341" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C341" s="40"/>
+      <c r="C341" s="33"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B342" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C342" s="40"/>
+      <c r="C342" s="33"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B343" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C343" s="40"/>
+      <c r="C343" s="33"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B344" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C344" s="40"/>
+      <c r="C344" s="33"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B345" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C345" s="40"/>
+      <c r="C345" s="33"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B346" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C346" s="40"/>
+      <c r="C346" s="33"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B347" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C347" s="40"/>
+      <c r="C347" s="33"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B348" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C348" s="40"/>
+      <c r="C348" s="33"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B349" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C349" s="40"/>
+      <c r="C349" s="33"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B350" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C350" s="40"/>
+      <c r="C350" s="33"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B351" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C351" s="40"/>
+      <c r="C351" s="33"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B352" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C352" s="40"/>
+      <c r="C352" s="33"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B353" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C353" s="40"/>
+      <c r="C353" s="33"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B354" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C354" s="40"/>
+      <c r="C354" s="33"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B355" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C355" s="40"/>
+      <c r="C355" s="33"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B356" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C356" s="40"/>
+      <c r="C356" s="33"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B357" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C357" s="40"/>
+      <c r="C357" s="33"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B358" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C358" s="40"/>
+      <c r="C358" s="33"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B359" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C359" s="40"/>
+      <c r="C359" s="33"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B360" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C360" s="40"/>
+      <c r="C360" s="33"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B361" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C361" s="40"/>
+      <c r="C361" s="33"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B362" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C362" s="40"/>
+      <c r="C362" s="33"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B363" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C363" s="40"/>
+      <c r="C363" s="33"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B364" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C364" s="40"/>
+      <c r="C364" s="33"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B365" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C365" s="40"/>
+      <c r="C365" s="33"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B366" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C366" s="40"/>
+      <c r="C366" s="33"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B367" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C367" s="40"/>
+      <c r="C367" s="33"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B368" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C368" s="40"/>
+      <c r="C368" s="33"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B369" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C369" s="40"/>
+      <c r="C369" s="33"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B370" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C370" s="40"/>
+      <c r="C370" s="33"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B371" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C371" s="40"/>
+      <c r="C371" s="33"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B372" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C372" s="40"/>
+      <c r="C372" s="33"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B373" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C373" s="40"/>
+      <c r="C373" s="33"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B374" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C374" s="40"/>
+      <c r="C374" s="33"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B375" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C375" s="40"/>
+      <c r="C375" s="33"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B376" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C376" s="40"/>
+      <c r="C376" s="33"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B377" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C377" s="40"/>
+      <c r="C377" s="33"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B378" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C378" s="40"/>
+      <c r="C378" s="33"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B379" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C379" s="40"/>
+      <c r="C379" s="33"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B380" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C380" s="40"/>
+      <c r="C380" s="33"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B381" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C381" s="40"/>
+      <c r="C381" s="33"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B382" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C382" s="40"/>
+      <c r="C382" s="33"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B383" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C383" s="40"/>
+      <c r="C383" s="33"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B384" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C384" s="40"/>
+      <c r="C384" s="33"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B385" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C385" s="40"/>
+      <c r="C385" s="33"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B386" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C386" s="40"/>
+      <c r="C386" s="33"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B387" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C387" s="40"/>
+      <c r="C387" s="33"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B388" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C388" s="40"/>
+      <c r="C388" s="33"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B389" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C389" s="40"/>
+      <c r="C389" s="33"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B390" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C390" s="40"/>
+      <c r="C390" s="33"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B391" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C391" s="40"/>
+      <c r="C391" s="33"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B392" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C392" s="40"/>
+      <c r="C392" s="33"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B393" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C393" s="40"/>
+      <c r="C393" s="33"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B394" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C394" s="40"/>
+      <c r="C394" s="33"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B395" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C395" s="40"/>
+      <c r="C395" s="33"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B396" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C396" s="40"/>
+      <c r="C396" s="33"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B397" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C397" s="40"/>
+      <c r="C397" s="33"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B398" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C398" s="40"/>
+      <c r="C398" s="33"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B399" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C399" s="40"/>
+      <c r="C399" s="33"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B400" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C400" s="40"/>
+      <c r="C400" s="33"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B401" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C401" s="40"/>
+      <c r="C401" s="33"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B402" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C402" s="40"/>
+      <c r="C402" s="33"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B403" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C403" s="40"/>
+      <c r="C403" s="33"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B404" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C404" s="40"/>
+      <c r="C404" s="33"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B405" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C405" s="40"/>
+      <c r="C405" s="33"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B406" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C406" s="40"/>
+      <c r="C406" s="33"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B407" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C407" s="40"/>
+      <c r="C407" s="33"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B408" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C408" s="40"/>
+      <c r="C408" s="33"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B409" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C409" s="40"/>
+      <c r="C409" s="33"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B410" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C410" s="40"/>
+      <c r="C410" s="33"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B411" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C411" s="40"/>
+      <c r="C411" s="33"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B412" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C412" s="40"/>
+      <c r="C412" s="33"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B413" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C413" s="40"/>
+      <c r="C413" s="33"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B414" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C414" s="40"/>
+      <c r="C414" s="33"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B415" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C415" s="40"/>
+      <c r="C415" s="33"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B416" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C416" s="40"/>
+      <c r="C416" s="33"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B417" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C417" s="40"/>
+      <c r="C417" s="33"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B418" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C418" s="40"/>
+      <c r="C418" s="33"/>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B419" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C419" s="40"/>
+      <c r="C419" s="33"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B420" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C420" s="40"/>
+      <c r="C420" s="33"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B421" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C421" s="40"/>
+      <c r="C421" s="33"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B422" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C422" s="40"/>
+      <c r="C422" s="33"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B423" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C423" s="40"/>
+      <c r="C423" s="33"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B424" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C424" s="40"/>
+      <c r="C424" s="33"/>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B425" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C425" s="40"/>
+      <c r="C425" s="33"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B426" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C426" s="40"/>
+      <c r="C426" s="33"/>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B427" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C427" s="40"/>
+      <c r="C427" s="33"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B428" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C428" s="40"/>
+      <c r="C428" s="33"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B429" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C429" s="40"/>
+      <c r="C429" s="33"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B430" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C430" s="40"/>
+      <c r="C430" s="33"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B431" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C431" s="40"/>
+      <c r="C431" s="33"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B432" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C432" s="40"/>
+      <c r="C432" s="33"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B433" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C433" s="40"/>
+      <c r="C433" s="33"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B434" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C434" s="40"/>
+      <c r="C434" s="33"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B435" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C435" s="40"/>
+      <c r="C435" s="33"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B436" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C436" s="40"/>
+      <c r="C436" s="33"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B437" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C437" s="40"/>
+      <c r="C437" s="33"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B438" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C438" s="40"/>
+      <c r="C438" s="33"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B439" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C439" s="40"/>
+      <c r="C439" s="33"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B440" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C440" s="40"/>
+      <c r="C440" s="33"/>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B441" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C441" s="40"/>
+      <c r="C441" s="33"/>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B442" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C442" s="40"/>
+      <c r="C442" s="33"/>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B443" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C443" s="40"/>
+      <c r="C443" s="33"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B444" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C444" s="40"/>
+      <c r="C444" s="33"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B445" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C445" s="40"/>
+      <c r="C445" s="33"/>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B446" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C446" s="40"/>
+      <c r="C446" s="33"/>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B447" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C447" s="40"/>
+      <c r="C447" s="33"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B448" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C448" s="40"/>
+      <c r="C448" s="33"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B449" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C449" s="40"/>
+      <c r="C449" s="33"/>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B450" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C450" s="40"/>
+      <c r="C450" s="33"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B451" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C451" s="40"/>
+      <c r="C451" s="33"/>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B452" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C452" s="40"/>
+      <c r="C452" s="33"/>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B453" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C453" s="40"/>
+      <c r="C453" s="33"/>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B454" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C454" s="40"/>
+      <c r="C454" s="33"/>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B455" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C455" s="40"/>
+      <c r="C455" s="33"/>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B456" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C456" s="40"/>
+      <c r="C456" s="33"/>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B457" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C457" s="40"/>
+      <c r="C457" s="33"/>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B458" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C458" s="40"/>
+      <c r="C458" s="33"/>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B459" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C459" s="40"/>
+      <c r="C459" s="33"/>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B460" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C460" s="40"/>
+      <c r="C460" s="33"/>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B461" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C461" s="40"/>
+      <c r="C461" s="33"/>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B462" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C462" s="40"/>
+      <c r="C462" s="33"/>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B463" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C463" s="40"/>
+      <c r="C463" s="33"/>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B464" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C464" s="40"/>
+      <c r="C464" s="33"/>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B465" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C465" s="40"/>
+      <c r="C465" s="33"/>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B466" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C466" s="40"/>
+      <c r="C466" s="33"/>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B467" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C467" s="40"/>
+      <c r="C467" s="33"/>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B468" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C468" s="40"/>
+      <c r="C468" s="33"/>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B469" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C469" s="40"/>
+      <c r="C469" s="33"/>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B470" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C470" s="40"/>
+      <c r="C470" s="33"/>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B471" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C471" s="40"/>
+      <c r="C471" s="33"/>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B472" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C472" s="40"/>
+      <c r="C472" s="33"/>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B473" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C473" s="40"/>
+      <c r="C473" s="33"/>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B474" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C474" s="40"/>
+      <c r="C474" s="33"/>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B475" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C475" s="40"/>
+      <c r="C475" s="33"/>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B476" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C476" s="40"/>
+      <c r="C476" s="33"/>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B477" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C477" s="40"/>
+      <c r="C477" s="33"/>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B478" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C478" s="40"/>
+      <c r="C478" s="33"/>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B479" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C479" s="40"/>
+      <c r="C479" s="33"/>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B480" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C480" s="40"/>
+      <c r="C480" s="33"/>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B481" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C481" s="40"/>
+      <c r="C481" s="33"/>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B482" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C482" s="40"/>
+      <c r="C482" s="33"/>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B483" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C483" s="40"/>
+      <c r="C483" s="33"/>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B484" s="4" t="s">
@@ -11607,7 +11586,7 @@
       <c r="B528" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C528" s="38" t="s">
+      <c r="C528" s="31" t="s">
         <v>621</v>
       </c>
     </row>
@@ -11615,49 +11594,49 @@
       <c r="B529" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="C529" s="37"/>
+      <c r="C529" s="30"/>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B530" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C530" s="37"/>
+      <c r="C530" s="30"/>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B531" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C531" s="37"/>
+      <c r="C531" s="30"/>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B532" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C532" s="37"/>
+      <c r="C532" s="30"/>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B533" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C533" s="37"/>
+      <c r="C533" s="30"/>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B534" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C534" s="37"/>
+      <c r="C534" s="30"/>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B535" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C535" s="37"/>
+      <c r="C535" s="30"/>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B536" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C536" s="37"/>
+      <c r="C536" s="30"/>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
@@ -12890,7 +12869,7 @@
       <c r="B704" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="C704" s="38" t="s">
+      <c r="C704" s="31" t="s">
         <v>768</v>
       </c>
     </row>
@@ -12898,55 +12877,55 @@
       <c r="B705" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="C705" s="37"/>
+      <c r="C705" s="30"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B706" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="C706" s="37"/>
+      <c r="C706" s="30"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B707" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="C707" s="37"/>
+      <c r="C707" s="30"/>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B708" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="C708" s="37"/>
+      <c r="C708" s="30"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B709" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="C709" s="37"/>
+      <c r="C709" s="30"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B710" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="C710" s="37"/>
+      <c r="C710" s="30"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B711" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="C711" s="37"/>
+      <c r="C711" s="30"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B712" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="C712" s="37"/>
+      <c r="C712" s="30"/>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B713" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="C713" s="37"/>
+      <c r="C713" s="30"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="8" t="s">
@@ -13136,10 +13115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C977"/>
+  <dimension ref="A1:C983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A967" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B983" sqref="B983"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B984" sqref="B984"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13241,7 +13220,7 @@
       <c r="B14" s="10" t="s">
         <v>1123</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="34" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -13249,37 +13228,37 @@
       <c r="B15" s="10" t="s">
         <v>1124</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
         <v>1125</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="34"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>1126</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="34"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>1127</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="34"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>1129</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
@@ -13325,7 +13304,7 @@
       <c r="B26" s="10" t="s">
         <v>1141</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="34" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -13333,19 +13312,19 @@
       <c r="A27" t="s">
         <v>1142</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="34"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1143</v>
       </c>
-      <c r="C28" s="41"/>
+      <c r="C28" s="34"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1144</v>
       </c>
-      <c r="C29" s="41"/>
+      <c r="C29" s="34"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -13354,7 +13333,7 @@
       <c r="B30" s="10" t="s">
         <v>1146</v>
       </c>
-      <c r="C30" s="41"/>
+      <c r="C30" s="34"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -13470,7 +13449,7 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="26" t="s">
-        <v>2218</v>
+        <v>2311</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>1170</v>
@@ -13485,7 +13464,7 @@
       <c r="B50" s="10" t="s">
         <v>1179</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="34" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -13493,637 +13472,637 @@
       <c r="B51" s="10" t="s">
         <v>1231</v>
       </c>
-      <c r="C51" s="41"/>
+      <c r="C51" s="34"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="10" t="s">
         <v>1176</v>
       </c>
-      <c r="C52" s="41"/>
+      <c r="C52" s="34"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="10" t="s">
         <v>1180</v>
       </c>
-      <c r="C53" s="41"/>
+      <c r="C53" s="34"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
         <v>1232</v>
       </c>
-      <c r="C54" s="41"/>
+      <c r="C54" s="34"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
         <v>1181</v>
       </c>
-      <c r="C55" s="41"/>
+      <c r="C55" s="34"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
         <v>1233</v>
       </c>
-      <c r="C56" s="41"/>
+      <c r="C56" s="34"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
         <v>1182</v>
       </c>
-      <c r="C57" s="41"/>
+      <c r="C57" s="34"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
         <v>1234</v>
       </c>
-      <c r="C58" s="41"/>
+      <c r="C58" s="34"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>1183</v>
       </c>
-      <c r="C59" s="41"/>
+      <c r="C59" s="34"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
         <v>1235</v>
       </c>
-      <c r="C60" s="41"/>
+      <c r="C60" s="34"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="C61" s="41"/>
+      <c r="C61" s="34"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="10" t="s">
         <v>1236</v>
       </c>
-      <c r="C62" s="41"/>
+      <c r="C62" s="34"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" s="10" t="s">
         <v>1185</v>
       </c>
-      <c r="C63" s="41"/>
+      <c r="C63" s="34"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" s="10" t="s">
         <v>1237</v>
       </c>
-      <c r="C64" s="41"/>
+      <c r="C64" s="34"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="10" t="s">
         <v>1186</v>
       </c>
-      <c r="C65" s="41"/>
+      <c r="C65" s="34"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
         <v>1238</v>
       </c>
-      <c r="C66" s="41"/>
+      <c r="C66" s="34"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="10" t="s">
         <v>1187</v>
       </c>
-      <c r="C67" s="41"/>
+      <c r="C67" s="34"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="10" t="s">
         <v>1239</v>
       </c>
-      <c r="C68" s="41"/>
+      <c r="C68" s="34"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="10" t="s">
         <v>1188</v>
       </c>
-      <c r="C69" s="41"/>
+      <c r="C69" s="34"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="10" t="s">
         <v>1240</v>
       </c>
-      <c r="C70" s="41"/>
+      <c r="C70" s="34"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="10" t="s">
         <v>1189</v>
       </c>
-      <c r="C71" s="41"/>
+      <c r="C71" s="34"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="10" t="s">
         <v>1241</v>
       </c>
-      <c r="C72" s="41"/>
+      <c r="C72" s="34"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="10" t="s">
         <v>1190</v>
       </c>
-      <c r="C73" s="41"/>
+      <c r="C73" s="34"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="10" t="s">
         <v>1242</v>
       </c>
-      <c r="C74" s="41"/>
+      <c r="C74" s="34"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="10" t="s">
         <v>1191</v>
       </c>
-      <c r="C75" s="41"/>
+      <c r="C75" s="34"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="10" t="s">
         <v>1243</v>
       </c>
-      <c r="C76" s="41"/>
+      <c r="C76" s="34"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="10" t="s">
         <v>1192</v>
       </c>
-      <c r="C77" s="41"/>
+      <c r="C77" s="34"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="10" t="s">
         <v>1244</v>
       </c>
-      <c r="C78" s="41"/>
+      <c r="C78" s="34"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="10" t="s">
         <v>1193</v>
       </c>
-      <c r="C79" s="41"/>
+      <c r="C79" s="34"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="10" t="s">
         <v>1245</v>
       </c>
-      <c r="C80" s="41"/>
+      <c r="C80" s="34"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="10" t="s">
         <v>1194</v>
       </c>
-      <c r="C81" s="41"/>
+      <c r="C81" s="34"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="10" t="s">
         <v>1246</v>
       </c>
-      <c r="C82" s="41"/>
+      <c r="C82" s="34"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="10" t="s">
         <v>1195</v>
       </c>
-      <c r="C83" s="41"/>
+      <c r="C83" s="34"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
         <v>1247</v>
       </c>
-      <c r="C84" s="41"/>
+      <c r="C84" s="34"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="10" t="s">
         <v>1196</v>
       </c>
-      <c r="C85" s="41"/>
+      <c r="C85" s="34"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="10" t="s">
         <v>1248</v>
       </c>
-      <c r="C86" s="41"/>
+      <c r="C86" s="34"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="10" t="s">
         <v>1197</v>
       </c>
-      <c r="C87" s="41"/>
+      <c r="C87" s="34"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="C88" s="41"/>
+      <c r="C88" s="34"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="10" t="s">
         <v>1198</v>
       </c>
-      <c r="C89" s="41"/>
+      <c r="C89" s="34"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="C90" s="41"/>
+      <c r="C90" s="34"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="10" t="s">
         <v>1199</v>
       </c>
-      <c r="C91" s="41"/>
+      <c r="C91" s="34"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="10" t="s">
         <v>1249</v>
       </c>
-      <c r="C92" s="41"/>
+      <c r="C92" s="34"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="10" t="s">
         <v>1200</v>
       </c>
-      <c r="C93" s="41"/>
+      <c r="C93" s="34"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="10" t="s">
         <v>1250</v>
       </c>
-      <c r="C94" s="41"/>
+      <c r="C94" s="34"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="10" t="s">
         <v>1201</v>
       </c>
-      <c r="C95" s="41"/>
+      <c r="C95" s="34"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="10" t="s">
         <v>1251</v>
       </c>
-      <c r="C96" s="41"/>
+      <c r="C96" s="34"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="10" t="s">
         <v>1202</v>
       </c>
-      <c r="C97" s="41"/>
+      <c r="C97" s="34"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="10" t="s">
         <v>1252</v>
       </c>
-      <c r="C98" s="41"/>
+      <c r="C98" s="34"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="10" t="s">
         <v>1203</v>
       </c>
-      <c r="C99" s="41"/>
+      <c r="C99" s="34"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="10" t="s">
         <v>1253</v>
       </c>
-      <c r="C100" s="41"/>
+      <c r="C100" s="34"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="10" t="s">
         <v>1204</v>
       </c>
-      <c r="C101" s="41"/>
+      <c r="C101" s="34"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="10" t="s">
         <v>1254</v>
       </c>
-      <c r="C102" s="41"/>
+      <c r="C102" s="34"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="10" t="s">
         <v>1205</v>
       </c>
-      <c r="C103" s="41"/>
+      <c r="C103" s="34"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="10" t="s">
         <v>1255</v>
       </c>
-      <c r="C104" s="41"/>
+      <c r="C104" s="34"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="10" t="s">
         <v>1206</v>
       </c>
-      <c r="C105" s="41"/>
+      <c r="C105" s="34"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="10" t="s">
         <v>1256</v>
       </c>
-      <c r="C106" s="41"/>
+      <c r="C106" s="34"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" s="10" t="s">
         <v>1207</v>
       </c>
-      <c r="C107" s="41"/>
+      <c r="C107" s="34"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="10" t="s">
         <v>1257</v>
       </c>
-      <c r="C108" s="41"/>
+      <c r="C108" s="34"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="10" t="s">
         <v>1208</v>
       </c>
-      <c r="C109" s="41"/>
+      <c r="C109" s="34"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" s="10" t="s">
         <v>1258</v>
       </c>
-      <c r="C110" s="41"/>
+      <c r="C110" s="34"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="10" t="s">
         <v>1177</v>
       </c>
-      <c r="C111" s="41"/>
+      <c r="C111" s="34"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="10" t="s">
         <v>1209</v>
       </c>
-      <c r="C112" s="41"/>
+      <c r="C112" s="34"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="10" t="s">
         <v>1259</v>
       </c>
-      <c r="C113" s="41"/>
+      <c r="C113" s="34"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="10" t="s">
         <v>1210</v>
       </c>
-      <c r="C114" s="41"/>
+      <c r="C114" s="34"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="10" t="s">
         <v>1260</v>
       </c>
-      <c r="C115" s="41"/>
+      <c r="C115" s="34"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="10" t="s">
         <v>1211</v>
       </c>
-      <c r="C116" s="41"/>
+      <c r="C116" s="34"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="10" t="s">
         <v>1261</v>
       </c>
-      <c r="C117" s="41"/>
+      <c r="C117" s="34"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="10" t="s">
         <v>1212</v>
       </c>
-      <c r="C118" s="41"/>
+      <c r="C118" s="34"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" s="10" t="s">
         <v>1262</v>
       </c>
-      <c r="C119" s="41"/>
+      <c r="C119" s="34"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" s="10" t="s">
         <v>1213</v>
       </c>
-      <c r="C120" s="41"/>
+      <c r="C120" s="34"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="10" t="s">
         <v>1263</v>
       </c>
-      <c r="C121" s="41"/>
+      <c r="C121" s="34"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="10" t="s">
         <v>1214</v>
       </c>
-      <c r="C122" s="41"/>
+      <c r="C122" s="34"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="10" t="s">
         <v>1264</v>
       </c>
-      <c r="C123" s="41"/>
+      <c r="C123" s="34"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="10" t="s">
         <v>1215</v>
       </c>
-      <c r="C124" s="41"/>
+      <c r="C124" s="34"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" s="10" t="s">
         <v>1265</v>
       </c>
-      <c r="C125" s="41"/>
+      <c r="C125" s="34"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" s="10" t="s">
         <v>1216</v>
       </c>
-      <c r="C126" s="41"/>
+      <c r="C126" s="34"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" s="10" t="s">
         <v>1264</v>
       </c>
-      <c r="C127" s="41"/>
+      <c r="C127" s="34"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="10" t="s">
         <v>1217</v>
       </c>
-      <c r="C128" s="41"/>
+      <c r="C128" s="34"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="10" t="s">
         <v>1266</v>
       </c>
-      <c r="C129" s="41"/>
+      <c r="C129" s="34"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="10" t="s">
         <v>1218</v>
       </c>
-      <c r="C130" s="41"/>
+      <c r="C130" s="34"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="10" t="s">
         <v>1219</v>
       </c>
-      <c r="C131" s="41"/>
+      <c r="C131" s="34"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="10" t="s">
         <v>1267</v>
       </c>
-      <c r="C132" s="41"/>
+      <c r="C132" s="34"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="10" t="s">
         <v>1220</v>
       </c>
-      <c r="C133" s="41"/>
+      <c r="C133" s="34"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="10" t="s">
         <v>1268</v>
       </c>
-      <c r="C134" s="41"/>
+      <c r="C134" s="34"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="10" t="s">
         <v>1221</v>
       </c>
-      <c r="C135" s="41"/>
+      <c r="C135" s="34"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="10" t="s">
         <v>1269</v>
       </c>
-      <c r="C136" s="41"/>
+      <c r="C136" s="34"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="10" t="s">
         <v>1222</v>
       </c>
-      <c r="C137" s="41"/>
+      <c r="C137" s="34"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="10" t="s">
         <v>1270</v>
       </c>
-      <c r="C138" s="41"/>
+      <c r="C138" s="34"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="10" t="s">
         <v>1223</v>
       </c>
-      <c r="C139" s="41"/>
+      <c r="C139" s="34"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="10" t="s">
         <v>1271</v>
       </c>
-      <c r="C140" s="41"/>
+      <c r="C140" s="34"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="10" t="s">
         <v>1224</v>
       </c>
-      <c r="C141" s="41"/>
+      <c r="C141" s="34"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="10" t="s">
         <v>1272</v>
       </c>
-      <c r="C142" s="41"/>
+      <c r="C142" s="34"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="10" t="s">
         <v>1225</v>
       </c>
-      <c r="C143" s="41"/>
+      <c r="C143" s="34"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="10" t="s">
         <v>1166</v>
       </c>
-      <c r="C144" s="41"/>
+      <c r="C144" s="34"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="10" t="s">
         <v>1226</v>
       </c>
-      <c r="C145" s="41"/>
+      <c r="C145" s="34"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" s="10" t="s">
         <v>1273</v>
       </c>
-      <c r="C146" s="41"/>
+      <c r="C146" s="34"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="C147" s="41"/>
+      <c r="C147" s="34"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" s="10" t="s">
         <v>1274</v>
       </c>
-      <c r="C148" s="41"/>
+      <c r="C148" s="34"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" s="10" t="s">
         <v>1228</v>
       </c>
-      <c r="C149" s="41"/>
+      <c r="C149" s="34"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" s="10" t="s">
         <v>1169</v>
       </c>
-      <c r="C150" s="41"/>
+      <c r="C150" s="34"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" s="10" t="s">
         <v>1178</v>
       </c>
-      <c r="C151" s="41"/>
+      <c r="C151" s="34"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" s="10" t="s">
         <v>1229</v>
       </c>
-      <c r="C152" s="41"/>
+      <c r="C152" s="34"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" s="10" t="s">
         <v>1275</v>
       </c>
-      <c r="C153" s="41"/>
+      <c r="C153" s="34"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" s="10" t="s">
         <v>1230</v>
       </c>
-      <c r="C154" s="41"/>
+      <c r="C154" s="34"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" s="10" t="s">
         <v>1276</v>
       </c>
-      <c r="C155" s="41"/>
+      <c r="C155" s="34"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" s="10" t="s">
         <v>1278</v>
       </c>
-      <c r="C156" s="41" t="s">
+      <c r="C156" s="34" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -14131,25 +14110,25 @@
       <c r="B157" s="10" t="s">
         <v>1279</v>
       </c>
-      <c r="C157" s="41"/>
+      <c r="C157" s="34"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" s="10" t="s">
         <v>1280</v>
       </c>
-      <c r="C158" s="41"/>
+      <c r="C158" s="34"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="10" t="s">
         <v>1281</v>
       </c>
-      <c r="C159" s="41"/>
+      <c r="C159" s="34"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="10" t="s">
         <v>1282</v>
       </c>
-      <c r="C160" s="41"/>
+      <c r="C160" s="34"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" s="10" t="s">
@@ -14269,7 +14248,7 @@
       <c r="B176" s="10" t="s">
         <v>1317</v>
       </c>
-      <c r="C176" s="41" t="s">
+      <c r="C176" s="34" t="s">
         <v>1600</v>
       </c>
     </row>
@@ -14277,1741 +14256,1741 @@
       <c r="B177" s="10" t="s">
         <v>1321</v>
       </c>
-      <c r="C177" s="41"/>
+      <c r="C177" s="34"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" s="10" t="s">
         <v>1328</v>
       </c>
-      <c r="C178" s="41"/>
+      <c r="C178" s="34"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" s="10" t="s">
         <v>1331</v>
       </c>
-      <c r="C179" s="41"/>
+      <c r="C179" s="34"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="10" t="s">
         <v>1333</v>
       </c>
-      <c r="C180" s="41"/>
+      <c r="C180" s="34"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="10" t="s">
         <v>1337</v>
       </c>
-      <c r="C181" s="41"/>
+      <c r="C181" s="34"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" s="10" t="s">
         <v>1343</v>
       </c>
-      <c r="C182" s="41"/>
+      <c r="C182" s="34"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" s="10" t="s">
         <v>1349</v>
       </c>
-      <c r="C183" s="41"/>
+      <c r="C183" s="34"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" s="10" t="s">
         <v>1355</v>
       </c>
-      <c r="C184" s="41"/>
+      <c r="C184" s="34"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" s="10" t="s">
         <v>1359</v>
       </c>
-      <c r="C185" s="41"/>
+      <c r="C185" s="34"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" s="10" t="s">
         <v>1361</v>
       </c>
-      <c r="C186" s="41"/>
+      <c r="C186" s="34"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" s="10" t="s">
         <v>1370</v>
       </c>
-      <c r="C187" s="41"/>
+      <c r="C187" s="34"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" s="10" t="s">
         <v>1373</v>
       </c>
-      <c r="C188" s="41"/>
+      <c r="C188" s="34"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" s="10" t="s">
         <v>1377</v>
       </c>
-      <c r="C189" s="41"/>
+      <c r="C189" s="34"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" s="10" t="s">
         <v>1384</v>
       </c>
-      <c r="C190" s="41"/>
+      <c r="C190" s="34"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" s="10" t="s">
         <v>1392</v>
       </c>
-      <c r="C191" s="41"/>
+      <c r="C191" s="34"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" s="10" t="s">
         <v>1398</v>
       </c>
-      <c r="C192" s="41"/>
+      <c r="C192" s="34"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" s="10" t="s">
         <v>1403</v>
       </c>
-      <c r="C193" s="41"/>
+      <c r="C193" s="34"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" s="10" t="s">
         <v>1409</v>
       </c>
-      <c r="C194" s="41"/>
+      <c r="C194" s="34"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" s="10" t="s">
         <v>1413</v>
       </c>
-      <c r="C195" s="41"/>
+      <c r="C195" s="34"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" s="10" t="s">
         <v>1420</v>
       </c>
-      <c r="C196" s="41"/>
+      <c r="C196" s="34"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" s="10" t="s">
         <v>1432</v>
       </c>
-      <c r="C197" s="41"/>
+      <c r="C197" s="34"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198" s="10" t="s">
         <v>1438</v>
       </c>
-      <c r="C198" s="41"/>
+      <c r="C198" s="34"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199" s="10" t="s">
         <v>1442</v>
       </c>
-      <c r="C199" s="41"/>
+      <c r="C199" s="34"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" s="10" t="s">
         <v>1445</v>
       </c>
-      <c r="C200" s="41"/>
+      <c r="C200" s="34"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" s="10" t="s">
         <v>1450</v>
       </c>
-      <c r="C201" s="41"/>
+      <c r="C201" s="34"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" s="10" t="s">
         <v>1456</v>
       </c>
-      <c r="C202" s="41"/>
+      <c r="C202" s="34"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203" s="10" t="s">
         <v>1460</v>
       </c>
-      <c r="C203" s="41"/>
+      <c r="C203" s="34"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204" s="10" t="s">
         <v>1466</v>
       </c>
-      <c r="C204" s="41"/>
+      <c r="C204" s="34"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" s="10" t="s">
         <v>1472</v>
       </c>
-      <c r="C205" s="41"/>
+      <c r="C205" s="34"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" s="10" t="s">
         <v>1475</v>
       </c>
-      <c r="C206" s="41"/>
+      <c r="C206" s="34"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" s="10" t="s">
         <v>1486</v>
       </c>
-      <c r="C207" s="41"/>
+      <c r="C207" s="34"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208" s="10" t="s">
         <v>1492</v>
       </c>
-      <c r="C208" s="41"/>
+      <c r="C208" s="34"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" s="10" t="s">
         <v>1497</v>
       </c>
-      <c r="C209" s="41"/>
+      <c r="C209" s="34"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" s="10" t="s">
         <v>1503</v>
       </c>
-      <c r="C210" s="41"/>
+      <c r="C210" s="34"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" s="10" t="s">
         <v>1508</v>
       </c>
-      <c r="C211" s="41"/>
+      <c r="C211" s="34"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" s="10" t="s">
         <v>1520</v>
       </c>
-      <c r="C212" s="41"/>
+      <c r="C212" s="34"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" s="10" t="s">
         <v>1525</v>
       </c>
-      <c r="C213" s="41"/>
+      <c r="C213" s="34"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" s="10" t="s">
         <v>1534</v>
       </c>
-      <c r="C214" s="41"/>
+      <c r="C214" s="34"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" s="10" t="s">
         <v>1541</v>
       </c>
-      <c r="C215" s="41"/>
+      <c r="C215" s="34"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" s="10" t="s">
         <v>1547</v>
       </c>
-      <c r="C216" s="41"/>
+      <c r="C216" s="34"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" s="10" t="s">
         <v>1554</v>
       </c>
-      <c r="C217" s="41"/>
+      <c r="C217" s="34"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218" s="10" t="s">
         <v>1562</v>
       </c>
-      <c r="C218" s="41"/>
+      <c r="C218" s="34"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B219" s="10" t="s">
         <v>1570</v>
       </c>
-      <c r="C219" s="41"/>
+      <c r="C219" s="34"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220" s="10" t="s">
         <v>1579</v>
       </c>
-      <c r="C220" s="41"/>
+      <c r="C220" s="34"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B221" s="10" t="s">
         <v>1583</v>
       </c>
-      <c r="C221" s="41"/>
+      <c r="C221" s="34"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222" s="10" t="s">
         <v>1453</v>
       </c>
-      <c r="C222" s="41"/>
+      <c r="C222" s="34"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223" s="10" t="s">
         <v>1499</v>
       </c>
-      <c r="C223" s="41"/>
+      <c r="C223" s="34"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B224" s="10" t="s">
         <v>1461</v>
       </c>
-      <c r="C224" s="41"/>
+      <c r="C224" s="34"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225" s="10" t="s">
         <v>1543</v>
       </c>
-      <c r="C225" s="41"/>
+      <c r="C225" s="34"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226" s="10" t="s">
         <v>1563</v>
       </c>
-      <c r="C226" s="41"/>
+      <c r="C226" s="34"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227" s="10" t="s">
         <v>1483</v>
       </c>
-      <c r="C227" s="41"/>
+      <c r="C227" s="34"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228" s="10" t="s">
         <v>1338</v>
       </c>
-      <c r="C228" s="41"/>
+      <c r="C228" s="34"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229" s="10" t="s">
         <v>1350</v>
       </c>
-      <c r="C229" s="41"/>
+      <c r="C229" s="34"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230" s="10" t="s">
         <v>1468</v>
       </c>
-      <c r="C230" s="41"/>
+      <c r="C230" s="34"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231" s="10" t="s">
         <v>1467</v>
       </c>
-      <c r="C231" s="41"/>
+      <c r="C231" s="34"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232" s="10" t="s">
         <v>1469</v>
       </c>
-      <c r="C232" s="41"/>
+      <c r="C232" s="34"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233" s="10" t="s">
         <v>1501</v>
       </c>
-      <c r="C233" s="41"/>
+      <c r="C233" s="34"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234" s="10" t="s">
         <v>1573</v>
       </c>
-      <c r="C234" s="41"/>
+      <c r="C234" s="34"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235" s="10" t="s">
         <v>1572</v>
       </c>
-      <c r="C235" s="41"/>
+      <c r="C235" s="34"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236" s="10" t="s">
         <v>1574</v>
       </c>
-      <c r="C236" s="41"/>
+      <c r="C236" s="34"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" s="10" t="s">
         <v>1506</v>
       </c>
-      <c r="C237" s="41"/>
+      <c r="C237" s="34"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" s="10" t="s">
         <v>1505</v>
       </c>
-      <c r="C238" s="41"/>
+      <c r="C238" s="34"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" s="10" t="s">
         <v>1545</v>
       </c>
-      <c r="C239" s="41"/>
+      <c r="C239" s="34"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" s="10" t="s">
         <v>1582</v>
       </c>
-      <c r="C240" s="41"/>
+      <c r="C240" s="34"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B241" s="10" t="s">
         <v>1540</v>
       </c>
-      <c r="C241" s="41"/>
+      <c r="C241" s="34"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" s="10" t="s">
         <v>1528</v>
       </c>
-      <c r="C242" s="41"/>
+      <c r="C242" s="34"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243" s="10" t="s">
         <v>1330</v>
       </c>
-      <c r="C243" s="41"/>
+      <c r="C243" s="34"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244" s="10" t="s">
         <v>1500</v>
       </c>
-      <c r="C244" s="41"/>
+      <c r="C244" s="34"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B245" s="10" t="s">
         <v>1516</v>
       </c>
-      <c r="C245" s="41"/>
+      <c r="C245" s="34"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" s="10" t="s">
         <v>1538</v>
       </c>
-      <c r="C246" s="41"/>
+      <c r="C246" s="34"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" s="10" t="s">
         <v>1367</v>
       </c>
-      <c r="C247" s="41"/>
+      <c r="C247" s="34"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" s="10" t="s">
         <v>1368</v>
       </c>
-      <c r="C248" s="41"/>
+      <c r="C248" s="34"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" s="10" t="s">
         <v>1311</v>
       </c>
-      <c r="C249" s="41"/>
+      <c r="C249" s="34"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B250" s="10" t="s">
         <v>1504</v>
       </c>
-      <c r="C250" s="41"/>
+      <c r="C250" s="34"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" s="10" t="s">
         <v>1449</v>
       </c>
-      <c r="C251" s="41"/>
+      <c r="C251" s="34"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" s="10" t="s">
         <v>1463</v>
       </c>
-      <c r="C252" s="41"/>
+      <c r="C252" s="34"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" s="10" t="s">
         <v>1371</v>
       </c>
-      <c r="C253" s="41"/>
+      <c r="C253" s="34"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" s="10" t="s">
         <v>1340</v>
       </c>
-      <c r="C254" s="41"/>
+      <c r="C254" s="34"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255" s="10" t="s">
         <v>1584</v>
       </c>
-      <c r="C255" s="41"/>
+      <c r="C255" s="34"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256" s="10" t="s">
         <v>1585</v>
       </c>
-      <c r="C256" s="41"/>
+      <c r="C256" s="34"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257" s="10" t="s">
         <v>1471</v>
       </c>
-      <c r="C257" s="41"/>
+      <c r="C257" s="34"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" s="10" t="s">
         <v>1347</v>
       </c>
-      <c r="C258" s="41"/>
+      <c r="C258" s="34"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" s="10" t="s">
         <v>1593</v>
       </c>
-      <c r="C259" s="41"/>
+      <c r="C259" s="34"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" s="10" t="s">
         <v>1594</v>
       </c>
-      <c r="C260" s="41"/>
+      <c r="C260" s="34"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" s="10" t="s">
         <v>1592</v>
       </c>
-      <c r="C261" s="41"/>
+      <c r="C261" s="34"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" s="10" t="s">
         <v>1591</v>
       </c>
-      <c r="C262" s="41"/>
+      <c r="C262" s="34"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="10" t="s">
         <v>1595</v>
       </c>
-      <c r="C263" s="41"/>
+      <c r="C263" s="34"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" s="10" t="s">
         <v>1464</v>
       </c>
-      <c r="C264" s="41"/>
+      <c r="C264" s="34"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" s="10" t="s">
         <v>1524</v>
       </c>
-      <c r="C265" s="41"/>
+      <c r="C265" s="34"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" s="10" t="s">
         <v>1487</v>
       </c>
-      <c r="C266" s="41"/>
+      <c r="C266" s="34"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" s="10" t="s">
         <v>1446</v>
       </c>
-      <c r="C267" s="41"/>
+      <c r="C267" s="34"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" s="10" t="s">
         <v>1341</v>
       </c>
-      <c r="C268" s="41"/>
+      <c r="C268" s="34"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" s="10" t="s">
         <v>1539</v>
       </c>
-      <c r="C269" s="41"/>
+      <c r="C269" s="34"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" s="10" t="s">
         <v>1329</v>
       </c>
-      <c r="C270" s="41"/>
+      <c r="C270" s="34"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" s="10" t="s">
         <v>1325</v>
       </c>
-      <c r="C271" s="41"/>
+      <c r="C271" s="34"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272" s="10" t="s">
         <v>1419</v>
       </c>
-      <c r="C272" s="41"/>
+      <c r="C272" s="34"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273" s="10" t="s">
         <v>1421</v>
       </c>
-      <c r="C273" s="41"/>
+      <c r="C273" s="34"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" s="10" t="s">
         <v>1544</v>
       </c>
-      <c r="C274" s="41"/>
+      <c r="C274" s="34"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275" s="10" t="s">
         <v>1410</v>
       </c>
-      <c r="C275" s="41"/>
+      <c r="C275" s="34"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276" s="10" t="s">
         <v>1478</v>
       </c>
-      <c r="C276" s="41"/>
+      <c r="C276" s="34"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277" s="10" t="s">
         <v>1425</v>
       </c>
-      <c r="C277" s="41"/>
+      <c r="C277" s="34"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278" s="10" t="s">
         <v>1522</v>
       </c>
-      <c r="C278" s="41"/>
+      <c r="C278" s="34"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B279" s="10" t="s">
         <v>1558</v>
       </c>
-      <c r="C279" s="41"/>
+      <c r="C279" s="34"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280" s="10" t="s">
         <v>1362</v>
       </c>
-      <c r="C280" s="41"/>
+      <c r="C280" s="34"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281" s="10" t="s">
         <v>1363</v>
       </c>
-      <c r="C281" s="41"/>
+      <c r="C281" s="34"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282" s="10" t="s">
         <v>1342</v>
       </c>
-      <c r="C282" s="41"/>
+      <c r="C282" s="34"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283" s="10" t="s">
         <v>1519</v>
       </c>
-      <c r="C283" s="41"/>
+      <c r="C283" s="34"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284" s="10" t="s">
         <v>1360</v>
       </c>
-      <c r="C284" s="41"/>
+      <c r="C284" s="34"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285" s="10" t="s">
         <v>1312</v>
       </c>
-      <c r="C285" s="41"/>
+      <c r="C285" s="34"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286" s="10" t="s">
         <v>1422</v>
       </c>
-      <c r="C286" s="41"/>
+      <c r="C286" s="34"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" s="10" t="s">
         <v>1428</v>
       </c>
-      <c r="C287" s="41"/>
+      <c r="C287" s="34"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288" s="10" t="s">
         <v>1555</v>
       </c>
-      <c r="C288" s="41"/>
+      <c r="C288" s="34"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B289" s="10" t="s">
         <v>1527</v>
       </c>
-      <c r="C289" s="41"/>
+      <c r="C289" s="34"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B290" s="10" t="s">
         <v>1440</v>
       </c>
-      <c r="C290" s="41"/>
+      <c r="C290" s="34"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B291" s="10" t="s">
         <v>1394</v>
       </c>
-      <c r="C291" s="41"/>
+      <c r="C291" s="34"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B292" s="10" t="s">
         <v>1493</v>
       </c>
-      <c r="C292" s="41"/>
+      <c r="C292" s="34"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B293" s="10" t="s">
         <v>1494</v>
       </c>
-      <c r="C293" s="41"/>
+      <c r="C293" s="34"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B294" s="10" t="s">
         <v>1496</v>
       </c>
-      <c r="C294" s="41"/>
+      <c r="C294" s="34"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B295" s="10" t="s">
         <v>1495</v>
       </c>
-      <c r="C295" s="41"/>
+      <c r="C295" s="34"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B296" s="10" t="s">
         <v>1323</v>
       </c>
-      <c r="C296" s="41"/>
+      <c r="C296" s="34"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B297" s="10" t="s">
         <v>1597</v>
       </c>
-      <c r="C297" s="41"/>
+      <c r="C297" s="34"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B298" s="10" t="s">
         <v>1418</v>
       </c>
-      <c r="C298" s="41"/>
+      <c r="C298" s="34"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B299" s="10" t="s">
         <v>1529</v>
       </c>
-      <c r="C299" s="41"/>
+      <c r="C299" s="34"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B300" s="10" t="s">
         <v>1386</v>
       </c>
-      <c r="C300" s="41"/>
+      <c r="C300" s="34"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301" s="10" t="s">
         <v>1454</v>
       </c>
-      <c r="C301" s="41"/>
+      <c r="C301" s="34"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B302" s="10" t="s">
         <v>1556</v>
       </c>
-      <c r="C302" s="41"/>
+      <c r="C302" s="34"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B303" s="10" t="s">
         <v>1589</v>
       </c>
-      <c r="C303" s="41"/>
+      <c r="C303" s="34"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B304" s="10" t="s">
         <v>1388</v>
       </c>
-      <c r="C304" s="41"/>
+      <c r="C304" s="34"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B305" s="10" t="s">
         <v>1458</v>
       </c>
-      <c r="C305" s="41"/>
+      <c r="C305" s="34"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B306" s="10" t="s">
         <v>1459</v>
       </c>
-      <c r="C306" s="41"/>
+      <c r="C306" s="34"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B307" s="10" t="s">
         <v>1455</v>
       </c>
-      <c r="C307" s="41"/>
+      <c r="C307" s="34"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308" s="10" t="s">
         <v>1517</v>
       </c>
-      <c r="C308" s="41"/>
+      <c r="C308" s="34"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B309" s="10" t="s">
         <v>1427</v>
       </c>
-      <c r="C309" s="41"/>
+      <c r="C309" s="34"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310" s="10" t="s">
         <v>1426</v>
       </c>
-      <c r="C310" s="41"/>
+      <c r="C310" s="34"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B311" s="10" t="s">
         <v>1587</v>
       </c>
-      <c r="C311" s="41"/>
+      <c r="C311" s="34"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B312" s="10" t="s">
         <v>1397</v>
       </c>
-      <c r="C312" s="41"/>
+      <c r="C312" s="34"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B313" s="10" t="s">
         <v>1396</v>
       </c>
-      <c r="C313" s="41"/>
+      <c r="C313" s="34"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B314" s="10" t="s">
         <v>1404</v>
       </c>
-      <c r="C314" s="41"/>
+      <c r="C314" s="34"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B315" s="10" t="s">
         <v>1416</v>
       </c>
-      <c r="C315" s="41"/>
+      <c r="C315" s="34"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B316" s="10" t="s">
         <v>1415</v>
       </c>
-      <c r="C316" s="41"/>
+      <c r="C316" s="34"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B317" s="10" t="s">
         <v>1429</v>
       </c>
-      <c r="C317" s="41"/>
+      <c r="C317" s="34"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B318" s="10" t="s">
         <v>1322</v>
       </c>
-      <c r="C318" s="41"/>
+      <c r="C318" s="34"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B319" s="10" t="s">
         <v>1393</v>
       </c>
-      <c r="C319" s="41"/>
+      <c r="C319" s="34"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B320" s="10" t="s">
         <v>1532</v>
       </c>
-      <c r="C320" s="41"/>
+      <c r="C320" s="34"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B321" s="10" t="s">
         <v>1448</v>
       </c>
-      <c r="C321" s="41"/>
+      <c r="C321" s="34"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B322" s="10" t="s">
         <v>1320</v>
       </c>
-      <c r="C322" s="41"/>
+      <c r="C322" s="34"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B323" s="10" t="s">
         <v>1399</v>
       </c>
-      <c r="C323" s="41"/>
+      <c r="C323" s="34"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B324" s="10" t="s">
         <v>1498</v>
       </c>
-      <c r="C324" s="41"/>
+      <c r="C324" s="34"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B325" s="10" t="s">
         <v>1412</v>
       </c>
-      <c r="C325" s="41"/>
+      <c r="C325" s="34"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B326" s="10" t="s">
         <v>1313</v>
       </c>
-      <c r="C326" s="41"/>
+      <c r="C326" s="34"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B327" s="10" t="s">
         <v>1549</v>
       </c>
-      <c r="C327" s="41"/>
+      <c r="C327" s="34"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B328" s="10" t="s">
         <v>1548</v>
       </c>
-      <c r="C328" s="41"/>
+      <c r="C328" s="34"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B329" s="10" t="s">
         <v>1381</v>
       </c>
-      <c r="C329" s="41"/>
+      <c r="C329" s="34"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B330" s="10" t="s">
         <v>1382</v>
       </c>
-      <c r="C330" s="41"/>
+      <c r="C330" s="34"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B331" s="10" t="s">
         <v>1380</v>
       </c>
-      <c r="C331" s="41"/>
+      <c r="C331" s="34"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B332" s="10" t="s">
         <v>1383</v>
       </c>
-      <c r="C332" s="41"/>
+      <c r="C332" s="34"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B333" s="10" t="s">
         <v>1307</v>
       </c>
-      <c r="C333" s="41"/>
+      <c r="C333" s="34"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B334" s="10" t="s">
         <v>1577</v>
       </c>
-      <c r="C334" s="41"/>
+      <c r="C334" s="34"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B335" s="10" t="s">
         <v>1578</v>
       </c>
-      <c r="C335" s="41"/>
+      <c r="C335" s="34"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336" s="10" t="s">
         <v>1507</v>
       </c>
-      <c r="C336" s="41"/>
+      <c r="C336" s="34"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B337" s="10" t="s">
         <v>1480</v>
       </c>
-      <c r="C337" s="41"/>
+      <c r="C337" s="34"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B338" s="10" t="s">
         <v>1479</v>
       </c>
-      <c r="C338" s="41"/>
+      <c r="C338" s="34"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B339" s="10" t="s">
         <v>1569</v>
       </c>
-      <c r="C339" s="41"/>
+      <c r="C339" s="34"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B340" s="10" t="s">
         <v>1568</v>
       </c>
-      <c r="C340" s="41"/>
+      <c r="C340" s="34"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B341" s="10" t="s">
         <v>1354</v>
       </c>
-      <c r="C341" s="41"/>
+      <c r="C341" s="34"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B342" s="10" t="s">
         <v>1339</v>
       </c>
-      <c r="C342" s="41"/>
+      <c r="C342" s="34"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B343" s="10" t="s">
         <v>1473</v>
       </c>
-      <c r="C343" s="41"/>
+      <c r="C343" s="34"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B344" s="10" t="s">
         <v>1474</v>
       </c>
-      <c r="C344" s="41"/>
+      <c r="C344" s="34"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B345" s="10" t="s">
         <v>1358</v>
       </c>
-      <c r="C345" s="41"/>
+      <c r="C345" s="34"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B346" s="10" t="s">
         <v>1332</v>
       </c>
-      <c r="C346" s="41"/>
+      <c r="C346" s="34"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B347" s="10" t="s">
         <v>1586</v>
       </c>
-      <c r="C347" s="41"/>
+      <c r="C347" s="34"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B348" s="10" t="s">
         <v>1431</v>
       </c>
-      <c r="C348" s="41"/>
+      <c r="C348" s="34"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B349" s="10" t="s">
         <v>1315</v>
       </c>
-      <c r="C349" s="41"/>
+      <c r="C349" s="34"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B350" s="10" t="s">
         <v>1509</v>
       </c>
-      <c r="C350" s="41"/>
+      <c r="C350" s="34"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B351" s="10" t="s">
         <v>1430</v>
       </c>
-      <c r="C351" s="41"/>
+      <c r="C351" s="34"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B352" s="10" t="s">
         <v>1435</v>
       </c>
-      <c r="C352" s="41"/>
+      <c r="C352" s="34"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B353" s="10" t="s">
         <v>1523</v>
       </c>
-      <c r="C353" s="41"/>
+      <c r="C353" s="34"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B354" s="10" t="s">
         <v>1318</v>
       </c>
-      <c r="C354" s="41"/>
+      <c r="C354" s="34"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B355" s="10" t="s">
         <v>1511</v>
       </c>
-      <c r="C355" s="41"/>
+      <c r="C355" s="34"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B356" s="10" t="s">
         <v>1390</v>
       </c>
-      <c r="C356" s="41"/>
+      <c r="C356" s="34"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B357" s="10" t="s">
         <v>1327</v>
       </c>
-      <c r="C357" s="41"/>
+      <c r="C357" s="34"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B358" s="10" t="s">
         <v>1596</v>
       </c>
-      <c r="C358" s="41"/>
+      <c r="C358" s="34"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B359" s="10" t="s">
         <v>1395</v>
       </c>
-      <c r="C359" s="41"/>
+      <c r="C359" s="34"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B360" s="10" t="s">
         <v>1510</v>
       </c>
-      <c r="C360" s="41"/>
+      <c r="C360" s="34"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B361" s="10" t="s">
         <v>1326</v>
       </c>
-      <c r="C361" s="41"/>
+      <c r="C361" s="34"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B362" s="10" t="s">
         <v>1353</v>
       </c>
-      <c r="C362" s="41"/>
+      <c r="C362" s="34"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B363" s="10" t="s">
         <v>1351</v>
       </c>
-      <c r="C363" s="41"/>
+      <c r="C363" s="34"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B364" s="10" t="s">
         <v>1352</v>
       </c>
-      <c r="C364" s="41"/>
+      <c r="C364" s="34"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B365" s="10" t="s">
         <v>1417</v>
       </c>
-      <c r="C365" s="41"/>
+      <c r="C365" s="34"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B366" s="10" t="s">
         <v>1457</v>
       </c>
-      <c r="C366" s="41"/>
+      <c r="C366" s="34"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B367" s="10" t="s">
         <v>1537</v>
       </c>
-      <c r="C367" s="41"/>
+      <c r="C367" s="34"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B368" s="10" t="s">
         <v>1599</v>
       </c>
-      <c r="C368" s="41"/>
+      <c r="C368" s="34"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B369" s="10" t="s">
         <v>1414</v>
       </c>
-      <c r="C369" s="41"/>
+      <c r="C369" s="34"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B370" s="10" t="s">
         <v>1405</v>
       </c>
-      <c r="C370" s="41"/>
+      <c r="C370" s="34"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B371" s="10" t="s">
         <v>1319</v>
       </c>
-      <c r="C371" s="41"/>
+      <c r="C371" s="34"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B372" s="10" t="s">
         <v>1515</v>
       </c>
-      <c r="C372" s="41"/>
+      <c r="C372" s="34"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B373" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="C373" s="41"/>
+      <c r="C373" s="34"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B374" s="10" t="s">
         <v>1389</v>
       </c>
-      <c r="C374" s="41"/>
+      <c r="C374" s="34"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B375" s="10" t="s">
         <v>1376</v>
       </c>
-      <c r="C375" s="41"/>
+      <c r="C375" s="34"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B376" s="10" t="s">
         <v>1375</v>
       </c>
-      <c r="C376" s="41"/>
+      <c r="C376" s="34"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B377" s="10" t="s">
         <v>1560</v>
       </c>
-      <c r="C377" s="41"/>
+      <c r="C377" s="34"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B378" s="10" t="s">
         <v>1470</v>
       </c>
-      <c r="C378" s="41"/>
+      <c r="C378" s="34"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B379" s="10" t="s">
         <v>1452</v>
       </c>
-      <c r="C379" s="41"/>
+      <c r="C379" s="34"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B380" s="10" t="s">
         <v>1465</v>
       </c>
-      <c r="C380" s="41"/>
+      <c r="C380" s="34"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B381" s="10" t="s">
         <v>1552</v>
       </c>
-      <c r="C381" s="41"/>
+      <c r="C381" s="34"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B382" s="10" t="s">
         <v>1407</v>
       </c>
-      <c r="C382" s="41"/>
+      <c r="C382" s="34"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B383" s="10" t="s">
         <v>1514</v>
       </c>
-      <c r="C383" s="41"/>
+      <c r="C383" s="34"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B384" s="10" t="s">
         <v>1513</v>
       </c>
-      <c r="C384" s="41"/>
+      <c r="C384" s="34"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B385" s="10" t="s">
         <v>1316</v>
       </c>
-      <c r="C385" s="41"/>
+      <c r="C385" s="34"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B386" s="10" t="s">
         <v>1391</v>
       </c>
-      <c r="C386" s="41"/>
+      <c r="C386" s="34"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B387" s="10" t="s">
         <v>1335</v>
       </c>
-      <c r="C387" s="41"/>
+      <c r="C387" s="34"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B388" s="10" t="s">
         <v>1379</v>
       </c>
-      <c r="C388" s="41"/>
+      <c r="C388" s="34"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B389" s="10" t="s">
         <v>1378</v>
       </c>
-      <c r="C389" s="41"/>
+      <c r="C389" s="34"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B390" s="10" t="s">
         <v>1477</v>
       </c>
-      <c r="C390" s="41"/>
+      <c r="C390" s="34"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B391" s="10" t="s">
         <v>1485</v>
       </c>
-      <c r="C391" s="41"/>
+      <c r="C391" s="34"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B392" s="10" t="s">
         <v>1484</v>
       </c>
-      <c r="C392" s="41"/>
+      <c r="C392" s="34"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B393" s="10" t="s">
         <v>1536</v>
       </c>
-      <c r="C393" s="41"/>
+      <c r="C393" s="34"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B394" s="10" t="s">
         <v>1462</v>
       </c>
-      <c r="C394" s="41"/>
+      <c r="C394" s="34"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B395" s="10" t="s">
         <v>1489</v>
       </c>
-      <c r="C395" s="41"/>
+      <c r="C395" s="34"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B396" s="10" t="s">
         <v>1488</v>
       </c>
-      <c r="C396" s="41"/>
+      <c r="C396" s="34"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B397" s="10" t="s">
         <v>1490</v>
       </c>
-      <c r="C397" s="41"/>
+      <c r="C397" s="34"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B398" s="10" t="s">
         <v>1491</v>
       </c>
-      <c r="C398" s="41"/>
+      <c r="C398" s="34"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B399" s="10" t="s">
         <v>1512</v>
       </c>
-      <c r="C399" s="41"/>
+      <c r="C399" s="34"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B400" s="10" t="s">
         <v>1402</v>
       </c>
-      <c r="C400" s="41"/>
+      <c r="C400" s="34"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B401" s="10" t="s">
         <v>1559</v>
       </c>
-      <c r="C401" s="41"/>
+      <c r="C401" s="34"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B402" s="10" t="s">
         <v>1411</v>
       </c>
-      <c r="C402" s="41"/>
+      <c r="C402" s="34"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B403" s="10" t="s">
         <v>1476</v>
       </c>
-      <c r="C403" s="41"/>
+      <c r="C403" s="34"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B404" s="10" t="s">
         <v>1356</v>
       </c>
-      <c r="C404" s="41"/>
+      <c r="C404" s="34"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B405" s="10" t="s">
         <v>1366</v>
       </c>
-      <c r="C405" s="41"/>
+      <c r="C405" s="34"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B406" s="10" t="s">
         <v>1581</v>
       </c>
-      <c r="C406" s="41"/>
+      <c r="C406" s="34"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B407" s="10" t="s">
         <v>1553</v>
       </c>
-      <c r="C407" s="41"/>
+      <c r="C407" s="34"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B408" s="10" t="s">
         <v>1314</v>
       </c>
-      <c r="C408" s="41"/>
+      <c r="C408" s="34"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B409" s="10" t="s">
         <v>1551</v>
       </c>
-      <c r="C409" s="41"/>
+      <c r="C409" s="34"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B410" s="10" t="s">
         <v>1576</v>
       </c>
-      <c r="C410" s="41"/>
+      <c r="C410" s="34"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B411" s="10" t="s">
         <v>1575</v>
       </c>
-      <c r="C411" s="41"/>
+      <c r="C411" s="34"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B412" s="10" t="s">
         <v>1567</v>
       </c>
-      <c r="C412" s="41"/>
+      <c r="C412" s="34"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B413" s="10" t="s">
         <v>1408</v>
       </c>
-      <c r="C413" s="41"/>
+      <c r="C413" s="34"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B414" s="10" t="s">
         <v>1401</v>
       </c>
-      <c r="C414" s="41"/>
+      <c r="C414" s="34"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B415" s="10" t="s">
         <v>1400</v>
       </c>
-      <c r="C415" s="41"/>
+      <c r="C415" s="34"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B416" s="10" t="s">
         <v>1406</v>
       </c>
-      <c r="C416" s="41"/>
+      <c r="C416" s="34"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B417" s="10" t="s">
         <v>1441</v>
       </c>
-      <c r="C417" s="41"/>
+      <c r="C417" s="34"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B418" s="10" t="s">
         <v>1324</v>
       </c>
-      <c r="C418" s="41"/>
+      <c r="C418" s="34"/>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B419" s="10" t="s">
         <v>1557</v>
       </c>
-      <c r="C419" s="41"/>
+      <c r="C419" s="34"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B420" s="10" t="s">
         <v>1546</v>
       </c>
-      <c r="C420" s="41"/>
+      <c r="C420" s="34"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B421" s="10" t="s">
         <v>1482</v>
       </c>
-      <c r="C421" s="41"/>
+      <c r="C421" s="34"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B422" s="10" t="s">
         <v>1588</v>
       </c>
-      <c r="C422" s="41"/>
+      <c r="C422" s="34"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B423" s="10" t="s">
         <v>1590</v>
       </c>
-      <c r="C423" s="41"/>
+      <c r="C423" s="34"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B424" s="10" t="s">
         <v>1424</v>
       </c>
-      <c r="C424" s="41"/>
+      <c r="C424" s="34"/>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B425" s="10" t="s">
         <v>1374</v>
       </c>
-      <c r="C425" s="41"/>
+      <c r="C425" s="34"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B426" s="10" t="s">
         <v>1521</v>
       </c>
-      <c r="C426" s="41"/>
+      <c r="C426" s="34"/>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B427" s="10" t="s">
         <v>1447</v>
       </c>
-      <c r="C427" s="41"/>
+      <c r="C427" s="34"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B428" s="10" t="s">
         <v>1357</v>
       </c>
-      <c r="C428" s="41"/>
+      <c r="C428" s="34"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B429" s="10" t="s">
         <v>1444</v>
       </c>
-      <c r="C429" s="41"/>
+      <c r="C429" s="34"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B430" s="10" t="s">
         <v>1443</v>
       </c>
-      <c r="C430" s="41"/>
+      <c r="C430" s="34"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B431" s="10" t="s">
         <v>1550</v>
       </c>
-      <c r="C431" s="41"/>
+      <c r="C431" s="34"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B432" s="10" t="s">
         <v>1518</v>
       </c>
-      <c r="C432" s="41"/>
+      <c r="C432" s="34"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B433" s="10" t="s">
         <v>1439</v>
       </c>
-      <c r="C433" s="41"/>
+      <c r="C433" s="34"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B434" s="10" t="s">
         <v>1502</v>
       </c>
-      <c r="C434" s="41"/>
+      <c r="C434" s="34"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B435" s="10" t="s">
         <v>1526</v>
       </c>
-      <c r="C435" s="41"/>
+      <c r="C435" s="34"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B436" s="10" t="s">
         <v>1369</v>
       </c>
-      <c r="C436" s="41"/>
+      <c r="C436" s="34"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B437" s="10" t="s">
         <v>1571</v>
       </c>
-      <c r="C437" s="41"/>
+      <c r="C437" s="34"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B438" s="10" t="s">
         <v>1598</v>
       </c>
-      <c r="C438" s="41"/>
+      <c r="C438" s="34"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B439" s="10" t="s">
         <v>1561</v>
       </c>
-      <c r="C439" s="41"/>
+      <c r="C439" s="34"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B440" s="10" t="s">
         <v>1481</v>
       </c>
-      <c r="C440" s="41"/>
+      <c r="C440" s="34"/>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B441" s="10" t="s">
         <v>1564</v>
       </c>
-      <c r="C441" s="41"/>
+      <c r="C441" s="34"/>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B442" s="10" t="s">
         <v>1565</v>
       </c>
-      <c r="C442" s="41"/>
+      <c r="C442" s="34"/>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B443" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="C443" s="41"/>
+      <c r="C443" s="34"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B444" s="10" t="s">
         <v>1535</v>
       </c>
-      <c r="C444" s="41"/>
+      <c r="C444" s="34"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B445" s="10" t="s">
         <v>1372</v>
       </c>
-      <c r="C445" s="41"/>
+      <c r="C445" s="34"/>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B446" s="10" t="s">
         <v>1423</v>
       </c>
-      <c r="C446" s="41"/>
+      <c r="C446" s="34"/>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B447" s="10" t="s">
         <v>1365</v>
       </c>
-      <c r="C447" s="41"/>
+      <c r="C447" s="34"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B448" s="10" t="s">
         <v>1364</v>
       </c>
-      <c r="C448" s="41"/>
+      <c r="C448" s="34"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B449" s="10" t="s">
         <v>1533</v>
       </c>
-      <c r="C449" s="41"/>
+      <c r="C449" s="34"/>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B450" s="10" t="s">
         <v>1451</v>
       </c>
-      <c r="C450" s="41"/>
+      <c r="C450" s="34"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B451" s="10" t="s">
         <v>1434</v>
       </c>
-      <c r="C451" s="41"/>
+      <c r="C451" s="34"/>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B452" s="10" t="s">
         <v>1437</v>
       </c>
-      <c r="C452" s="41"/>
+      <c r="C452" s="34"/>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B453" s="10" t="s">
         <v>1436</v>
       </c>
-      <c r="C453" s="41"/>
+      <c r="C453" s="34"/>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B454" s="10" t="s">
         <v>1433</v>
       </c>
-      <c r="C454" s="41"/>
+      <c r="C454" s="34"/>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B455" s="10" t="s">
         <v>1542</v>
       </c>
-      <c r="C455" s="41"/>
+      <c r="C455" s="34"/>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B456" s="10" t="s">
         <v>1566</v>
       </c>
-      <c r="C456" s="41"/>
+      <c r="C456" s="34"/>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B457" s="10" t="s">
         <v>1336</v>
       </c>
-      <c r="C457" s="41"/>
+      <c r="C457" s="34"/>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B458" s="10" t="s">
         <v>1344</v>
       </c>
-      <c r="C458" s="41"/>
+      <c r="C458" s="34"/>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B459" s="10" t="s">
         <v>1348</v>
       </c>
-      <c r="C459" s="41"/>
+      <c r="C459" s="34"/>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B460" s="10" t="s">
         <v>1346</v>
       </c>
-      <c r="C460" s="41"/>
+      <c r="C460" s="34"/>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B461" s="10" t="s">
         <v>1530</v>
       </c>
-      <c r="C461" s="41"/>
+      <c r="C461" s="34"/>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B462" s="10" t="s">
         <v>1531</v>
       </c>
-      <c r="C462" s="41"/>
+      <c r="C462" s="34"/>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B463" s="10" t="s">
         <v>1580</v>
       </c>
-      <c r="C463" s="41"/>
+      <c r="C463" s="34"/>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B464" s="10" t="s">
         <v>1334</v>
       </c>
-      <c r="C464" s="41"/>
+      <c r="C464" s="34"/>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B465" s="10" t="s">
         <v>1385</v>
       </c>
-      <c r="C465" s="41"/>
+      <c r="C465" s="34"/>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B466" s="10" t="s">
         <v>1601</v>
       </c>
-      <c r="C466" s="41" t="s">
+      <c r="C466" s="34" t="s">
         <v>1648</v>
       </c>
     </row>
@@ -16019,283 +15998,283 @@
       <c r="B467" s="10" t="s">
         <v>1602</v>
       </c>
-      <c r="C467" s="41"/>
+      <c r="C467" s="34"/>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B468" s="10" t="s">
         <v>1603</v>
       </c>
-      <c r="C468" s="41"/>
+      <c r="C468" s="34"/>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B469" s="10" t="s">
         <v>1604</v>
       </c>
-      <c r="C469" s="41"/>
+      <c r="C469" s="34"/>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B470" s="10" t="s">
         <v>1605</v>
       </c>
-      <c r="C470" s="41"/>
+      <c r="C470" s="34"/>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B471" s="10" t="s">
         <v>1606</v>
       </c>
-      <c r="C471" s="41"/>
+      <c r="C471" s="34"/>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B472" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="C472" s="41"/>
+      <c r="C472" s="34"/>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B473" s="10" t="s">
         <v>1608</v>
       </c>
-      <c r="C473" s="41"/>
+      <c r="C473" s="34"/>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B474" s="10" t="s">
         <v>1609</v>
       </c>
-      <c r="C474" s="41"/>
+      <c r="C474" s="34"/>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B475" s="10" t="s">
         <v>1610</v>
       </c>
-      <c r="C475" s="41"/>
+      <c r="C475" s="34"/>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B476" s="10" t="s">
         <v>1611</v>
       </c>
-      <c r="C476" s="41"/>
+      <c r="C476" s="34"/>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B477" s="10" t="s">
         <v>1612</v>
       </c>
-      <c r="C477" s="41"/>
+      <c r="C477" s="34"/>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B478" s="10" t="s">
         <v>1613</v>
       </c>
-      <c r="C478" s="41"/>
+      <c r="C478" s="34"/>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B479" s="10" t="s">
         <v>1614</v>
       </c>
-      <c r="C479" s="41"/>
+      <c r="C479" s="34"/>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B480" s="10" t="s">
         <v>1615</v>
       </c>
-      <c r="C480" s="41"/>
+      <c r="C480" s="34"/>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B481" s="10" t="s">
         <v>1616</v>
       </c>
-      <c r="C481" s="41"/>
+      <c r="C481" s="34"/>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B482" s="10" t="s">
         <v>1617</v>
       </c>
-      <c r="C482" s="41"/>
+      <c r="C482" s="34"/>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B483" s="10" t="s">
         <v>1618</v>
       </c>
-      <c r="C483" s="41"/>
+      <c r="C483" s="34"/>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B484" s="10" t="s">
         <v>1619</v>
       </c>
-      <c r="C484" s="41"/>
+      <c r="C484" s="34"/>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B485" s="10" t="s">
         <v>1620</v>
       </c>
-      <c r="C485" s="41"/>
+      <c r="C485" s="34"/>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B486" s="10" t="s">
         <v>1621</v>
       </c>
-      <c r="C486" s="41"/>
+      <c r="C486" s="34"/>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B487" s="10" t="s">
         <v>1622</v>
       </c>
-      <c r="C487" s="41"/>
+      <c r="C487" s="34"/>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B488" s="10" t="s">
         <v>1623</v>
       </c>
-      <c r="C488" s="41"/>
+      <c r="C488" s="34"/>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B489" s="10" t="s">
         <v>1624</v>
       </c>
-      <c r="C489" s="41"/>
+      <c r="C489" s="34"/>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B490" s="10" t="s">
         <v>1625</v>
       </c>
-      <c r="C490" s="41"/>
+      <c r="C490" s="34"/>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B491" s="10" t="s">
         <v>1626</v>
       </c>
-      <c r="C491" s="41"/>
+      <c r="C491" s="34"/>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B492" s="10" t="s">
         <v>1627</v>
       </c>
-      <c r="C492" s="41"/>
+      <c r="C492" s="34"/>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B493" s="10" t="s">
         <v>1628</v>
       </c>
-      <c r="C493" s="41"/>
+      <c r="C493" s="34"/>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B494" s="10" t="s">
         <v>1629</v>
       </c>
-      <c r="C494" s="41"/>
+      <c r="C494" s="34"/>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B495" s="10" t="s">
         <v>1630</v>
       </c>
-      <c r="C495" s="41"/>
+      <c r="C495" s="34"/>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B496" s="10" t="s">
         <v>1631</v>
       </c>
-      <c r="C496" s="41"/>
+      <c r="C496" s="34"/>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B497" s="10" t="s">
         <v>1632</v>
       </c>
-      <c r="C497" s="41"/>
+      <c r="C497" s="34"/>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B498" s="10" t="s">
         <v>1633</v>
       </c>
-      <c r="C498" s="41"/>
+      <c r="C498" s="34"/>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B499" s="10" t="s">
         <v>1634</v>
       </c>
-      <c r="C499" s="41"/>
+      <c r="C499" s="34"/>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B500" s="10" t="s">
         <v>1635</v>
       </c>
-      <c r="C500" s="41"/>
+      <c r="C500" s="34"/>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B501" s="10" t="s">
         <v>1636</v>
       </c>
-      <c r="C501" s="41"/>
+      <c r="C501" s="34"/>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B502" s="10" t="s">
         <v>1637</v>
       </c>
-      <c r="C502" s="41"/>
+      <c r="C502" s="34"/>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B503" s="10" t="s">
         <v>1638</v>
       </c>
-      <c r="C503" s="41"/>
+      <c r="C503" s="34"/>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B504" s="10" t="s">
         <v>1639</v>
       </c>
-      <c r="C504" s="41"/>
+      <c r="C504" s="34"/>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B505" s="10" t="s">
         <v>1640</v>
       </c>
-      <c r="C505" s="41"/>
+      <c r="C505" s="34"/>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B506" s="10" t="s">
         <v>1641</v>
       </c>
-      <c r="C506" s="41"/>
+      <c r="C506" s="34"/>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B507" s="10" t="s">
         <v>1642</v>
       </c>
-      <c r="C507" s="41"/>
+      <c r="C507" s="34"/>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B508" s="10" t="s">
         <v>1643</v>
       </c>
-      <c r="C508" s="41"/>
+      <c r="C508" s="34"/>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B509" s="10" t="s">
         <v>1644</v>
       </c>
-      <c r="C509" s="41"/>
+      <c r="C509" s="34"/>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B510" s="10" t="s">
         <v>1645</v>
       </c>
-      <c r="C510" s="41"/>
+      <c r="C510" s="34"/>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B511" s="10" t="s">
         <v>1646</v>
       </c>
-      <c r="C511" s="41"/>
+      <c r="C511" s="34"/>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B512" s="10" t="s">
         <v>1647</v>
       </c>
-      <c r="C512" s="41"/>
+      <c r="C512" s="34"/>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B513" s="10" t="s">
         <v>1649</v>
       </c>
-      <c r="C513" s="41" t="s">
+      <c r="C513" s="34" t="s">
         <v>1696</v>
       </c>
     </row>
@@ -16303,283 +16282,283 @@
       <c r="B514" s="10" t="s">
         <v>1650</v>
       </c>
-      <c r="C514" s="41"/>
+      <c r="C514" s="34"/>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B515" s="10" t="s">
         <v>1651</v>
       </c>
-      <c r="C515" s="41"/>
+      <c r="C515" s="34"/>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B516" s="10" t="s">
         <v>1652</v>
       </c>
-      <c r="C516" s="41"/>
+      <c r="C516" s="34"/>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B517" s="10" t="s">
         <v>1653</v>
       </c>
-      <c r="C517" s="41"/>
+      <c r="C517" s="34"/>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B518" s="10" t="s">
         <v>1654</v>
       </c>
-      <c r="C518" s="41"/>
+      <c r="C518" s="34"/>
     </row>
     <row r="519" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B519" s="10" t="s">
         <v>1655</v>
       </c>
-      <c r="C519" s="41"/>
+      <c r="C519" s="34"/>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B520" s="10" t="s">
         <v>1656</v>
       </c>
-      <c r="C520" s="41"/>
+      <c r="C520" s="34"/>
     </row>
     <row r="521" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B521" s="10" t="s">
         <v>1657</v>
       </c>
-      <c r="C521" s="41"/>
+      <c r="C521" s="34"/>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B522" s="10" t="s">
         <v>1658</v>
       </c>
-      <c r="C522" s="41"/>
+      <c r="C522" s="34"/>
     </row>
     <row r="523" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B523" s="10" t="s">
         <v>1659</v>
       </c>
-      <c r="C523" s="41"/>
+      <c r="C523" s="34"/>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B524" s="10" t="s">
         <v>1660</v>
       </c>
-      <c r="C524" s="41"/>
+      <c r="C524" s="34"/>
     </row>
     <row r="525" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B525" s="10" t="s">
         <v>1661</v>
       </c>
-      <c r="C525" s="41"/>
+      <c r="C525" s="34"/>
     </row>
     <row r="526" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B526" s="10" t="s">
         <v>1662</v>
       </c>
-      <c r="C526" s="41"/>
+      <c r="C526" s="34"/>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B527" s="10" t="s">
         <v>1663</v>
       </c>
-      <c r="C527" s="41"/>
+      <c r="C527" s="34"/>
     </row>
     <row r="528" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B528" s="10" t="s">
         <v>1664</v>
       </c>
-      <c r="C528" s="41"/>
+      <c r="C528" s="34"/>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B529" s="10" t="s">
         <v>1665</v>
       </c>
-      <c r="C529" s="41"/>
+      <c r="C529" s="34"/>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B530" s="10" t="s">
         <v>1666</v>
       </c>
-      <c r="C530" s="41"/>
+      <c r="C530" s="34"/>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B531" s="10" t="s">
         <v>1667</v>
       </c>
-      <c r="C531" s="41"/>
+      <c r="C531" s="34"/>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B532" s="10" t="s">
         <v>1668</v>
       </c>
-      <c r="C532" s="41"/>
+      <c r="C532" s="34"/>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B533" s="10" t="s">
         <v>1669</v>
       </c>
-      <c r="C533" s="41"/>
+      <c r="C533" s="34"/>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B534" s="10" t="s">
         <v>1670</v>
       </c>
-      <c r="C534" s="41"/>
+      <c r="C534" s="34"/>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B535" s="10" t="s">
         <v>1671</v>
       </c>
-      <c r="C535" s="41"/>
+      <c r="C535" s="34"/>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B536" s="10" t="s">
         <v>1672</v>
       </c>
-      <c r="C536" s="41"/>
+      <c r="C536" s="34"/>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B537" s="10" t="s">
         <v>1673</v>
       </c>
-      <c r="C537" s="41"/>
+      <c r="C537" s="34"/>
     </row>
     <row r="538" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B538" s="10" t="s">
         <v>1674</v>
       </c>
-      <c r="C538" s="41"/>
+      <c r="C538" s="34"/>
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B539" s="10" t="s">
         <v>1675</v>
       </c>
-      <c r="C539" s="41"/>
+      <c r="C539" s="34"/>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B540" s="10" t="s">
         <v>1676</v>
       </c>
-      <c r="C540" s="41"/>
+      <c r="C540" s="34"/>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B541" s="10" t="s">
         <v>1677</v>
       </c>
-      <c r="C541" s="41"/>
+      <c r="C541" s="34"/>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B542" s="10" t="s">
         <v>1678</v>
       </c>
-      <c r="C542" s="41"/>
+      <c r="C542" s="34"/>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B543" s="10" t="s">
         <v>1679</v>
       </c>
-      <c r="C543" s="41"/>
+      <c r="C543" s="34"/>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B544" s="10" t="s">
         <v>1680</v>
       </c>
-      <c r="C544" s="41"/>
+      <c r="C544" s="34"/>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B545" s="10" t="s">
         <v>1681</v>
       </c>
-      <c r="C545" s="41"/>
+      <c r="C545" s="34"/>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B546" s="10" t="s">
         <v>1682</v>
       </c>
-      <c r="C546" s="41"/>
+      <c r="C546" s="34"/>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B547" s="10" t="s">
         <v>1683</v>
       </c>
-      <c r="C547" s="41"/>
+      <c r="C547" s="34"/>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B548" s="10" t="s">
         <v>1684</v>
       </c>
-      <c r="C548" s="41"/>
+      <c r="C548" s="34"/>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B549" s="10" t="s">
         <v>1685</v>
       </c>
-      <c r="C549" s="41"/>
+      <c r="C549" s="34"/>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B550" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="C550" s="41"/>
+      <c r="C550" s="34"/>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B551" s="10" t="s">
         <v>1687</v>
       </c>
-      <c r="C551" s="41"/>
+      <c r="C551" s="34"/>
     </row>
     <row r="552" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B552" s="10" t="s">
         <v>1688</v>
       </c>
-      <c r="C552" s="41"/>
+      <c r="C552" s="34"/>
     </row>
     <row r="553" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B553" s="10" t="s">
         <v>1689</v>
       </c>
-      <c r="C553" s="41"/>
+      <c r="C553" s="34"/>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B554" s="10" t="s">
         <v>1690</v>
       </c>
-      <c r="C554" s="41"/>
+      <c r="C554" s="34"/>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B555" s="10" t="s">
         <v>1691</v>
       </c>
-      <c r="C555" s="41"/>
+      <c r="C555" s="34"/>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B556" s="10" t="s">
         <v>1692</v>
       </c>
-      <c r="C556" s="41"/>
+      <c r="C556" s="34"/>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B557" s="10" t="s">
         <v>1693</v>
       </c>
-      <c r="C557" s="41"/>
+      <c r="C557" s="34"/>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B558" s="10" t="s">
         <v>1694</v>
       </c>
-      <c r="C558" s="41"/>
+      <c r="C558" s="34"/>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B559" s="10" t="s">
         <v>1695</v>
       </c>
-      <c r="C559" s="41"/>
+      <c r="C559" s="34"/>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B560" s="10" t="s">
         <v>1697</v>
       </c>
-      <c r="C560" s="41" t="s">
+      <c r="C560" s="34" t="s">
         <v>1713</v>
       </c>
     </row>
@@ -16587,97 +16566,97 @@
       <c r="B561" s="10" t="s">
         <v>1698</v>
       </c>
-      <c r="C561" s="41"/>
+      <c r="C561" s="34"/>
     </row>
     <row r="562" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B562" s="10" t="s">
         <v>1699</v>
       </c>
-      <c r="C562" s="41"/>
+      <c r="C562" s="34"/>
     </row>
     <row r="563" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B563" s="10" t="s">
         <v>1700</v>
       </c>
-      <c r="C563" s="41"/>
+      <c r="C563" s="34"/>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B564" s="10" t="s">
         <v>1701</v>
       </c>
-      <c r="C564" s="41"/>
+      <c r="C564" s="34"/>
     </row>
     <row r="565" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B565" s="10" t="s">
         <v>1702</v>
       </c>
-      <c r="C565" s="41"/>
+      <c r="C565" s="34"/>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B566" s="10" t="s">
         <v>1703</v>
       </c>
-      <c r="C566" s="41"/>
+      <c r="C566" s="34"/>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B567" s="10" t="s">
         <v>1704</v>
       </c>
-      <c r="C567" s="41"/>
+      <c r="C567" s="34"/>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B568" s="10" t="s">
         <v>1705</v>
       </c>
-      <c r="C568" s="41"/>
+      <c r="C568" s="34"/>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B569" s="10" t="s">
         <v>1706</v>
       </c>
-      <c r="C569" s="41"/>
+      <c r="C569" s="34"/>
     </row>
     <row r="570" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B570" s="10" t="s">
         <v>1707</v>
       </c>
-      <c r="C570" s="41"/>
+      <c r="C570" s="34"/>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B571" s="10" t="s">
         <v>1708</v>
       </c>
-      <c r="C571" s="41"/>
+      <c r="C571" s="34"/>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B572" s="10" t="s">
         <v>1709</v>
       </c>
-      <c r="C572" s="41"/>
+      <c r="C572" s="34"/>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B573" s="10" t="s">
         <v>1710</v>
       </c>
-      <c r="C573" s="41"/>
+      <c r="C573" s="34"/>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B574" s="10" t="s">
         <v>1711</v>
       </c>
-      <c r="C574" s="41"/>
+      <c r="C574" s="34"/>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B575" s="10" t="s">
         <v>1712</v>
       </c>
-      <c r="C575" s="41"/>
+      <c r="C575" s="34"/>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B576" s="10" t="s">
         <v>1714</v>
       </c>
-      <c r="C576" s="41" t="s">
+      <c r="C576" s="34" t="s">
         <v>1716</v>
       </c>
     </row>
@@ -16685,13 +16664,13 @@
       <c r="B577" s="10" t="s">
         <v>1715</v>
       </c>
-      <c r="C577" s="41"/>
+      <c r="C577" s="34"/>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B578" s="10" t="s">
         <v>1717</v>
       </c>
-      <c r="C578" s="41" t="s">
+      <c r="C578" s="34" t="s">
         <v>1719</v>
       </c>
     </row>
@@ -16699,13 +16678,13 @@
       <c r="B579" s="10" t="s">
         <v>1718</v>
       </c>
-      <c r="C579" s="41"/>
+      <c r="C579" s="34"/>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B580" s="10" t="s">
         <v>1720</v>
       </c>
-      <c r="C580" s="41" t="s">
+      <c r="C580" s="34" t="s">
         <v>1723</v>
       </c>
     </row>
@@ -16713,19 +16692,19 @@
       <c r="B581" s="10" t="s">
         <v>1721</v>
       </c>
-      <c r="C581" s="41"/>
+      <c r="C581" s="34"/>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B582" s="10" t="s">
         <v>1722</v>
       </c>
-      <c r="C582" s="41"/>
+      <c r="C582" s="34"/>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B583" s="10" t="s">
         <v>1724</v>
       </c>
-      <c r="C583" s="41" t="s">
+      <c r="C583" s="34" t="s">
         <v>1730</v>
       </c>
     </row>
@@ -16733,43 +16712,43 @@
       <c r="B584" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="C584" s="41"/>
+      <c r="C584" s="34"/>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B585" s="10" t="s">
         <v>1572</v>
       </c>
-      <c r="C585" s="41"/>
+      <c r="C585" s="34"/>
     </row>
     <row r="586" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B586" s="10" t="s">
         <v>1725</v>
       </c>
-      <c r="C586" s="41"/>
+      <c r="C586" s="34"/>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B587" s="10" t="s">
         <v>1726</v>
       </c>
-      <c r="C587" s="41"/>
+      <c r="C587" s="34"/>
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B588" s="10" t="s">
         <v>1727</v>
       </c>
-      <c r="C588" s="41"/>
+      <c r="C588" s="34"/>
     </row>
     <row r="589" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B589" s="10" t="s">
         <v>1728</v>
       </c>
-      <c r="C589" s="41"/>
+      <c r="C589" s="34"/>
     </row>
     <row r="590" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B590" s="10" t="s">
         <v>1729</v>
       </c>
-      <c r="C590" s="41"/>
+      <c r="C590" s="34"/>
     </row>
     <row r="591" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B591" s="10" t="s">
@@ -16959,7 +16938,7 @@
       <c r="B614" s="10" t="s">
         <v>1766</v>
       </c>
-      <c r="C614" s="41" t="s">
+      <c r="C614" s="34" t="s">
         <v>1768</v>
       </c>
     </row>
@@ -16967,25 +16946,25 @@
       <c r="B615" s="10" t="s">
         <v>1767</v>
       </c>
-      <c r="C615" s="41"/>
+      <c r="C615" s="34"/>
     </row>
     <row r="616" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B616" s="10" t="s">
         <v>1769</v>
       </c>
-      <c r="C616" s="41"/>
+      <c r="C616" s="34"/>
     </row>
     <row r="617" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B617" s="10" t="s">
         <v>1770</v>
       </c>
-      <c r="C617" s="41"/>
+      <c r="C617" s="34"/>
     </row>
     <row r="618" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B618" s="10" t="s">
         <v>1771</v>
       </c>
-      <c r="C618" s="41"/>
+      <c r="C618" s="34"/>
     </row>
     <row r="619" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B619" s="10" t="s">
@@ -17016,7 +16995,7 @@
       <c r="B624" s="10" t="s">
         <v>1777</v>
       </c>
-      <c r="C624" s="42" t="s">
+      <c r="C624" s="35" t="s">
         <v>1780</v>
       </c>
     </row>
@@ -17024,13 +17003,13 @@
       <c r="B625" s="10" t="s">
         <v>1778</v>
       </c>
-      <c r="C625" s="42"/>
+      <c r="C625" s="35"/>
     </row>
     <row r="626" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B626" s="10" t="s">
         <v>1779</v>
       </c>
-      <c r="C626" s="42"/>
+      <c r="C626" s="35"/>
     </row>
     <row r="627" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B627" s="10" t="s">
@@ -18308,12 +18287,12 @@
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B798" s="29" t="s">
+      <c r="B798" s="28" t="s">
         <v>2138</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B799" s="29" t="s">
+      <c r="B799" s="28" t="s">
         <v>2144</v>
       </c>
     </row>
@@ -18437,7 +18416,7 @@
       </c>
     </row>
     <row r="821" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B821" s="29" t="s">
+      <c r="B821" s="28" t="s">
         <v>2143</v>
       </c>
     </row>
@@ -18707,7 +18686,7 @@
     </row>
     <row r="873" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B873" s="10" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="874" spans="2:3" x14ac:dyDescent="0.2">
@@ -18790,7 +18769,7 @@
     </row>
     <row r="889" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B889" s="10" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="890" spans="2:3" x14ac:dyDescent="0.2">
@@ -18802,126 +18781,126 @@
       <c r="B891" s="10" t="s">
         <v>1100</v>
       </c>
-      <c r="C891" s="30" t="s">
-        <v>2221</v>
+      <c r="C891" s="10" t="s">
+        <v>2220</v>
       </c>
     </row>
     <row r="892" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B892" s="10" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="893" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B893" s="10" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="894" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B894" s="10" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="895" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B895" s="10" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="896" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B896" s="10" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="897" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B897" s="10" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="898" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B898" s="10" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="899" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B899" s="10" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="900" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B900" s="10" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="901" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B901" s="10" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="902" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B902" s="10" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="903" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B903" s="10" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="904" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B904" s="10" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="905" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B905" s="10" t="s">
         <v>2250</v>
       </c>
-    </row>
-    <row r="905" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B905" s="32" t="s">
+      <c r="C905" s="10" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="906" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B906" s="10" t="s">
         <v>2251</v>
-      </c>
-      <c r="C905" s="10" t="s">
-        <v>2253</v>
-      </c>
-    </row>
-    <row r="906" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B906" s="32" t="s">
-        <v>2252</v>
       </c>
     </row>
     <row r="907" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B907" s="10" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="908" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B908" s="10" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="909" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B909" s="10" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="910" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B910" s="10" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="911" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B911" s="10" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="912" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B912" s="10" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="913" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B913" s="10" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="914" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B914" s="10" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="915" spans="2:3" x14ac:dyDescent="0.2">
@@ -18929,294 +18908,294 @@
         <v>18</v>
       </c>
     </row>
-    <row r="916" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B916" s="33" t="s">
-        <v>2262</v>
+    <row r="916" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B916" s="10" t="s">
+        <v>2261</v>
       </c>
       <c r="C916" s="10" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="917" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B917" s="33" t="s">
+    <row r="917" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B917" s="10" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C917" s="34" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="918" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B918" s="10" t="s">
         <v>2263</v>
       </c>
-      <c r="C917" s="41" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="918" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B918" s="33" t="s">
+      <c r="C918" s="34"/>
+    </row>
+    <row r="919" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B919" s="10" t="s">
         <v>2264</v>
       </c>
-      <c r="C918" s="37"/>
-    </row>
-    <row r="919" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B919" s="33" t="s">
+      <c r="C919" s="34"/>
+    </row>
+    <row r="920" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B920" s="10" t="s">
         <v>2265</v>
       </c>
-      <c r="C919" s="37"/>
-    </row>
-    <row r="920" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B920" s="33" t="s">
+      <c r="C920" s="34"/>
+    </row>
+    <row r="921" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B921" s="10" t="s">
         <v>2266</v>
       </c>
-      <c r="C920" s="37"/>
-    </row>
-    <row r="921" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B921" s="33" t="s">
+      <c r="C921" s="34"/>
+    </row>
+    <row r="922" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B922" s="10" t="s">
         <v>2267</v>
       </c>
-      <c r="C921" s="37"/>
-    </row>
-    <row r="922" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B922" s="33" t="s">
-        <v>2268</v>
-      </c>
-      <c r="C922" s="37"/>
+      <c r="C922" s="34"/>
     </row>
     <row r="923" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B923" s="10" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="924" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B924" s="31" t="s">
-        <v>2237</v>
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="924" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B924" s="10" t="s">
+        <v>2236</v>
       </c>
     </row>
     <row r="925" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B925" s="10" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="926" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B926" s="31" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="926" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B926" s="10" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C926" s="10" t="s">
         <v>2241</v>
-      </c>
-      <c r="C926" s="10" t="s">
-        <v>2242</v>
       </c>
     </row>
     <row r="927" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B927" s="10" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="928" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B928" s="10" t="s">
         <v>2244</v>
-      </c>
-    </row>
-    <row r="928" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B928" s="31" t="s">
-        <v>2245</v>
       </c>
     </row>
     <row r="929" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B929" s="10" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C929" s="10" t="s">
         <v>2246</v>
       </c>
-      <c r="C929" s="10" t="s">
+    </row>
+    <row r="930" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B930" s="10" t="s">
         <v>2247</v>
       </c>
-    </row>
-    <row r="930" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B930" s="31" t="s">
+      <c r="C930" s="10" t="s">
         <v>2248</v>
-      </c>
-      <c r="C930" s="10" t="s">
-        <v>2249</v>
       </c>
     </row>
     <row r="931" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B931" s="10" t="s">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="932" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B932" s="31" t="s">
         <v>2254</v>
+      </c>
+    </row>
+    <row r="932" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B932" s="10" t="s">
+        <v>2253</v>
       </c>
     </row>
     <row r="933" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B933" s="10" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C933" s="10" t="s">
         <v>2256</v>
-      </c>
-      <c r="C933" s="10" t="s">
-        <v>2257</v>
       </c>
     </row>
     <row r="938" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B938" s="10" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="939" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B939" s="10" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C939" s="10" t="s">
         <v>2270</v>
-      </c>
-      <c r="C939" s="10" t="s">
-        <v>2271</v>
       </c>
     </row>
     <row r="940" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B940" s="10" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="941" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B941" s="10" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="942" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B942" s="10" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="943" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B943" s="10" t="s">
         <v>2274</v>
-      </c>
-    </row>
-    <row r="943" spans="2:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="B943" s="34" t="s">
-        <v>2275</v>
       </c>
     </row>
     <row r="944" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B944" s="10" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="945" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B945" s="10" t="s">
         <v>2276</v>
       </c>
     </row>
-    <row r="945" spans="2:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="B945" s="35" t="s">
+    <row r="946" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B946" s="10" t="s">
         <v>2277</v>
-      </c>
-    </row>
-    <row r="946" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B946" s="28" t="s">
-        <v>2278</v>
       </c>
     </row>
     <row r="947" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B947" s="10" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="948" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B948" s="10" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="951" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B951" s="10" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="952" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B952" s="10" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="953" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B953" s="10" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="954" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B954" s="10" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="955" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B955" s="10" t="s">
         <v>2284</v>
-      </c>
-    </row>
-    <row r="955" spans="2:2" ht="25" x14ac:dyDescent="0.25">
-      <c r="B955" s="43" t="s">
-        <v>2285</v>
       </c>
     </row>
     <row r="956" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B956" s="10" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="957" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B957" s="10" t="s">
         <v>2286</v>
-      </c>
-    </row>
-    <row r="957" spans="2:2" ht="25" x14ac:dyDescent="0.25">
-      <c r="B957" s="43" t="s">
-        <v>2287</v>
       </c>
     </row>
     <row r="958" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B958" s="10" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="959" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B959" s="10" t="s">
         <v>2288</v>
-      </c>
-    </row>
-    <row r="959" spans="2:2" ht="25" x14ac:dyDescent="0.25">
-      <c r="B959" s="43" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="960" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B960" s="10" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="961" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B961" s="10" t="s">
         <v>2290</v>
-      </c>
-    </row>
-    <row r="961" spans="2:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="B961" s="43" t="s">
-        <v>2291</v>
       </c>
     </row>
     <row r="962" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B962" s="10" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="963" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B963" s="10" t="s">
         <v>2292</v>
-      </c>
-    </row>
-    <row r="963" spans="2:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="B963" s="43" t="s">
-        <v>2293</v>
       </c>
     </row>
     <row r="964" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B964" s="10" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="965" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B965" s="10" t="s">
         <v>2294</v>
-      </c>
-    </row>
-    <row r="965" spans="2:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="B965" s="43" t="s">
-        <v>2295</v>
       </c>
     </row>
     <row r="966" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B966" s="10" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="967" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B967" s="10" t="s">
         <v>2296</v>
-      </c>
-    </row>
-    <row r="967" spans="2:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="B967" s="43" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="968" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B968" s="10" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="969" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B969" s="10" t="s">
         <v>2298</v>
       </c>
-    </row>
-    <row r="969" spans="2:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="B969" s="43" t="s">
-        <v>2299</v>
-      </c>
       <c r="C969" s="10" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="970" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B970" s="10" t="s">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="971" spans="2:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="B971" s="44" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="971" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B971" s="10" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C971" s="10" t="s">
         <v>2302</v>
       </c>
-      <c r="C971" s="10" t="s">
+    </row>
+    <row r="972" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B972" s="10" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="972" spans="2:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="B972" s="44" t="s">
+      <c r="C972" s="10" t="s">
         <v>2304</v>
-      </c>
-      <c r="C972" s="10" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="973" spans="2:3" x14ac:dyDescent="0.2">
@@ -19226,20 +19205,20 @@
     </row>
     <row r="974" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B974" s="10" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="975" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B975" s="10" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C975" s="10" t="s">
         <v>2307</v>
-      </c>
-      <c r="C975" s="10" t="s">
-        <v>2308</v>
       </c>
     </row>
     <row r="976" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B976" s="10" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="977" spans="2:3" x14ac:dyDescent="0.2">
@@ -19248,6 +19227,45 @@
       </c>
       <c r="C977" s="10" t="s">
         <v>2094</v>
+      </c>
+    </row>
+    <row r="978" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B978" s="10" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C978" s="10" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="979" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B979" s="10" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C979" s="10" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="980" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B980" s="10" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C980" s="10" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="981" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B981" s="10" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="982" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B982" s="10" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="983" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B983" s="10" t="s">
+        <v>2318</v>
       </c>
     </row>
   </sheetData>
@@ -19302,7 +19320,7 @@
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="17"/>
@@ -19312,7 +19330,7 @@
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="17"/>
@@ -19324,7 +19342,7 @@
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B4" s="23"/>
       <c r="D4" s="24"/>
@@ -19337,7 +19355,7 @@
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="17"/>
@@ -19348,7 +19366,7 @@
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B6" s="23"/>
       <c r="D6" s="24"/>
@@ -19360,7 +19378,7 @@
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="17"/>
@@ -19371,7 +19389,7 @@
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B8" s="23"/>
       <c r="D8" s="24"/>
@@ -19383,7 +19401,7 @@
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="17"/>
@@ -19393,7 +19411,7 @@
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="17"/>
@@ -19403,7 +19421,7 @@
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="17"/>
@@ -19413,7 +19431,7 @@
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="17"/>
@@ -19423,7 +19441,7 @@
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="17"/>

--- a/Stability Coding.xlsx
+++ b/Stability Coding.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="2321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="2403">
   <si>
     <t>Mounties</t>
   </si>
@@ -6323,13 +6326,7 @@
     <t>program to report police corruption</t>
   </si>
   <si>
-    <t xml:space="preserve"> Johnston Kavuludi</t>
-  </si>
-  <si>
     <t>Commissioner of the NPSC</t>
-  </si>
-  <si>
-    <t>Joseph K. Boinnet</t>
   </si>
   <si>
     <t>Inspector General National Police Service</t>
@@ -7068,12 +7065,286 @@
   <si>
     <t>Droits des femmes</t>
   </si>
+  <si>
+    <t>David Thomson</t>
+  </si>
+  <si>
+    <t>Galen Weston</t>
+  </si>
+  <si>
+    <t>Garrett Camp</t>
+  </si>
+  <si>
+    <t>James Irving</t>
+  </si>
+  <si>
+    <t>Arthur Irving</t>
+  </si>
+  <si>
+    <t>Jim Pattison</t>
+  </si>
+  <si>
+    <t>Emanuele (Lino) Saputo</t>
+  </si>
+  <si>
+    <t>Bernard (Barry) Sherman</t>
+  </si>
+  <si>
+    <t>Joseph Tsai</t>
+  </si>
+  <si>
+    <t>Prem Watsa</t>
+  </si>
+  <si>
+    <t>Guy Laliberte</t>
+  </si>
+  <si>
+    <t>Frank Stronach</t>
+  </si>
+  <si>
+    <t>Chip Wilson </t>
+  </si>
+  <si>
+    <t>Mark Scheinberg </t>
+  </si>
+  <si>
+    <t>Canadian billionaires</t>
+  </si>
+  <si>
+    <t>counter protest</t>
+  </si>
+  <si>
+    <t>violence électorale</t>
+  </si>
+  <si>
+    <t>voter fraud</t>
+  </si>
+  <si>
+    <t>voter falsification</t>
+  </si>
+  <si>
+    <t>fraude électorale</t>
+  </si>
+  <si>
+    <t>la violence de masse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethnic cleansing </t>
+  </si>
+  <si>
+    <t>attentat suicide</t>
+  </si>
+  <si>
+    <t>kamikaze</t>
+  </si>
+  <si>
+    <t>transparence du gouvernement</t>
+  </si>
+  <si>
+    <t>populiste</t>
+  </si>
+  <si>
+    <t>progressive</t>
+  </si>
+  <si>
+    <t>démagogue</t>
+  </si>
+  <si>
+    <t>inciter à la violence</t>
+  </si>
+  <si>
+    <t>sécurité de l'Etat</t>
+  </si>
+  <si>
+    <t>Déclaration des droits</t>
+  </si>
+  <si>
+    <t>inconstitutionnel</t>
+  </si>
+  <si>
+    <t>interrogation renforcée</t>
+  </si>
+  <si>
+    <t>domaine éminent</t>
+  </si>
+  <si>
+    <t>travail des enfants</t>
+  </si>
+  <si>
+    <t>contre protestation</t>
+  </si>
+  <si>
+    <t>nettoyage ethnique</t>
+  </si>
+  <si>
+    <r>
+      <t>Swaleh Nguru</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>Bhimji Depar Shah &amp; Family</t>
+  </si>
+  <si>
+    <t>Naushad Merali</t>
+  </si>
+  <si>
+    <t>Uhuru Kenyatta &amp; Family</t>
+  </si>
+  <si>
+    <t>Chris Kirubi</t>
+  </si>
+  <si>
+    <t>Atul Shah</t>
+  </si>
+  <si>
+    <t>The Makuha Kago Family[9]</t>
+  </si>
+  <si>
+    <t>Peter Kahara Munga</t>
+  </si>
+  <si>
+    <t>James Mwangi &amp; Family</t>
+  </si>
+  <si>
+    <t>Raila Odinga &amp; Family</t>
+  </si>
+  <si>
+    <t>Manu Chandaria</t>
+  </si>
+  <si>
+    <t>Pradeep Paunrana</t>
+  </si>
+  <si>
+    <t>Baloobhai Patel</t>
+  </si>
+  <si>
+    <r>
+      <t>Jane Wanjiru Michuki</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[16]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhimji Depar Shah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uhuru Kenyatta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Mwangi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raila Odinga </t>
+  </si>
+  <si>
+    <t>Jane Wanjiru Michuki</t>
+  </si>
+  <si>
+    <t>The Makuha Kago Family</t>
+  </si>
+  <si>
+    <t>Swaleh Nguru</t>
+  </si>
+  <si>
+    <t>another name for the female circumcision</t>
+  </si>
+  <si>
+    <t>Officially some of the richest Kenyans</t>
+  </si>
+  <si>
+    <t>post election violence</t>
+  </si>
+  <si>
+    <t>PEV</t>
+  </si>
+  <si>
+    <t>common name for the election violence in 2007</t>
+  </si>
+  <si>
+    <t>General Service Unit</t>
+  </si>
+  <si>
+    <t>GSU</t>
+  </si>
+  <si>
+    <t>National Police Service of Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paramilitary </t>
+  </si>
+  <si>
+    <t>paramilitary group wing of the national police</t>
+  </si>
+  <si>
+    <t>Joseph Boinett</t>
+  </si>
+  <si>
+    <t>Johnston Kavuludi</t>
+  </si>
+  <si>
+    <t>banking crisis</t>
+  </si>
+  <si>
+    <t>Fatou Bensouda</t>
+  </si>
+  <si>
+    <t>ICC prosecutor</t>
+  </si>
+  <si>
+    <t>Confédération des syndicats nationaux</t>
+  </si>
+  <si>
+    <t>Confederation of National Trade Unions</t>
+  </si>
+  <si>
+    <t>2nd largest trade union in Quebec</t>
+  </si>
+  <si>
+    <t>CSN</t>
+  </si>
+  <si>
+    <t>Centrale des syndicats du Québec</t>
+  </si>
+  <si>
+    <t>Quebec House of Labour</t>
+  </si>
+  <si>
+    <t>CSQ</t>
+  </si>
+  <si>
+    <t>Fédération des travailleurs et travailleuses du Québec</t>
+  </si>
+  <si>
+    <t>Quebec Federation of Labour</t>
+  </si>
+  <si>
+    <t>FTQ</t>
+  </si>
+  <si>
+    <t>trade union</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7233,6 +7504,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7260,7 +7552,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -7292,13 +7584,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -7596,10 +7893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F736"/>
+  <dimension ref="A1:F758"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A717" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92:C174"/>
+    <sheetView tabSelected="1" topLeftCell="A736" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="A757" sqref="A757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7607,7 +7904,7 @@
     <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="35" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8151,7 +8448,7 @@
       <c r="B44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="36" t="s">
         <v>806</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -8165,7 +8462,7 @@
       <c r="B45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="30"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="1" t="s">
         <v>52</v>
       </c>
@@ -8174,7 +8471,7 @@
       <c r="B46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="30"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="1" t="s">
         <v>55</v>
       </c>
@@ -8186,7 +8483,7 @@
       <c r="B47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="37" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -8200,7 +8497,7 @@
       <c r="B48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="33"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="1" t="s">
         <v>65</v>
       </c>
@@ -8212,7 +8509,7 @@
       <c r="B49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="1" t="s">
         <v>1012</v>
       </c>
@@ -8224,7 +8521,7 @@
       <c r="B50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="33"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="1" t="s">
         <v>1013</v>
       </c>
@@ -8236,7 +8533,7 @@
       <c r="B51" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="33"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="1" t="s">
         <v>1015</v>
       </c>
@@ -8248,7 +8545,7 @@
       <c r="B52" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="33"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="1" t="s">
         <v>66</v>
       </c>
@@ -8260,7 +8557,7 @@
       <c r="B53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="33"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="1" t="s">
         <v>1018</v>
       </c>
@@ -8272,7 +8569,7 @@
       <c r="B54" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="33"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="1" t="s">
         <v>67</v>
       </c>
@@ -8284,7 +8581,7 @@
       <c r="B55" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="33"/>
+      <c r="C55" s="38"/>
       <c r="D55" s="1" t="s">
         <v>68</v>
       </c>
@@ -8296,7 +8593,7 @@
       <c r="B56" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="33"/>
+      <c r="C56" s="38"/>
       <c r="D56" s="1" t="s">
         <v>69</v>
       </c>
@@ -8308,7 +8605,7 @@
       <c r="B57" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="38"/>
       <c r="D57" s="1" t="s">
         <v>1021</v>
       </c>
@@ -8320,7 +8617,7 @@
       <c r="B58" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="33"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="1" t="s">
         <v>73</v>
       </c>
@@ -8332,7 +8629,7 @@
       <c r="B59" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="33"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="1" t="s">
         <v>74</v>
       </c>
@@ -8344,7 +8641,7 @@
       <c r="B60" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="33"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="1" t="s">
         <v>76</v>
       </c>
@@ -8356,7 +8653,7 @@
       <c r="B61" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="33"/>
+      <c r="C61" s="38"/>
       <c r="D61" s="1" t="s">
         <v>77</v>
       </c>
@@ -8368,7 +8665,7 @@
       <c r="B62" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="33"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="1" t="s">
         <v>78</v>
       </c>
@@ -8380,7 +8677,7 @@
       <c r="B63" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="33"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="1" t="s">
         <v>81</v>
       </c>
@@ -8392,7 +8689,7 @@
       <c r="B64" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="33"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="1" t="s">
         <v>82</v>
       </c>
@@ -8404,7 +8701,7 @@
       <c r="B65" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="33"/>
+      <c r="C65" s="38"/>
       <c r="D65" s="1" t="s">
         <v>1031</v>
       </c>
@@ -8416,7 +8713,7 @@
       <c r="B66" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="33"/>
+      <c r="C66" s="38"/>
       <c r="D66" s="1" t="s">
         <v>83</v>
       </c>
@@ -8428,7 +8725,7 @@
       <c r="B67" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="33"/>
+      <c r="C67" s="38"/>
       <c r="D67" s="1" t="s">
         <v>84</v>
       </c>
@@ -8440,7 +8737,7 @@
       <c r="B68" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="33"/>
+      <c r="C68" s="38"/>
       <c r="D68" s="1" t="s">
         <v>85</v>
       </c>
@@ -8488,7 +8785,7 @@
       <c r="B72" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="37" t="s">
         <v>133</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -8502,7 +8799,7 @@
       <c r="B73" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="33"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="1" t="s">
         <v>226</v>
       </c>
@@ -8514,7 +8811,7 @@
       <c r="B74" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="33"/>
+      <c r="C74" s="38"/>
       <c r="D74" s="1" t="s">
         <v>532</v>
       </c>
@@ -8526,7 +8823,7 @@
       <c r="B75" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="33"/>
+      <c r="C75" s="38"/>
       <c r="D75" s="1" t="s">
         <v>533</v>
       </c>
@@ -8538,7 +8835,7 @@
       <c r="B76" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="33"/>
+      <c r="C76" s="38"/>
       <c r="D76" s="1" t="s">
         <v>1042</v>
       </c>
@@ -8547,7 +8844,7 @@
       <c r="B77" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C77" s="33"/>
+      <c r="C77" s="38"/>
       <c r="D77" s="1" t="s">
         <v>534</v>
       </c>
@@ -8559,7 +8856,7 @@
       <c r="B78" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C78" s="33"/>
+      <c r="C78" s="38"/>
       <c r="D78" s="1" t="s">
         <v>1044</v>
       </c>
@@ -8571,7 +8868,7 @@
       <c r="B79" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C79" s="33"/>
+      <c r="C79" s="38"/>
       <c r="D79" s="1" t="s">
         <v>601</v>
       </c>
@@ -8583,7 +8880,7 @@
       <c r="B80" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C80" s="33"/>
+      <c r="C80" s="38"/>
       <c r="D80" s="1" t="s">
         <v>602</v>
       </c>
@@ -8595,7 +8892,7 @@
       <c r="B81" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="33"/>
+      <c r="C81" s="38"/>
       <c r="D81" s="1" t="s">
         <v>603</v>
       </c>
@@ -8607,7 +8904,7 @@
       <c r="B82" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C82" s="33"/>
+      <c r="C82" s="38"/>
       <c r="D82" s="1" t="s">
         <v>604</v>
       </c>
@@ -8619,7 +8916,7 @@
       <c r="B83" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="33"/>
+      <c r="C83" s="38"/>
       <c r="D83" s="1" t="s">
         <v>605</v>
       </c>
@@ -8631,7 +8928,7 @@
       <c r="B84" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="33"/>
+      <c r="C84" s="38"/>
       <c r="D84" s="1" t="s">
         <v>1051</v>
       </c>
@@ -8720,7 +9017,7 @@
       <c r="B92" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="C92" s="37" t="s">
         <v>224</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -8734,7 +9031,7 @@
       <c r="B93" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C93" s="33"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="1" t="s">
         <v>708</v>
       </c>
@@ -8746,7 +9043,7 @@
       <c r="B94" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C94" s="33"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="1" t="s">
         <v>714</v>
       </c>
@@ -8758,7 +9055,7 @@
       <c r="B95" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C95" s="33"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="1" t="s">
         <v>741</v>
       </c>
@@ -8770,7 +9067,7 @@
       <c r="B96" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C96" s="33"/>
+      <c r="C96" s="38"/>
       <c r="D96" s="1" t="s">
         <v>756</v>
       </c>
@@ -8782,7 +9079,7 @@
       <c r="B97" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="33"/>
+      <c r="C97" s="38"/>
       <c r="D97" s="1" t="s">
         <v>757</v>
       </c>
@@ -8794,7 +9091,7 @@
       <c r="B98" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C98" s="33"/>
+      <c r="C98" s="38"/>
       <c r="D98" s="1" t="s">
         <v>773</v>
       </c>
@@ -8806,7 +9103,7 @@
       <c r="B99" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C99" s="33"/>
+      <c r="C99" s="38"/>
       <c r="D99" s="1" t="s">
         <v>774</v>
       </c>
@@ -8818,7 +9115,7 @@
       <c r="B100" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C100" s="33"/>
+      <c r="C100" s="38"/>
       <c r="D100" s="1" t="s">
         <v>967</v>
       </c>
@@ -8830,7 +9127,7 @@
       <c r="B101" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C101" s="33"/>
+      <c r="C101" s="38"/>
       <c r="D101" s="1" t="s">
         <v>1040</v>
       </c>
@@ -8842,7 +9139,7 @@
       <c r="B102" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C102" s="33"/>
+      <c r="C102" s="38"/>
       <c r="D102" s="1" t="s">
         <v>1046</v>
       </c>
@@ -8851,7 +9148,7 @@
       <c r="B103" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C103" s="33"/>
+      <c r="C103" s="38"/>
       <c r="D103" s="1" t="s">
         <v>1065</v>
       </c>
@@ -8863,7 +9160,7 @@
       <c r="B104" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C104" s="33"/>
+      <c r="C104" s="38"/>
       <c r="D104" s="1" t="s">
         <v>1073</v>
       </c>
@@ -8875,7 +9172,7 @@
       <c r="B105" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C105" s="33"/>
+      <c r="C105" s="38"/>
       <c r="D105" s="1" t="s">
         <v>1075</v>
       </c>
@@ -8884,7 +9181,7 @@
       <c r="B106" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C106" s="33"/>
+      <c r="C106" s="38"/>
       <c r="D106" s="1" t="s">
         <v>1076</v>
       </c>
@@ -8896,7 +9193,7 @@
       <c r="B107" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C107" s="33"/>
+      <c r="C107" s="38"/>
       <c r="D107" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8908,88 +9205,112 @@
       <c r="B108" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="33"/>
+      <c r="C108" s="38"/>
       <c r="D108" s="1" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5" ht="30" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C109" s="33"/>
+      <c r="C109" s="38"/>
       <c r="D109" s="1" t="s">
         <v>1120</v>
+      </c>
+      <c r="E109" s="29" t="s">
+        <v>2335</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C110" s="33"/>
+      <c r="C110" s="38"/>
       <c r="D110" s="1" t="s">
         <v>1121</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>2337</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C111" s="33"/>
+      <c r="C111" s="38"/>
       <c r="D111" s="1" t="s">
         <v>1122</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>2338</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C112" s="33"/>
+      <c r="C112" s="38"/>
       <c r="D112" s="1" t="s">
         <v>1151</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>2339</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C113" s="33"/>
+      <c r="C113" s="38"/>
       <c r="D113" s="1" t="s">
         <v>1757</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>2341</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C114" s="33"/>
+      <c r="C114" s="38"/>
       <c r="D114" s="1" t="s">
         <v>1758</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>2342</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C115" s="33"/>
+      <c r="C115" s="38"/>
       <c r="D115" s="1" t="s">
         <v>1759</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>2343</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C116" s="33"/>
+      <c r="C116" s="38"/>
       <c r="D116" s="1" t="s">
         <v>1760</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>2344</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C117" s="33"/>
+      <c r="C117" s="38"/>
       <c r="D117" s="1" t="s">
         <v>1761</v>
       </c>
@@ -8998,376 +9319,424 @@
       <c r="B118" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C118" s="33"/>
+      <c r="C118" s="38"/>
       <c r="D118" s="1" t="s">
         <v>1762</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>2346</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C119" s="33"/>
+      <c r="C119" s="38"/>
       <c r="D119" s="1" t="s">
         <v>1763</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>2347</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C120" s="33"/>
+      <c r="C120" s="38"/>
       <c r="D120" s="1" t="s">
         <v>1783</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>2348</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C121" s="33"/>
+      <c r="C121" s="38"/>
       <c r="D121" s="1" t="s">
-        <v>2095</v>
+        <v>2093</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>2349</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C122" s="33"/>
+      <c r="C122" s="38"/>
       <c r="D122" s="1" t="s">
-        <v>2096</v>
+        <v>2094</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>2350</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C123" s="33"/>
+      <c r="C123" s="38"/>
       <c r="D123" s="1" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C124" s="33"/>
+      <c r="C124" s="38"/>
       <c r="D124" s="1" t="s">
-        <v>2108</v>
+        <v>2106</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>2351</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C125" s="33"/>
+      <c r="C125" s="38"/>
       <c r="D125" s="1" t="s">
-        <v>2206</v>
+        <v>2204</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>2352</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C126" s="33"/>
+      <c r="C126" s="38"/>
       <c r="D126" s="1" t="s">
-        <v>2216</v>
+        <v>2214</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>2353</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="33"/>
+      <c r="C127" s="38"/>
       <c r="D127" s="1" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C128" s="33"/>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="38"/>
+      <c r="D128" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C129" s="33"/>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="38"/>
+      <c r="D129" s="1" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C130" s="33"/>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="38"/>
+      <c r="D130" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C131" s="33"/>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C131" s="38"/>
+      <c r="D131" s="1" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C132" s="33"/>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C132" s="38"/>
+      <c r="D132" s="1" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C133" s="33"/>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="38"/>
+      <c r="D133" s="1" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C134" s="33"/>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C134" s="38"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C135" s="33"/>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="38"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C136" s="33"/>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="38"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C137" s="33"/>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="38"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C138" s="33"/>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C138" s="38"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C139" s="33"/>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C139" s="38"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C140" s="33"/>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="38"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C141" s="33"/>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C141" s="38"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C142" s="33"/>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="38"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C143" s="33"/>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C143" s="38"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C144" s="33"/>
+      <c r="C144" s="38"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C145" s="33"/>
+      <c r="C145" s="38"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C146" s="33"/>
+      <c r="C146" s="38"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C147" s="33"/>
+      <c r="C147" s="38"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C148" s="33"/>
+      <c r="C148" s="38"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C149" s="33"/>
+      <c r="C149" s="38"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C150" s="33"/>
+      <c r="C150" s="38"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C151" s="33"/>
+      <c r="C151" s="38"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C152" s="33"/>
+      <c r="C152" s="38"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C153" s="33"/>
+      <c r="C153" s="38"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C154" s="33"/>
+      <c r="C154" s="38"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C155" s="33"/>
+      <c r="C155" s="38"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C156" s="33"/>
+      <c r="C156" s="38"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C157" s="33"/>
+      <c r="C157" s="38"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C158" s="33"/>
+      <c r="C158" s="38"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C159" s="33"/>
+      <c r="C159" s="38"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C160" s="33"/>
+      <c r="C160" s="38"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C161" s="33"/>
+      <c r="C161" s="38"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C162" s="33"/>
+      <c r="C162" s="38"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C163" s="33"/>
+      <c r="C163" s="38"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C164" s="33"/>
+      <c r="C164" s="38"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C165" s="33"/>
+      <c r="C165" s="38"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C166" s="33"/>
+      <c r="C166" s="38"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C167" s="33"/>
+      <c r="C167" s="38"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C168" s="33"/>
+      <c r="C168" s="38"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C169" s="33"/>
+      <c r="C169" s="38"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C170" s="33"/>
+      <c r="C170" s="38"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C171" s="33"/>
+      <c r="C171" s="38"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C172" s="33"/>
+      <c r="C172" s="38"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C173" s="33"/>
+      <c r="C173" s="38"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C174" s="33"/>
+      <c r="C174" s="38"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175" s="4" t="s">
@@ -9378,7 +9747,7 @@
       <c r="B176" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C176" s="32" t="s">
+      <c r="C176" s="37" t="s">
         <v>531</v>
       </c>
     </row>
@@ -9386,1843 +9755,1843 @@
       <c r="B177" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C177" s="33"/>
+      <c r="C177" s="38"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C178" s="33"/>
+      <c r="C178" s="38"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C179" s="33"/>
+      <c r="C179" s="38"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C180" s="33"/>
+      <c r="C180" s="38"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C181" s="33"/>
+      <c r="C181" s="38"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C182" s="33"/>
+      <c r="C182" s="38"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C183" s="33"/>
+      <c r="C183" s="38"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C184" s="33"/>
+      <c r="C184" s="38"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C185" s="33"/>
+      <c r="C185" s="38"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C186" s="33"/>
+      <c r="C186" s="38"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C187" s="33"/>
+      <c r="C187" s="38"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C188" s="33"/>
+      <c r="C188" s="38"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C189" s="33"/>
+      <c r="C189" s="38"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C190" s="33"/>
+      <c r="C190" s="38"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C191" s="33"/>
+      <c r="C191" s="38"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C192" s="33"/>
+      <c r="C192" s="38"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C193" s="33"/>
+      <c r="C193" s="38"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C194" s="33"/>
+      <c r="C194" s="38"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C195" s="33"/>
+      <c r="C195" s="38"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C196" s="33"/>
+      <c r="C196" s="38"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C197" s="33"/>
+      <c r="C197" s="38"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C198" s="33"/>
+      <c r="C198" s="38"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C199" s="33"/>
+      <c r="C199" s="38"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C200" s="33"/>
+      <c r="C200" s="38"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C201" s="33"/>
+      <c r="C201" s="38"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C202" s="33"/>
+      <c r="C202" s="38"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C203" s="33"/>
+      <c r="C203" s="38"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C204" s="33"/>
+      <c r="C204" s="38"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C205" s="33"/>
+      <c r="C205" s="38"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C206" s="33"/>
+      <c r="C206" s="38"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C207" s="33"/>
+      <c r="C207" s="38"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C208" s="33"/>
+      <c r="C208" s="38"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C209" s="33"/>
+      <c r="C209" s="38"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C210" s="33"/>
+      <c r="C210" s="38"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C211" s="33"/>
+      <c r="C211" s="38"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C212" s="33"/>
+      <c r="C212" s="38"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C213" s="33"/>
+      <c r="C213" s="38"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C214" s="33"/>
+      <c r="C214" s="38"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C215" s="33"/>
+      <c r="C215" s="38"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C216" s="33"/>
+      <c r="C216" s="38"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C217" s="33"/>
+      <c r="C217" s="38"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C218" s="33"/>
+      <c r="C218" s="38"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B219" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C219" s="33"/>
+      <c r="C219" s="38"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C220" s="33"/>
+      <c r="C220" s="38"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B221" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C221" s="33"/>
+      <c r="C221" s="38"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C222" s="33"/>
+      <c r="C222" s="38"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C223" s="33"/>
+      <c r="C223" s="38"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B224" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C224" s="33"/>
+      <c r="C224" s="38"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C225" s="33"/>
+      <c r="C225" s="38"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C226" s="33"/>
+      <c r="C226" s="38"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C227" s="33"/>
+      <c r="C227" s="38"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C228" s="33"/>
+      <c r="C228" s="38"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C229" s="33"/>
+      <c r="C229" s="38"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C230" s="33"/>
+      <c r="C230" s="38"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C231" s="33"/>
+      <c r="C231" s="38"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C232" s="33"/>
+      <c r="C232" s="38"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C233" s="33"/>
+      <c r="C233" s="38"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C234" s="33"/>
+      <c r="C234" s="38"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C235" s="33"/>
+      <c r="C235" s="38"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C236" s="33"/>
+      <c r="C236" s="38"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C237" s="33"/>
+      <c r="C237" s="38"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C238" s="33"/>
+      <c r="C238" s="38"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C239" s="33"/>
+      <c r="C239" s="38"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C240" s="33"/>
+      <c r="C240" s="38"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B241" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C241" s="33"/>
+      <c r="C241" s="38"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C242" s="33"/>
+      <c r="C242" s="38"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C243" s="33"/>
+      <c r="C243" s="38"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C244" s="33"/>
+      <c r="C244" s="38"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B245" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C245" s="33"/>
+      <c r="C245" s="38"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C246" s="33"/>
+      <c r="C246" s="38"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C247" s="33"/>
+      <c r="C247" s="38"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C248" s="33"/>
+      <c r="C248" s="38"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C249" s="33"/>
+      <c r="C249" s="38"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B250" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C250" s="33"/>
+      <c r="C250" s="38"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C251" s="33"/>
+      <c r="C251" s="38"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C252" s="33"/>
+      <c r="C252" s="38"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C253" s="33"/>
+      <c r="C253" s="38"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C254" s="33"/>
+      <c r="C254" s="38"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C255" s="33"/>
+      <c r="C255" s="38"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C256" s="33"/>
+      <c r="C256" s="38"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C257" s="33"/>
+      <c r="C257" s="38"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C258" s="33"/>
+      <c r="C258" s="38"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C259" s="33"/>
+      <c r="C259" s="38"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C260" s="33"/>
+      <c r="C260" s="38"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C261" s="33"/>
+      <c r="C261" s="38"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C262" s="33"/>
+      <c r="C262" s="38"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C263" s="33"/>
+      <c r="C263" s="38"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C264" s="33"/>
+      <c r="C264" s="38"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C265" s="33"/>
+      <c r="C265" s="38"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C266" s="33"/>
+      <c r="C266" s="38"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C267" s="33"/>
+      <c r="C267" s="38"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C268" s="33"/>
+      <c r="C268" s="38"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C269" s="33"/>
+      <c r="C269" s="38"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C270" s="33"/>
+      <c r="C270" s="38"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C271" s="33"/>
+      <c r="C271" s="38"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C272" s="33"/>
+      <c r="C272" s="38"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C273" s="33"/>
+      <c r="C273" s="38"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C274" s="33"/>
+      <c r="C274" s="38"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C275" s="33"/>
+      <c r="C275" s="38"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C276" s="33"/>
+      <c r="C276" s="38"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C277" s="33"/>
+      <c r="C277" s="38"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C278" s="33"/>
+      <c r="C278" s="38"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B279" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C279" s="33"/>
+      <c r="C279" s="38"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C280" s="33"/>
+      <c r="C280" s="38"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C281" s="33"/>
+      <c r="C281" s="38"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C282" s="33"/>
+      <c r="C282" s="38"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C283" s="33"/>
+      <c r="C283" s="38"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C284" s="33"/>
+      <c r="C284" s="38"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C285" s="33"/>
+      <c r="C285" s="38"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C286" s="33"/>
+      <c r="C286" s="38"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C287" s="33"/>
+      <c r="C287" s="38"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C288" s="33"/>
+      <c r="C288" s="38"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B289" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C289" s="33"/>
+      <c r="C289" s="38"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B290" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C290" s="33"/>
+      <c r="C290" s="38"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B291" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C291" s="33"/>
+      <c r="C291" s="38"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B292" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C292" s="33"/>
+      <c r="C292" s="38"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B293" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C293" s="33"/>
+      <c r="C293" s="38"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B294" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C294" s="33"/>
+      <c r="C294" s="38"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B295" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C295" s="33"/>
+      <c r="C295" s="38"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B296" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C296" s="33"/>
+      <c r="C296" s="38"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B297" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C297" s="33"/>
+      <c r="C297" s="38"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B298" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C298" s="33"/>
+      <c r="C298" s="38"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B299" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C299" s="33"/>
+      <c r="C299" s="38"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B300" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C300" s="33"/>
+      <c r="C300" s="38"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C301" s="33"/>
+      <c r="C301" s="38"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B302" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C302" s="33"/>
+      <c r="C302" s="38"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B303" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C303" s="33"/>
+      <c r="C303" s="38"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B304" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C304" s="33"/>
+      <c r="C304" s="38"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B305" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C305" s="33"/>
+      <c r="C305" s="38"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B306" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C306" s="33"/>
+      <c r="C306" s="38"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B307" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C307" s="33"/>
+      <c r="C307" s="38"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C308" s="33"/>
+      <c r="C308" s="38"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B309" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C309" s="33"/>
+      <c r="C309" s="38"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C310" s="33"/>
+      <c r="C310" s="38"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B311" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C311" s="33"/>
+      <c r="C311" s="38"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B312" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C312" s="33"/>
+      <c r="C312" s="38"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B313" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C313" s="33"/>
+      <c r="C313" s="38"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B314" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C314" s="33"/>
+      <c r="C314" s="38"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B315" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C315" s="33"/>
+      <c r="C315" s="38"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B316" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C316" s="33"/>
+      <c r="C316" s="38"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B317" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C317" s="33"/>
+      <c r="C317" s="38"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B318" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C318" s="33"/>
+      <c r="C318" s="38"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B319" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C319" s="33"/>
+      <c r="C319" s="38"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B320" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C320" s="33"/>
+      <c r="C320" s="38"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B321" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C321" s="33"/>
+      <c r="C321" s="38"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B322" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C322" s="33"/>
+      <c r="C322" s="38"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B323" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C323" s="33"/>
+      <c r="C323" s="38"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B324" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C324" s="33"/>
+      <c r="C324" s="38"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B325" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C325" s="33"/>
+      <c r="C325" s="38"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B326" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C326" s="33"/>
+      <c r="C326" s="38"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B327" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C327" s="33"/>
+      <c r="C327" s="38"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B328" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C328" s="33"/>
+      <c r="C328" s="38"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B329" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C329" s="33"/>
+      <c r="C329" s="38"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B330" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C330" s="33"/>
+      <c r="C330" s="38"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B331" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C331" s="33"/>
+      <c r="C331" s="38"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B332" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C332" s="33"/>
+      <c r="C332" s="38"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B333" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C333" s="33"/>
+      <c r="C333" s="38"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B334" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C334" s="33"/>
+      <c r="C334" s="38"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B335" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C335" s="33"/>
+      <c r="C335" s="38"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C336" s="33"/>
+      <c r="C336" s="38"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B337" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C337" s="33"/>
+      <c r="C337" s="38"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B338" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C338" s="33"/>
+      <c r="C338" s="38"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B339" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C339" s="33"/>
+      <c r="C339" s="38"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B340" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C340" s="33"/>
+      <c r="C340" s="38"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B341" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C341" s="33"/>
+      <c r="C341" s="38"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B342" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C342" s="33"/>
+      <c r="C342" s="38"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B343" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C343" s="33"/>
+      <c r="C343" s="38"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B344" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C344" s="33"/>
+      <c r="C344" s="38"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B345" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C345" s="33"/>
+      <c r="C345" s="38"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B346" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C346" s="33"/>
+      <c r="C346" s="38"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B347" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C347" s="33"/>
+      <c r="C347" s="38"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B348" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C348" s="33"/>
+      <c r="C348" s="38"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B349" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C349" s="33"/>
+      <c r="C349" s="38"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B350" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C350" s="33"/>
+      <c r="C350" s="38"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B351" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C351" s="33"/>
+      <c r="C351" s="38"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B352" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C352" s="33"/>
+      <c r="C352" s="38"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B353" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C353" s="33"/>
+      <c r="C353" s="38"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B354" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C354" s="33"/>
+      <c r="C354" s="38"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B355" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C355" s="33"/>
+      <c r="C355" s="38"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B356" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C356" s="33"/>
+      <c r="C356" s="38"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B357" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C357" s="33"/>
+      <c r="C357" s="38"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B358" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C358" s="33"/>
+      <c r="C358" s="38"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B359" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C359" s="33"/>
+      <c r="C359" s="38"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B360" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C360" s="33"/>
+      <c r="C360" s="38"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B361" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C361" s="33"/>
+      <c r="C361" s="38"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B362" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C362" s="33"/>
+      <c r="C362" s="38"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B363" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C363" s="33"/>
+      <c r="C363" s="38"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B364" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C364" s="33"/>
+      <c r="C364" s="38"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B365" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C365" s="33"/>
+      <c r="C365" s="38"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B366" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C366" s="33"/>
+      <c r="C366" s="38"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B367" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C367" s="33"/>
+      <c r="C367" s="38"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B368" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C368" s="33"/>
+      <c r="C368" s="38"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B369" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C369" s="33"/>
+      <c r="C369" s="38"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B370" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C370" s="33"/>
+      <c r="C370" s="38"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B371" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C371" s="33"/>
+      <c r="C371" s="38"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B372" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C372" s="33"/>
+      <c r="C372" s="38"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B373" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C373" s="33"/>
+      <c r="C373" s="38"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B374" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C374" s="33"/>
+      <c r="C374" s="38"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B375" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C375" s="33"/>
+      <c r="C375" s="38"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B376" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C376" s="33"/>
+      <c r="C376" s="38"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B377" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C377" s="33"/>
+      <c r="C377" s="38"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B378" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C378" s="33"/>
+      <c r="C378" s="38"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B379" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C379" s="33"/>
+      <c r="C379" s="38"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B380" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C380" s="33"/>
+      <c r="C380" s="38"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B381" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C381" s="33"/>
+      <c r="C381" s="38"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B382" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C382" s="33"/>
+      <c r="C382" s="38"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B383" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C383" s="33"/>
+      <c r="C383" s="38"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B384" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C384" s="33"/>
+      <c r="C384" s="38"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B385" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C385" s="33"/>
+      <c r="C385" s="38"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B386" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C386" s="33"/>
+      <c r="C386" s="38"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B387" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C387" s="33"/>
+      <c r="C387" s="38"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B388" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C388" s="33"/>
+      <c r="C388" s="38"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B389" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C389" s="33"/>
+      <c r="C389" s="38"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B390" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C390" s="33"/>
+      <c r="C390" s="38"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B391" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C391" s="33"/>
+      <c r="C391" s="38"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B392" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C392" s="33"/>
+      <c r="C392" s="38"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B393" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C393" s="33"/>
+      <c r="C393" s="38"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B394" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C394" s="33"/>
+      <c r="C394" s="38"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B395" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C395" s="33"/>
+      <c r="C395" s="38"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B396" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C396" s="33"/>
+      <c r="C396" s="38"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B397" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C397" s="33"/>
+      <c r="C397" s="38"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B398" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C398" s="33"/>
+      <c r="C398" s="38"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B399" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C399" s="33"/>
+      <c r="C399" s="38"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B400" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C400" s="33"/>
+      <c r="C400" s="38"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B401" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C401" s="33"/>
+      <c r="C401" s="38"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B402" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C402" s="33"/>
+      <c r="C402" s="38"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B403" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C403" s="33"/>
+      <c r="C403" s="38"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B404" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C404" s="33"/>
+      <c r="C404" s="38"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B405" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C405" s="33"/>
+      <c r="C405" s="38"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B406" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C406" s="33"/>
+      <c r="C406" s="38"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B407" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C407" s="33"/>
+      <c r="C407" s="38"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B408" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C408" s="33"/>
+      <c r="C408" s="38"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B409" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C409" s="33"/>
+      <c r="C409" s="38"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B410" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C410" s="33"/>
+      <c r="C410" s="38"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B411" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C411" s="33"/>
+      <c r="C411" s="38"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B412" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C412" s="33"/>
+      <c r="C412" s="38"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B413" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C413" s="33"/>
+      <c r="C413" s="38"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B414" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C414" s="33"/>
+      <c r="C414" s="38"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B415" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C415" s="33"/>
+      <c r="C415" s="38"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B416" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C416" s="33"/>
+      <c r="C416" s="38"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B417" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C417" s="33"/>
+      <c r="C417" s="38"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B418" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C418" s="33"/>
+      <c r="C418" s="38"/>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B419" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C419" s="33"/>
+      <c r="C419" s="38"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B420" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C420" s="33"/>
+      <c r="C420" s="38"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B421" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C421" s="33"/>
+      <c r="C421" s="38"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B422" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C422" s="33"/>
+      <c r="C422" s="38"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B423" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C423" s="33"/>
+      <c r="C423" s="38"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B424" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C424" s="33"/>
+      <c r="C424" s="38"/>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B425" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C425" s="33"/>
+      <c r="C425" s="38"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B426" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C426" s="33"/>
+      <c r="C426" s="38"/>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B427" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C427" s="33"/>
+      <c r="C427" s="38"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B428" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C428" s="33"/>
+      <c r="C428" s="38"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B429" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C429" s="33"/>
+      <c r="C429" s="38"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B430" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C430" s="33"/>
+      <c r="C430" s="38"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B431" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C431" s="33"/>
+      <c r="C431" s="38"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B432" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C432" s="33"/>
+      <c r="C432" s="38"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B433" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C433" s="33"/>
+      <c r="C433" s="38"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B434" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C434" s="33"/>
+      <c r="C434" s="38"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B435" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C435" s="33"/>
+      <c r="C435" s="38"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B436" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C436" s="33"/>
+      <c r="C436" s="38"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B437" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C437" s="33"/>
+      <c r="C437" s="38"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B438" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C438" s="33"/>
+      <c r="C438" s="38"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B439" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C439" s="33"/>
+      <c r="C439" s="38"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B440" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C440" s="33"/>
+      <c r="C440" s="38"/>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B441" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C441" s="33"/>
+      <c r="C441" s="38"/>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B442" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C442" s="33"/>
+      <c r="C442" s="38"/>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B443" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C443" s="33"/>
+      <c r="C443" s="38"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B444" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C444" s="33"/>
+      <c r="C444" s="38"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B445" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C445" s="33"/>
+      <c r="C445" s="38"/>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B446" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C446" s="33"/>
+      <c r="C446" s="38"/>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B447" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C447" s="33"/>
+      <c r="C447" s="38"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B448" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C448" s="33"/>
+      <c r="C448" s="38"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B449" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C449" s="33"/>
+      <c r="C449" s="38"/>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B450" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C450" s="33"/>
+      <c r="C450" s="38"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B451" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C451" s="33"/>
+      <c r="C451" s="38"/>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B452" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C452" s="33"/>
+      <c r="C452" s="38"/>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B453" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C453" s="33"/>
+      <c r="C453" s="38"/>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B454" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C454" s="33"/>
+      <c r="C454" s="38"/>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B455" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C455" s="33"/>
+      <c r="C455" s="38"/>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B456" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C456" s="33"/>
+      <c r="C456" s="38"/>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B457" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C457" s="33"/>
+      <c r="C457" s="38"/>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B458" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C458" s="33"/>
+      <c r="C458" s="38"/>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B459" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C459" s="33"/>
+      <c r="C459" s="38"/>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B460" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C460" s="33"/>
+      <c r="C460" s="38"/>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B461" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C461" s="33"/>
+      <c r="C461" s="38"/>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B462" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C462" s="33"/>
+      <c r="C462" s="38"/>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B463" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C463" s="33"/>
+      <c r="C463" s="38"/>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B464" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C464" s="33"/>
+      <c r="C464" s="38"/>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B465" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C465" s="33"/>
+      <c r="C465" s="38"/>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B466" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C466" s="33"/>
+      <c r="C466" s="38"/>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B467" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C467" s="33"/>
+      <c r="C467" s="38"/>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B468" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C468" s="33"/>
+      <c r="C468" s="38"/>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B469" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C469" s="33"/>
+      <c r="C469" s="38"/>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B470" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C470" s="33"/>
+      <c r="C470" s="38"/>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B471" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C471" s="33"/>
+      <c r="C471" s="38"/>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B472" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C472" s="33"/>
+      <c r="C472" s="38"/>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B473" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C473" s="33"/>
+      <c r="C473" s="38"/>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B474" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C474" s="33"/>
+      <c r="C474" s="38"/>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B475" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C475" s="33"/>
+      <c r="C475" s="38"/>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B476" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C476" s="33"/>
+      <c r="C476" s="38"/>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B477" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C477" s="33"/>
+      <c r="C477" s="38"/>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B478" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C478" s="33"/>
+      <c r="C478" s="38"/>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B479" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C479" s="33"/>
+      <c r="C479" s="38"/>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B480" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C480" s="33"/>
+      <c r="C480" s="38"/>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B481" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C481" s="33"/>
+      <c r="C481" s="38"/>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B482" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C482" s="33"/>
+      <c r="C482" s="38"/>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B483" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C483" s="33"/>
+      <c r="C483" s="38"/>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B484" s="4" t="s">
@@ -11586,7 +11955,7 @@
       <c r="B528" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C528" s="31" t="s">
+      <c r="C528" s="34" t="s">
         <v>621</v>
       </c>
     </row>
@@ -11594,49 +11963,49 @@
       <c r="B529" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="C529" s="30"/>
+      <c r="C529" s="35"/>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B530" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C530" s="30"/>
+      <c r="C530" s="35"/>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B531" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C531" s="30"/>
+      <c r="C531" s="35"/>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B532" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C532" s="30"/>
+      <c r="C532" s="35"/>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B533" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C533" s="30"/>
+      <c r="C533" s="35"/>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B534" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C534" s="30"/>
+      <c r="C534" s="35"/>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B535" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C535" s="30"/>
+      <c r="C535" s="35"/>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B536" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C536" s="30"/>
+      <c r="C536" s="35"/>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
@@ -12869,7 +13238,7 @@
       <c r="B704" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="C704" s="31" t="s">
+      <c r="C704" s="34" t="s">
         <v>768</v>
       </c>
     </row>
@@ -12877,55 +13246,55 @@
       <c r="B705" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="C705" s="30"/>
+      <c r="C705" s="35"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B706" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="C706" s="30"/>
+      <c r="C706" s="35"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B707" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="C707" s="30"/>
+      <c r="C707" s="35"/>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B708" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="C708" s="30"/>
+      <c r="C708" s="35"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B709" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="C709" s="30"/>
+      <c r="C709" s="35"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B710" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="C710" s="30"/>
+      <c r="C710" s="35"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B711" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="C711" s="30"/>
+      <c r="C711" s="35"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B712" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="C712" s="30"/>
+      <c r="C712" s="35"/>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B713" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="C713" s="30"/>
+      <c r="C713" s="35"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="8" t="s">
@@ -13099,8 +13468,152 @@
         <v>1098</v>
       </c>
     </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B737" s="7" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C737" s="34" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B738" s="7" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C738" s="35"/>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B739" s="7" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C739" s="35"/>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B740" s="7" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C740" s="35"/>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B741" s="7" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C741" s="35"/>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B742" s="7" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C742" s="35"/>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B743" s="7" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C743" s="35"/>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B744" s="7" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C744" s="35"/>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B745" s="7" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C745" s="35"/>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B746" s="7" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C746" s="35"/>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B747" s="7" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C747" s="35"/>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B748" s="7" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C748" s="35"/>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B749" s="7" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C749" s="35"/>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B750" s="7" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C750" s="35"/>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A751" s="3" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B751" s="5" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C751" s="4" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B752" s="4" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C752" s="4"/>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A753" s="3" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B753" s="5" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C753" s="4" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B754" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C754" s="4"/>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A755" s="3" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B755" s="5" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C755" s="4" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B756" s="4" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C756" s="4"/>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C757" s="4"/>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C758" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C737:C750"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="C704:C713"/>
     <mergeCell ref="C528:C536"/>
@@ -13115,10 +13628,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C983"/>
+  <dimension ref="A1:C1004"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B984" sqref="B984"/>
+    <sheetView topLeftCell="A981" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B1009" sqref="B1009"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13220,7 +13733,7 @@
       <c r="B14" s="10" t="s">
         <v>1123</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="39" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -13228,37 +13741,37 @@
       <c r="B15" s="10" t="s">
         <v>1124</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="39"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
         <v>1125</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>1126</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>1127</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>1129</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="39"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
@@ -13304,7 +13817,7 @@
       <c r="B26" s="10" t="s">
         <v>1141</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="39" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -13312,19 +13825,19 @@
       <c r="A27" t="s">
         <v>1142</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1143</v>
       </c>
-      <c r="C28" s="34"/>
+      <c r="C28" s="39"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1144</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="39"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -13333,7 +13846,7 @@
       <c r="B30" s="10" t="s">
         <v>1146</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="39"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -13449,7 +13962,7 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="26" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>1170</v>
@@ -13464,7 +13977,7 @@
       <c r="B50" s="10" t="s">
         <v>1179</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="39" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -13472,637 +13985,637 @@
       <c r="B51" s="10" t="s">
         <v>1231</v>
       </c>
-      <c r="C51" s="34"/>
+      <c r="C51" s="39"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="10" t="s">
         <v>1176</v>
       </c>
-      <c r="C52" s="34"/>
+      <c r="C52" s="39"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="10" t="s">
         <v>1180</v>
       </c>
-      <c r="C53" s="34"/>
+      <c r="C53" s="39"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
         <v>1232</v>
       </c>
-      <c r="C54" s="34"/>
+      <c r="C54" s="39"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
         <v>1181</v>
       </c>
-      <c r="C55" s="34"/>
+      <c r="C55" s="39"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
         <v>1233</v>
       </c>
-      <c r="C56" s="34"/>
+      <c r="C56" s="39"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
         <v>1182</v>
       </c>
-      <c r="C57" s="34"/>
+      <c r="C57" s="39"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
         <v>1234</v>
       </c>
-      <c r="C58" s="34"/>
+      <c r="C58" s="39"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>1183</v>
       </c>
-      <c r="C59" s="34"/>
+      <c r="C59" s="39"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
         <v>1235</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="39"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="C61" s="34"/>
+      <c r="C61" s="39"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="10" t="s">
         <v>1236</v>
       </c>
-      <c r="C62" s="34"/>
+      <c r="C62" s="39"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" s="10" t="s">
         <v>1185</v>
       </c>
-      <c r="C63" s="34"/>
+      <c r="C63" s="39"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" s="10" t="s">
         <v>1237</v>
       </c>
-      <c r="C64" s="34"/>
+      <c r="C64" s="39"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="10" t="s">
         <v>1186</v>
       </c>
-      <c r="C65" s="34"/>
+      <c r="C65" s="39"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
         <v>1238</v>
       </c>
-      <c r="C66" s="34"/>
+      <c r="C66" s="39"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="10" t="s">
         <v>1187</v>
       </c>
-      <c r="C67" s="34"/>
+      <c r="C67" s="39"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="10" t="s">
         <v>1239</v>
       </c>
-      <c r="C68" s="34"/>
+      <c r="C68" s="39"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="10" t="s">
         <v>1188</v>
       </c>
-      <c r="C69" s="34"/>
+      <c r="C69" s="39"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="10" t="s">
         <v>1240</v>
       </c>
-      <c r="C70" s="34"/>
+      <c r="C70" s="39"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="10" t="s">
         <v>1189</v>
       </c>
-      <c r="C71" s="34"/>
+      <c r="C71" s="39"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="10" t="s">
         <v>1241</v>
       </c>
-      <c r="C72" s="34"/>
+      <c r="C72" s="39"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="10" t="s">
         <v>1190</v>
       </c>
-      <c r="C73" s="34"/>
+      <c r="C73" s="39"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="10" t="s">
         <v>1242</v>
       </c>
-      <c r="C74" s="34"/>
+      <c r="C74" s="39"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="10" t="s">
         <v>1191</v>
       </c>
-      <c r="C75" s="34"/>
+      <c r="C75" s="39"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="10" t="s">
         <v>1243</v>
       </c>
-      <c r="C76" s="34"/>
+      <c r="C76" s="39"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="10" t="s">
         <v>1192</v>
       </c>
-      <c r="C77" s="34"/>
+      <c r="C77" s="39"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="10" t="s">
         <v>1244</v>
       </c>
-      <c r="C78" s="34"/>
+      <c r="C78" s="39"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="10" t="s">
         <v>1193</v>
       </c>
-      <c r="C79" s="34"/>
+      <c r="C79" s="39"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="10" t="s">
         <v>1245</v>
       </c>
-      <c r="C80" s="34"/>
+      <c r="C80" s="39"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="10" t="s">
         <v>1194</v>
       </c>
-      <c r="C81" s="34"/>
+      <c r="C81" s="39"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="10" t="s">
         <v>1246</v>
       </c>
-      <c r="C82" s="34"/>
+      <c r="C82" s="39"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="10" t="s">
         <v>1195</v>
       </c>
-      <c r="C83" s="34"/>
+      <c r="C83" s="39"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
         <v>1247</v>
       </c>
-      <c r="C84" s="34"/>
+      <c r="C84" s="39"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="10" t="s">
         <v>1196</v>
       </c>
-      <c r="C85" s="34"/>
+      <c r="C85" s="39"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="10" t="s">
         <v>1248</v>
       </c>
-      <c r="C86" s="34"/>
+      <c r="C86" s="39"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="10" t="s">
         <v>1197</v>
       </c>
-      <c r="C87" s="34"/>
+      <c r="C87" s="39"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="C88" s="34"/>
+      <c r="C88" s="39"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="10" t="s">
         <v>1198</v>
       </c>
-      <c r="C89" s="34"/>
+      <c r="C89" s="39"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="C90" s="34"/>
+      <c r="C90" s="39"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="10" t="s">
         <v>1199</v>
       </c>
-      <c r="C91" s="34"/>
+      <c r="C91" s="39"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="10" t="s">
         <v>1249</v>
       </c>
-      <c r="C92" s="34"/>
+      <c r="C92" s="39"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="10" t="s">
         <v>1200</v>
       </c>
-      <c r="C93" s="34"/>
+      <c r="C93" s="39"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="10" t="s">
         <v>1250</v>
       </c>
-      <c r="C94" s="34"/>
+      <c r="C94" s="39"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="10" t="s">
         <v>1201</v>
       </c>
-      <c r="C95" s="34"/>
+      <c r="C95" s="39"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="10" t="s">
         <v>1251</v>
       </c>
-      <c r="C96" s="34"/>
+      <c r="C96" s="39"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="10" t="s">
         <v>1202</v>
       </c>
-      <c r="C97" s="34"/>
+      <c r="C97" s="39"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="10" t="s">
         <v>1252</v>
       </c>
-      <c r="C98" s="34"/>
+      <c r="C98" s="39"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="10" t="s">
         <v>1203</v>
       </c>
-      <c r="C99" s="34"/>
+      <c r="C99" s="39"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="10" t="s">
         <v>1253</v>
       </c>
-      <c r="C100" s="34"/>
+      <c r="C100" s="39"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="10" t="s">
         <v>1204</v>
       </c>
-      <c r="C101" s="34"/>
+      <c r="C101" s="39"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="10" t="s">
         <v>1254</v>
       </c>
-      <c r="C102" s="34"/>
+      <c r="C102" s="39"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="10" t="s">
         <v>1205</v>
       </c>
-      <c r="C103" s="34"/>
+      <c r="C103" s="39"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="10" t="s">
         <v>1255</v>
       </c>
-      <c r="C104" s="34"/>
+      <c r="C104" s="39"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="10" t="s">
         <v>1206</v>
       </c>
-      <c r="C105" s="34"/>
+      <c r="C105" s="39"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="10" t="s">
         <v>1256</v>
       </c>
-      <c r="C106" s="34"/>
+      <c r="C106" s="39"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" s="10" t="s">
         <v>1207</v>
       </c>
-      <c r="C107" s="34"/>
+      <c r="C107" s="39"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="10" t="s">
         <v>1257</v>
       </c>
-      <c r="C108" s="34"/>
+      <c r="C108" s="39"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="10" t="s">
         <v>1208</v>
       </c>
-      <c r="C109" s="34"/>
+      <c r="C109" s="39"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" s="10" t="s">
         <v>1258</v>
       </c>
-      <c r="C110" s="34"/>
+      <c r="C110" s="39"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="10" t="s">
         <v>1177</v>
       </c>
-      <c r="C111" s="34"/>
+      <c r="C111" s="39"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="10" t="s">
         <v>1209</v>
       </c>
-      <c r="C112" s="34"/>
+      <c r="C112" s="39"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="10" t="s">
         <v>1259</v>
       </c>
-      <c r="C113" s="34"/>
+      <c r="C113" s="39"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="10" t="s">
         <v>1210</v>
       </c>
-      <c r="C114" s="34"/>
+      <c r="C114" s="39"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="10" t="s">
         <v>1260</v>
       </c>
-      <c r="C115" s="34"/>
+      <c r="C115" s="39"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="10" t="s">
         <v>1211</v>
       </c>
-      <c r="C116" s="34"/>
+      <c r="C116" s="39"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="10" t="s">
         <v>1261</v>
       </c>
-      <c r="C117" s="34"/>
+      <c r="C117" s="39"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="10" t="s">
         <v>1212</v>
       </c>
-      <c r="C118" s="34"/>
+      <c r="C118" s="39"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" s="10" t="s">
         <v>1262</v>
       </c>
-      <c r="C119" s="34"/>
+      <c r="C119" s="39"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" s="10" t="s">
         <v>1213</v>
       </c>
-      <c r="C120" s="34"/>
+      <c r="C120" s="39"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="10" t="s">
         <v>1263</v>
       </c>
-      <c r="C121" s="34"/>
+      <c r="C121" s="39"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="10" t="s">
         <v>1214</v>
       </c>
-      <c r="C122" s="34"/>
+      <c r="C122" s="39"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="10" t="s">
         <v>1264</v>
       </c>
-      <c r="C123" s="34"/>
+      <c r="C123" s="39"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="10" t="s">
         <v>1215</v>
       </c>
-      <c r="C124" s="34"/>
+      <c r="C124" s="39"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" s="10" t="s">
         <v>1265</v>
       </c>
-      <c r="C125" s="34"/>
+      <c r="C125" s="39"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" s="10" t="s">
         <v>1216</v>
       </c>
-      <c r="C126" s="34"/>
+      <c r="C126" s="39"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" s="10" t="s">
         <v>1264</v>
       </c>
-      <c r="C127" s="34"/>
+      <c r="C127" s="39"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="10" t="s">
         <v>1217</v>
       </c>
-      <c r="C128" s="34"/>
+      <c r="C128" s="39"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="10" t="s">
         <v>1266</v>
       </c>
-      <c r="C129" s="34"/>
+      <c r="C129" s="39"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="10" t="s">
         <v>1218</v>
       </c>
-      <c r="C130" s="34"/>
+      <c r="C130" s="39"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="10" t="s">
         <v>1219</v>
       </c>
-      <c r="C131" s="34"/>
+      <c r="C131" s="39"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="10" t="s">
         <v>1267</v>
       </c>
-      <c r="C132" s="34"/>
+      <c r="C132" s="39"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="10" t="s">
         <v>1220</v>
       </c>
-      <c r="C133" s="34"/>
+      <c r="C133" s="39"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="10" t="s">
         <v>1268</v>
       </c>
-      <c r="C134" s="34"/>
+      <c r="C134" s="39"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="10" t="s">
         <v>1221</v>
       </c>
-      <c r="C135" s="34"/>
+      <c r="C135" s="39"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="10" t="s">
         <v>1269</v>
       </c>
-      <c r="C136" s="34"/>
+      <c r="C136" s="39"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="10" t="s">
         <v>1222</v>
       </c>
-      <c r="C137" s="34"/>
+      <c r="C137" s="39"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="10" t="s">
         <v>1270</v>
       </c>
-      <c r="C138" s="34"/>
+      <c r="C138" s="39"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="10" t="s">
         <v>1223</v>
       </c>
-      <c r="C139" s="34"/>
+      <c r="C139" s="39"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="10" t="s">
         <v>1271</v>
       </c>
-      <c r="C140" s="34"/>
+      <c r="C140" s="39"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="10" t="s">
         <v>1224</v>
       </c>
-      <c r="C141" s="34"/>
+      <c r="C141" s="39"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="10" t="s">
         <v>1272</v>
       </c>
-      <c r="C142" s="34"/>
+      <c r="C142" s="39"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="10" t="s">
         <v>1225</v>
       </c>
-      <c r="C143" s="34"/>
+      <c r="C143" s="39"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="10" t="s">
         <v>1166</v>
       </c>
-      <c r="C144" s="34"/>
+      <c r="C144" s="39"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="10" t="s">
         <v>1226</v>
       </c>
-      <c r="C145" s="34"/>
+      <c r="C145" s="39"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" s="10" t="s">
         <v>1273</v>
       </c>
-      <c r="C146" s="34"/>
+      <c r="C146" s="39"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="C147" s="34"/>
+      <c r="C147" s="39"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" s="10" t="s">
         <v>1274</v>
       </c>
-      <c r="C148" s="34"/>
+      <c r="C148" s="39"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" s="10" t="s">
         <v>1228</v>
       </c>
-      <c r="C149" s="34"/>
+      <c r="C149" s="39"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" s="10" t="s">
         <v>1169</v>
       </c>
-      <c r="C150" s="34"/>
+      <c r="C150" s="39"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" s="10" t="s">
         <v>1178</v>
       </c>
-      <c r="C151" s="34"/>
+      <c r="C151" s="39"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" s="10" t="s">
         <v>1229</v>
       </c>
-      <c r="C152" s="34"/>
+      <c r="C152" s="39"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" s="10" t="s">
         <v>1275</v>
       </c>
-      <c r="C153" s="34"/>
+      <c r="C153" s="39"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" s="10" t="s">
         <v>1230</v>
       </c>
-      <c r="C154" s="34"/>
+      <c r="C154" s="39"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" s="10" t="s">
         <v>1276</v>
       </c>
-      <c r="C155" s="34"/>
+      <c r="C155" s="39"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" s="10" t="s">
         <v>1278</v>
       </c>
-      <c r="C156" s="34" t="s">
+      <c r="C156" s="39" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -14110,25 +14623,25 @@
       <c r="B157" s="10" t="s">
         <v>1279</v>
       </c>
-      <c r="C157" s="34"/>
+      <c r="C157" s="39"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" s="10" t="s">
         <v>1280</v>
       </c>
-      <c r="C158" s="34"/>
+      <c r="C158" s="39"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="10" t="s">
         <v>1281</v>
       </c>
-      <c r="C159" s="34"/>
+      <c r="C159" s="39"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="10" t="s">
         <v>1282</v>
       </c>
-      <c r="C160" s="34"/>
+      <c r="C160" s="39"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" s="10" t="s">
@@ -14248,7 +14761,7 @@
       <c r="B176" s="10" t="s">
         <v>1317</v>
       </c>
-      <c r="C176" s="34" t="s">
+      <c r="C176" s="39" t="s">
         <v>1600</v>
       </c>
     </row>
@@ -14256,1741 +14769,1741 @@
       <c r="B177" s="10" t="s">
         <v>1321</v>
       </c>
-      <c r="C177" s="34"/>
+      <c r="C177" s="39"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" s="10" t="s">
         <v>1328</v>
       </c>
-      <c r="C178" s="34"/>
+      <c r="C178" s="39"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" s="10" t="s">
         <v>1331</v>
       </c>
-      <c r="C179" s="34"/>
+      <c r="C179" s="39"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="10" t="s">
         <v>1333</v>
       </c>
-      <c r="C180" s="34"/>
+      <c r="C180" s="39"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="10" t="s">
         <v>1337</v>
       </c>
-      <c r="C181" s="34"/>
+      <c r="C181" s="39"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" s="10" t="s">
         <v>1343</v>
       </c>
-      <c r="C182" s="34"/>
+      <c r="C182" s="39"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" s="10" t="s">
         <v>1349</v>
       </c>
-      <c r="C183" s="34"/>
+      <c r="C183" s="39"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" s="10" t="s">
         <v>1355</v>
       </c>
-      <c r="C184" s="34"/>
+      <c r="C184" s="39"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" s="10" t="s">
         <v>1359</v>
       </c>
-      <c r="C185" s="34"/>
+      <c r="C185" s="39"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" s="10" t="s">
         <v>1361</v>
       </c>
-      <c r="C186" s="34"/>
+      <c r="C186" s="39"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" s="10" t="s">
         <v>1370</v>
       </c>
-      <c r="C187" s="34"/>
+      <c r="C187" s="39"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" s="10" t="s">
         <v>1373</v>
       </c>
-      <c r="C188" s="34"/>
+      <c r="C188" s="39"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" s="10" t="s">
         <v>1377</v>
       </c>
-      <c r="C189" s="34"/>
+      <c r="C189" s="39"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" s="10" t="s">
         <v>1384</v>
       </c>
-      <c r="C190" s="34"/>
+      <c r="C190" s="39"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" s="10" t="s">
         <v>1392</v>
       </c>
-      <c r="C191" s="34"/>
+      <c r="C191" s="39"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" s="10" t="s">
         <v>1398</v>
       </c>
-      <c r="C192" s="34"/>
+      <c r="C192" s="39"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" s="10" t="s">
         <v>1403</v>
       </c>
-      <c r="C193" s="34"/>
+      <c r="C193" s="39"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" s="10" t="s">
         <v>1409</v>
       </c>
-      <c r="C194" s="34"/>
+      <c r="C194" s="39"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" s="10" t="s">
         <v>1413</v>
       </c>
-      <c r="C195" s="34"/>
+      <c r="C195" s="39"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" s="10" t="s">
         <v>1420</v>
       </c>
-      <c r="C196" s="34"/>
+      <c r="C196" s="39"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" s="10" t="s">
         <v>1432</v>
       </c>
-      <c r="C197" s="34"/>
+      <c r="C197" s="39"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198" s="10" t="s">
         <v>1438</v>
       </c>
-      <c r="C198" s="34"/>
+      <c r="C198" s="39"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199" s="10" t="s">
         <v>1442</v>
       </c>
-      <c r="C199" s="34"/>
+      <c r="C199" s="39"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" s="10" t="s">
         <v>1445</v>
       </c>
-      <c r="C200" s="34"/>
+      <c r="C200" s="39"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" s="10" t="s">
         <v>1450</v>
       </c>
-      <c r="C201" s="34"/>
+      <c r="C201" s="39"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" s="10" t="s">
         <v>1456</v>
       </c>
-      <c r="C202" s="34"/>
+      <c r="C202" s="39"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203" s="10" t="s">
         <v>1460</v>
       </c>
-      <c r="C203" s="34"/>
+      <c r="C203" s="39"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204" s="10" t="s">
         <v>1466</v>
       </c>
-      <c r="C204" s="34"/>
+      <c r="C204" s="39"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" s="10" t="s">
         <v>1472</v>
       </c>
-      <c r="C205" s="34"/>
+      <c r="C205" s="39"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" s="10" t="s">
         <v>1475</v>
       </c>
-      <c r="C206" s="34"/>
+      <c r="C206" s="39"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" s="10" t="s">
         <v>1486</v>
       </c>
-      <c r="C207" s="34"/>
+      <c r="C207" s="39"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208" s="10" t="s">
         <v>1492</v>
       </c>
-      <c r="C208" s="34"/>
+      <c r="C208" s="39"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" s="10" t="s">
         <v>1497</v>
       </c>
-      <c r="C209" s="34"/>
+      <c r="C209" s="39"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" s="10" t="s">
         <v>1503</v>
       </c>
-      <c r="C210" s="34"/>
+      <c r="C210" s="39"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" s="10" t="s">
         <v>1508</v>
       </c>
-      <c r="C211" s="34"/>
+      <c r="C211" s="39"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" s="10" t="s">
         <v>1520</v>
       </c>
-      <c r="C212" s="34"/>
+      <c r="C212" s="39"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" s="10" t="s">
         <v>1525</v>
       </c>
-      <c r="C213" s="34"/>
+      <c r="C213" s="39"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" s="10" t="s">
         <v>1534</v>
       </c>
-      <c r="C214" s="34"/>
+      <c r="C214" s="39"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" s="10" t="s">
         <v>1541</v>
       </c>
-      <c r="C215" s="34"/>
+      <c r="C215" s="39"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" s="10" t="s">
         <v>1547</v>
       </c>
-      <c r="C216" s="34"/>
+      <c r="C216" s="39"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" s="10" t="s">
         <v>1554</v>
       </c>
-      <c r="C217" s="34"/>
+      <c r="C217" s="39"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218" s="10" t="s">
         <v>1562</v>
       </c>
-      <c r="C218" s="34"/>
+      <c r="C218" s="39"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B219" s="10" t="s">
         <v>1570</v>
       </c>
-      <c r="C219" s="34"/>
+      <c r="C219" s="39"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220" s="10" t="s">
         <v>1579</v>
       </c>
-      <c r="C220" s="34"/>
+      <c r="C220" s="39"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B221" s="10" t="s">
         <v>1583</v>
       </c>
-      <c r="C221" s="34"/>
+      <c r="C221" s="39"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222" s="10" t="s">
         <v>1453</v>
       </c>
-      <c r="C222" s="34"/>
+      <c r="C222" s="39"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223" s="10" t="s">
         <v>1499</v>
       </c>
-      <c r="C223" s="34"/>
+      <c r="C223" s="39"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B224" s="10" t="s">
         <v>1461</v>
       </c>
-      <c r="C224" s="34"/>
+      <c r="C224" s="39"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225" s="10" t="s">
         <v>1543</v>
       </c>
-      <c r="C225" s="34"/>
+      <c r="C225" s="39"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226" s="10" t="s">
         <v>1563</v>
       </c>
-      <c r="C226" s="34"/>
+      <c r="C226" s="39"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227" s="10" t="s">
         <v>1483</v>
       </c>
-      <c r="C227" s="34"/>
+      <c r="C227" s="39"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228" s="10" t="s">
         <v>1338</v>
       </c>
-      <c r="C228" s="34"/>
+      <c r="C228" s="39"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229" s="10" t="s">
         <v>1350</v>
       </c>
-      <c r="C229" s="34"/>
+      <c r="C229" s="39"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230" s="10" t="s">
         <v>1468</v>
       </c>
-      <c r="C230" s="34"/>
+      <c r="C230" s="39"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231" s="10" t="s">
         <v>1467</v>
       </c>
-      <c r="C231" s="34"/>
+      <c r="C231" s="39"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232" s="10" t="s">
         <v>1469</v>
       </c>
-      <c r="C232" s="34"/>
+      <c r="C232" s="39"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233" s="10" t="s">
         <v>1501</v>
       </c>
-      <c r="C233" s="34"/>
+      <c r="C233" s="39"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234" s="10" t="s">
         <v>1573</v>
       </c>
-      <c r="C234" s="34"/>
+      <c r="C234" s="39"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235" s="10" t="s">
         <v>1572</v>
       </c>
-      <c r="C235" s="34"/>
+      <c r="C235" s="39"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236" s="10" t="s">
         <v>1574</v>
       </c>
-      <c r="C236" s="34"/>
+      <c r="C236" s="39"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" s="10" t="s">
         <v>1506</v>
       </c>
-      <c r="C237" s="34"/>
+      <c r="C237" s="39"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" s="10" t="s">
         <v>1505</v>
       </c>
-      <c r="C238" s="34"/>
+      <c r="C238" s="39"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" s="10" t="s">
         <v>1545</v>
       </c>
-      <c r="C239" s="34"/>
+      <c r="C239" s="39"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" s="10" t="s">
         <v>1582</v>
       </c>
-      <c r="C240" s="34"/>
+      <c r="C240" s="39"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B241" s="10" t="s">
         <v>1540</v>
       </c>
-      <c r="C241" s="34"/>
+      <c r="C241" s="39"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" s="10" t="s">
         <v>1528</v>
       </c>
-      <c r="C242" s="34"/>
+      <c r="C242" s="39"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243" s="10" t="s">
         <v>1330</v>
       </c>
-      <c r="C243" s="34"/>
+      <c r="C243" s="39"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244" s="10" t="s">
         <v>1500</v>
       </c>
-      <c r="C244" s="34"/>
+      <c r="C244" s="39"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B245" s="10" t="s">
         <v>1516</v>
       </c>
-      <c r="C245" s="34"/>
+      <c r="C245" s="39"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" s="10" t="s">
         <v>1538</v>
       </c>
-      <c r="C246" s="34"/>
+      <c r="C246" s="39"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" s="10" t="s">
         <v>1367</v>
       </c>
-      <c r="C247" s="34"/>
+      <c r="C247" s="39"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" s="10" t="s">
         <v>1368</v>
       </c>
-      <c r="C248" s="34"/>
+      <c r="C248" s="39"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" s="10" t="s">
         <v>1311</v>
       </c>
-      <c r="C249" s="34"/>
+      <c r="C249" s="39"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B250" s="10" t="s">
         <v>1504</v>
       </c>
-      <c r="C250" s="34"/>
+      <c r="C250" s="39"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" s="10" t="s">
         <v>1449</v>
       </c>
-      <c r="C251" s="34"/>
+      <c r="C251" s="39"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" s="10" t="s">
         <v>1463</v>
       </c>
-      <c r="C252" s="34"/>
+      <c r="C252" s="39"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" s="10" t="s">
         <v>1371</v>
       </c>
-      <c r="C253" s="34"/>
+      <c r="C253" s="39"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" s="10" t="s">
         <v>1340</v>
       </c>
-      <c r="C254" s="34"/>
+      <c r="C254" s="39"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255" s="10" t="s">
         <v>1584</v>
       </c>
-      <c r="C255" s="34"/>
+      <c r="C255" s="39"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256" s="10" t="s">
         <v>1585</v>
       </c>
-      <c r="C256" s="34"/>
+      <c r="C256" s="39"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257" s="10" t="s">
         <v>1471</v>
       </c>
-      <c r="C257" s="34"/>
+      <c r="C257" s="39"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" s="10" t="s">
         <v>1347</v>
       </c>
-      <c r="C258" s="34"/>
+      <c r="C258" s="39"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" s="10" t="s">
         <v>1593</v>
       </c>
-      <c r="C259" s="34"/>
+      <c r="C259" s="39"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" s="10" t="s">
         <v>1594</v>
       </c>
-      <c r="C260" s="34"/>
+      <c r="C260" s="39"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" s="10" t="s">
         <v>1592</v>
       </c>
-      <c r="C261" s="34"/>
+      <c r="C261" s="39"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" s="10" t="s">
         <v>1591</v>
       </c>
-      <c r="C262" s="34"/>
+      <c r="C262" s="39"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="10" t="s">
         <v>1595</v>
       </c>
-      <c r="C263" s="34"/>
+      <c r="C263" s="39"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" s="10" t="s">
         <v>1464</v>
       </c>
-      <c r="C264" s="34"/>
+      <c r="C264" s="39"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" s="10" t="s">
         <v>1524</v>
       </c>
-      <c r="C265" s="34"/>
+      <c r="C265" s="39"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" s="10" t="s">
         <v>1487</v>
       </c>
-      <c r="C266" s="34"/>
+      <c r="C266" s="39"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" s="10" t="s">
         <v>1446</v>
       </c>
-      <c r="C267" s="34"/>
+      <c r="C267" s="39"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" s="10" t="s">
         <v>1341</v>
       </c>
-      <c r="C268" s="34"/>
+      <c r="C268" s="39"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" s="10" t="s">
         <v>1539</v>
       </c>
-      <c r="C269" s="34"/>
+      <c r="C269" s="39"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" s="10" t="s">
         <v>1329</v>
       </c>
-      <c r="C270" s="34"/>
+      <c r="C270" s="39"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" s="10" t="s">
         <v>1325</v>
       </c>
-      <c r="C271" s="34"/>
+      <c r="C271" s="39"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272" s="10" t="s">
         <v>1419</v>
       </c>
-      <c r="C272" s="34"/>
+      <c r="C272" s="39"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273" s="10" t="s">
         <v>1421</v>
       </c>
-      <c r="C273" s="34"/>
+      <c r="C273" s="39"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" s="10" t="s">
         <v>1544</v>
       </c>
-      <c r="C274" s="34"/>
+      <c r="C274" s="39"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275" s="10" t="s">
         <v>1410</v>
       </c>
-      <c r="C275" s="34"/>
+      <c r="C275" s="39"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276" s="10" t="s">
         <v>1478</v>
       </c>
-      <c r="C276" s="34"/>
+      <c r="C276" s="39"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277" s="10" t="s">
         <v>1425</v>
       </c>
-      <c r="C277" s="34"/>
+      <c r="C277" s="39"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278" s="10" t="s">
         <v>1522</v>
       </c>
-      <c r="C278" s="34"/>
+      <c r="C278" s="39"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B279" s="10" t="s">
         <v>1558</v>
       </c>
-      <c r="C279" s="34"/>
+      <c r="C279" s="39"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280" s="10" t="s">
         <v>1362</v>
       </c>
-      <c r="C280" s="34"/>
+      <c r="C280" s="39"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281" s="10" t="s">
         <v>1363</v>
       </c>
-      <c r="C281" s="34"/>
+      <c r="C281" s="39"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282" s="10" t="s">
         <v>1342</v>
       </c>
-      <c r="C282" s="34"/>
+      <c r="C282" s="39"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283" s="10" t="s">
         <v>1519</v>
       </c>
-      <c r="C283" s="34"/>
+      <c r="C283" s="39"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284" s="10" t="s">
         <v>1360</v>
       </c>
-      <c r="C284" s="34"/>
+      <c r="C284" s="39"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285" s="10" t="s">
         <v>1312</v>
       </c>
-      <c r="C285" s="34"/>
+      <c r="C285" s="39"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286" s="10" t="s">
         <v>1422</v>
       </c>
-      <c r="C286" s="34"/>
+      <c r="C286" s="39"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" s="10" t="s">
         <v>1428</v>
       </c>
-      <c r="C287" s="34"/>
+      <c r="C287" s="39"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288" s="10" t="s">
         <v>1555</v>
       </c>
-      <c r="C288" s="34"/>
+      <c r="C288" s="39"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B289" s="10" t="s">
         <v>1527</v>
       </c>
-      <c r="C289" s="34"/>
+      <c r="C289" s="39"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B290" s="10" t="s">
         <v>1440</v>
       </c>
-      <c r="C290" s="34"/>
+      <c r="C290" s="39"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B291" s="10" t="s">
         <v>1394</v>
       </c>
-      <c r="C291" s="34"/>
+      <c r="C291" s="39"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B292" s="10" t="s">
         <v>1493</v>
       </c>
-      <c r="C292" s="34"/>
+      <c r="C292" s="39"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B293" s="10" t="s">
         <v>1494</v>
       </c>
-      <c r="C293" s="34"/>
+      <c r="C293" s="39"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B294" s="10" t="s">
         <v>1496</v>
       </c>
-      <c r="C294" s="34"/>
+      <c r="C294" s="39"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B295" s="10" t="s">
         <v>1495</v>
       </c>
-      <c r="C295" s="34"/>
+      <c r="C295" s="39"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B296" s="10" t="s">
         <v>1323</v>
       </c>
-      <c r="C296" s="34"/>
+      <c r="C296" s="39"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B297" s="10" t="s">
         <v>1597</v>
       </c>
-      <c r="C297" s="34"/>
+      <c r="C297" s="39"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B298" s="10" t="s">
         <v>1418</v>
       </c>
-      <c r="C298" s="34"/>
+      <c r="C298" s="39"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B299" s="10" t="s">
         <v>1529</v>
       </c>
-      <c r="C299" s="34"/>
+      <c r="C299" s="39"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B300" s="10" t="s">
         <v>1386</v>
       </c>
-      <c r="C300" s="34"/>
+      <c r="C300" s="39"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301" s="10" t="s">
         <v>1454</v>
       </c>
-      <c r="C301" s="34"/>
+      <c r="C301" s="39"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B302" s="10" t="s">
         <v>1556</v>
       </c>
-      <c r="C302" s="34"/>
+      <c r="C302" s="39"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B303" s="10" t="s">
         <v>1589</v>
       </c>
-      <c r="C303" s="34"/>
+      <c r="C303" s="39"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B304" s="10" t="s">
         <v>1388</v>
       </c>
-      <c r="C304" s="34"/>
+      <c r="C304" s="39"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B305" s="10" t="s">
         <v>1458</v>
       </c>
-      <c r="C305" s="34"/>
+      <c r="C305" s="39"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B306" s="10" t="s">
         <v>1459</v>
       </c>
-      <c r="C306" s="34"/>
+      <c r="C306" s="39"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B307" s="10" t="s">
         <v>1455</v>
       </c>
-      <c r="C307" s="34"/>
+      <c r="C307" s="39"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308" s="10" t="s">
         <v>1517</v>
       </c>
-      <c r="C308" s="34"/>
+      <c r="C308" s="39"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B309" s="10" t="s">
         <v>1427</v>
       </c>
-      <c r="C309" s="34"/>
+      <c r="C309" s="39"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310" s="10" t="s">
         <v>1426</v>
       </c>
-      <c r="C310" s="34"/>
+      <c r="C310" s="39"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B311" s="10" t="s">
         <v>1587</v>
       </c>
-      <c r="C311" s="34"/>
+      <c r="C311" s="39"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B312" s="10" t="s">
         <v>1397</v>
       </c>
-      <c r="C312" s="34"/>
+      <c r="C312" s="39"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B313" s="10" t="s">
         <v>1396</v>
       </c>
-      <c r="C313" s="34"/>
+      <c r="C313" s="39"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B314" s="10" t="s">
         <v>1404</v>
       </c>
-      <c r="C314" s="34"/>
+      <c r="C314" s="39"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B315" s="10" t="s">
         <v>1416</v>
       </c>
-      <c r="C315" s="34"/>
+      <c r="C315" s="39"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B316" s="10" t="s">
         <v>1415</v>
       </c>
-      <c r="C316" s="34"/>
+      <c r="C316" s="39"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B317" s="10" t="s">
         <v>1429</v>
       </c>
-      <c r="C317" s="34"/>
+      <c r="C317" s="39"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B318" s="10" t="s">
         <v>1322</v>
       </c>
-      <c r="C318" s="34"/>
+      <c r="C318" s="39"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B319" s="10" t="s">
         <v>1393</v>
       </c>
-      <c r="C319" s="34"/>
+      <c r="C319" s="39"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B320" s="10" t="s">
         <v>1532</v>
       </c>
-      <c r="C320" s="34"/>
+      <c r="C320" s="39"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B321" s="10" t="s">
         <v>1448</v>
       </c>
-      <c r="C321" s="34"/>
+      <c r="C321" s="39"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B322" s="10" t="s">
         <v>1320</v>
       </c>
-      <c r="C322" s="34"/>
+      <c r="C322" s="39"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B323" s="10" t="s">
         <v>1399</v>
       </c>
-      <c r="C323" s="34"/>
+      <c r="C323" s="39"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B324" s="10" t="s">
         <v>1498</v>
       </c>
-      <c r="C324" s="34"/>
+      <c r="C324" s="39"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B325" s="10" t="s">
         <v>1412</v>
       </c>
-      <c r="C325" s="34"/>
+      <c r="C325" s="39"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B326" s="10" t="s">
         <v>1313</v>
       </c>
-      <c r="C326" s="34"/>
+      <c r="C326" s="39"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B327" s="10" t="s">
         <v>1549</v>
       </c>
-      <c r="C327" s="34"/>
+      <c r="C327" s="39"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B328" s="10" t="s">
         <v>1548</v>
       </c>
-      <c r="C328" s="34"/>
+      <c r="C328" s="39"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B329" s="10" t="s">
         <v>1381</v>
       </c>
-      <c r="C329" s="34"/>
+      <c r="C329" s="39"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B330" s="10" t="s">
         <v>1382</v>
       </c>
-      <c r="C330" s="34"/>
+      <c r="C330" s="39"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B331" s="10" t="s">
         <v>1380</v>
       </c>
-      <c r="C331" s="34"/>
+      <c r="C331" s="39"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B332" s="10" t="s">
         <v>1383</v>
       </c>
-      <c r="C332" s="34"/>
+      <c r="C332" s="39"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B333" s="10" t="s">
         <v>1307</v>
       </c>
-      <c r="C333" s="34"/>
+      <c r="C333" s="39"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B334" s="10" t="s">
         <v>1577</v>
       </c>
-      <c r="C334" s="34"/>
+      <c r="C334" s="39"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B335" s="10" t="s">
         <v>1578</v>
       </c>
-      <c r="C335" s="34"/>
+      <c r="C335" s="39"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336" s="10" t="s">
         <v>1507</v>
       </c>
-      <c r="C336" s="34"/>
+      <c r="C336" s="39"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B337" s="10" t="s">
         <v>1480</v>
       </c>
-      <c r="C337" s="34"/>
+      <c r="C337" s="39"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B338" s="10" t="s">
         <v>1479</v>
       </c>
-      <c r="C338" s="34"/>
+      <c r="C338" s="39"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B339" s="10" t="s">
         <v>1569</v>
       </c>
-      <c r="C339" s="34"/>
+      <c r="C339" s="39"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B340" s="10" t="s">
         <v>1568</v>
       </c>
-      <c r="C340" s="34"/>
+      <c r="C340" s="39"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B341" s="10" t="s">
         <v>1354</v>
       </c>
-      <c r="C341" s="34"/>
+      <c r="C341" s="39"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B342" s="10" t="s">
         <v>1339</v>
       </c>
-      <c r="C342" s="34"/>
+      <c r="C342" s="39"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B343" s="10" t="s">
         <v>1473</v>
       </c>
-      <c r="C343" s="34"/>
+      <c r="C343" s="39"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B344" s="10" t="s">
         <v>1474</v>
       </c>
-      <c r="C344" s="34"/>
+      <c r="C344" s="39"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B345" s="10" t="s">
         <v>1358</v>
       </c>
-      <c r="C345" s="34"/>
+      <c r="C345" s="39"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B346" s="10" t="s">
         <v>1332</v>
       </c>
-      <c r="C346" s="34"/>
+      <c r="C346" s="39"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B347" s="10" t="s">
         <v>1586</v>
       </c>
-      <c r="C347" s="34"/>
+      <c r="C347" s="39"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B348" s="10" t="s">
         <v>1431</v>
       </c>
-      <c r="C348" s="34"/>
+      <c r="C348" s="39"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B349" s="10" t="s">
         <v>1315</v>
       </c>
-      <c r="C349" s="34"/>
+      <c r="C349" s="39"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B350" s="10" t="s">
         <v>1509</v>
       </c>
-      <c r="C350" s="34"/>
+      <c r="C350" s="39"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B351" s="10" t="s">
         <v>1430</v>
       </c>
-      <c r="C351" s="34"/>
+      <c r="C351" s="39"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B352" s="10" t="s">
         <v>1435</v>
       </c>
-      <c r="C352" s="34"/>
+      <c r="C352" s="39"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B353" s="10" t="s">
         <v>1523</v>
       </c>
-      <c r="C353" s="34"/>
+      <c r="C353" s="39"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B354" s="10" t="s">
         <v>1318</v>
       </c>
-      <c r="C354" s="34"/>
+      <c r="C354" s="39"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B355" s="10" t="s">
         <v>1511</v>
       </c>
-      <c r="C355" s="34"/>
+      <c r="C355" s="39"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B356" s="10" t="s">
         <v>1390</v>
       </c>
-      <c r="C356" s="34"/>
+      <c r="C356" s="39"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B357" s="10" t="s">
         <v>1327</v>
       </c>
-      <c r="C357" s="34"/>
+      <c r="C357" s="39"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B358" s="10" t="s">
         <v>1596</v>
       </c>
-      <c r="C358" s="34"/>
+      <c r="C358" s="39"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B359" s="10" t="s">
         <v>1395</v>
       </c>
-      <c r="C359" s="34"/>
+      <c r="C359" s="39"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B360" s="10" t="s">
         <v>1510</v>
       </c>
-      <c r="C360" s="34"/>
+      <c r="C360" s="39"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B361" s="10" t="s">
         <v>1326</v>
       </c>
-      <c r="C361" s="34"/>
+      <c r="C361" s="39"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B362" s="10" t="s">
         <v>1353</v>
       </c>
-      <c r="C362" s="34"/>
+      <c r="C362" s="39"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B363" s="10" t="s">
         <v>1351</v>
       </c>
-      <c r="C363" s="34"/>
+      <c r="C363" s="39"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B364" s="10" t="s">
         <v>1352</v>
       </c>
-      <c r="C364" s="34"/>
+      <c r="C364" s="39"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B365" s="10" t="s">
         <v>1417</v>
       </c>
-      <c r="C365" s="34"/>
+      <c r="C365" s="39"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B366" s="10" t="s">
         <v>1457</v>
       </c>
-      <c r="C366" s="34"/>
+      <c r="C366" s="39"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B367" s="10" t="s">
         <v>1537</v>
       </c>
-      <c r="C367" s="34"/>
+      <c r="C367" s="39"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B368" s="10" t="s">
         <v>1599</v>
       </c>
-      <c r="C368" s="34"/>
+      <c r="C368" s="39"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B369" s="10" t="s">
         <v>1414</v>
       </c>
-      <c r="C369" s="34"/>
+      <c r="C369" s="39"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B370" s="10" t="s">
         <v>1405</v>
       </c>
-      <c r="C370" s="34"/>
+      <c r="C370" s="39"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B371" s="10" t="s">
         <v>1319</v>
       </c>
-      <c r="C371" s="34"/>
+      <c r="C371" s="39"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B372" s="10" t="s">
         <v>1515</v>
       </c>
-      <c r="C372" s="34"/>
+      <c r="C372" s="39"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B373" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="C373" s="34"/>
+      <c r="C373" s="39"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B374" s="10" t="s">
         <v>1389</v>
       </c>
-      <c r="C374" s="34"/>
+      <c r="C374" s="39"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B375" s="10" t="s">
         <v>1376</v>
       </c>
-      <c r="C375" s="34"/>
+      <c r="C375" s="39"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B376" s="10" t="s">
         <v>1375</v>
       </c>
-      <c r="C376" s="34"/>
+      <c r="C376" s="39"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B377" s="10" t="s">
         <v>1560</v>
       </c>
-      <c r="C377" s="34"/>
+      <c r="C377" s="39"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B378" s="10" t="s">
         <v>1470</v>
       </c>
-      <c r="C378" s="34"/>
+      <c r="C378" s="39"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B379" s="10" t="s">
         <v>1452</v>
       </c>
-      <c r="C379" s="34"/>
+      <c r="C379" s="39"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B380" s="10" t="s">
         <v>1465</v>
       </c>
-      <c r="C380" s="34"/>
+      <c r="C380" s="39"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B381" s="10" t="s">
         <v>1552</v>
       </c>
-      <c r="C381" s="34"/>
+      <c r="C381" s="39"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B382" s="10" t="s">
         <v>1407</v>
       </c>
-      <c r="C382" s="34"/>
+      <c r="C382" s="39"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B383" s="10" t="s">
         <v>1514</v>
       </c>
-      <c r="C383" s="34"/>
+      <c r="C383" s="39"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B384" s="10" t="s">
         <v>1513</v>
       </c>
-      <c r="C384" s="34"/>
+      <c r="C384" s="39"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B385" s="10" t="s">
         <v>1316</v>
       </c>
-      <c r="C385" s="34"/>
+      <c r="C385" s="39"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B386" s="10" t="s">
         <v>1391</v>
       </c>
-      <c r="C386" s="34"/>
+      <c r="C386" s="39"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B387" s="10" t="s">
         <v>1335</v>
       </c>
-      <c r="C387" s="34"/>
+      <c r="C387" s="39"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B388" s="10" t="s">
         <v>1379</v>
       </c>
-      <c r="C388" s="34"/>
+      <c r="C388" s="39"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B389" s="10" t="s">
         <v>1378</v>
       </c>
-      <c r="C389" s="34"/>
+      <c r="C389" s="39"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B390" s="10" t="s">
         <v>1477</v>
       </c>
-      <c r="C390" s="34"/>
+      <c r="C390" s="39"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B391" s="10" t="s">
         <v>1485</v>
       </c>
-      <c r="C391" s="34"/>
+      <c r="C391" s="39"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B392" s="10" t="s">
         <v>1484</v>
       </c>
-      <c r="C392" s="34"/>
+      <c r="C392" s="39"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B393" s="10" t="s">
         <v>1536</v>
       </c>
-      <c r="C393" s="34"/>
+      <c r="C393" s="39"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B394" s="10" t="s">
         <v>1462</v>
       </c>
-      <c r="C394" s="34"/>
+      <c r="C394" s="39"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B395" s="10" t="s">
         <v>1489</v>
       </c>
-      <c r="C395" s="34"/>
+      <c r="C395" s="39"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B396" s="10" t="s">
         <v>1488</v>
       </c>
-      <c r="C396" s="34"/>
+      <c r="C396" s="39"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B397" s="10" t="s">
         <v>1490</v>
       </c>
-      <c r="C397" s="34"/>
+      <c r="C397" s="39"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B398" s="10" t="s">
         <v>1491</v>
       </c>
-      <c r="C398" s="34"/>
+      <c r="C398" s="39"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B399" s="10" t="s">
         <v>1512</v>
       </c>
-      <c r="C399" s="34"/>
+      <c r="C399" s="39"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B400" s="10" t="s">
         <v>1402</v>
       </c>
-      <c r="C400" s="34"/>
+      <c r="C400" s="39"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B401" s="10" t="s">
         <v>1559</v>
       </c>
-      <c r="C401" s="34"/>
+      <c r="C401" s="39"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B402" s="10" t="s">
         <v>1411</v>
       </c>
-      <c r="C402" s="34"/>
+      <c r="C402" s="39"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B403" s="10" t="s">
         <v>1476</v>
       </c>
-      <c r="C403" s="34"/>
+      <c r="C403" s="39"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B404" s="10" t="s">
         <v>1356</v>
       </c>
-      <c r="C404" s="34"/>
+      <c r="C404" s="39"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B405" s="10" t="s">
         <v>1366</v>
       </c>
-      <c r="C405" s="34"/>
+      <c r="C405" s="39"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B406" s="10" t="s">
         <v>1581</v>
       </c>
-      <c r="C406" s="34"/>
+      <c r="C406" s="39"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B407" s="10" t="s">
         <v>1553</v>
       </c>
-      <c r="C407" s="34"/>
+      <c r="C407" s="39"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B408" s="10" t="s">
         <v>1314</v>
       </c>
-      <c r="C408" s="34"/>
+      <c r="C408" s="39"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B409" s="10" t="s">
         <v>1551</v>
       </c>
-      <c r="C409" s="34"/>
+      <c r="C409" s="39"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B410" s="10" t="s">
         <v>1576</v>
       </c>
-      <c r="C410" s="34"/>
+      <c r="C410" s="39"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B411" s="10" t="s">
         <v>1575</v>
       </c>
-      <c r="C411" s="34"/>
+      <c r="C411" s="39"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B412" s="10" t="s">
         <v>1567</v>
       </c>
-      <c r="C412" s="34"/>
+      <c r="C412" s="39"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B413" s="10" t="s">
         <v>1408</v>
       </c>
-      <c r="C413" s="34"/>
+      <c r="C413" s="39"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B414" s="10" t="s">
         <v>1401</v>
       </c>
-      <c r="C414" s="34"/>
+      <c r="C414" s="39"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B415" s="10" t="s">
         <v>1400</v>
       </c>
-      <c r="C415" s="34"/>
+      <c r="C415" s="39"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B416" s="10" t="s">
         <v>1406</v>
       </c>
-      <c r="C416" s="34"/>
+      <c r="C416" s="39"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B417" s="10" t="s">
         <v>1441</v>
       </c>
-      <c r="C417" s="34"/>
+      <c r="C417" s="39"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B418" s="10" t="s">
         <v>1324</v>
       </c>
-      <c r="C418" s="34"/>
+      <c r="C418" s="39"/>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B419" s="10" t="s">
         <v>1557</v>
       </c>
-      <c r="C419" s="34"/>
+      <c r="C419" s="39"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B420" s="10" t="s">
         <v>1546</v>
       </c>
-      <c r="C420" s="34"/>
+      <c r="C420" s="39"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B421" s="10" t="s">
         <v>1482</v>
       </c>
-      <c r="C421" s="34"/>
+      <c r="C421" s="39"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B422" s="10" t="s">
         <v>1588</v>
       </c>
-      <c r="C422" s="34"/>
+      <c r="C422" s="39"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B423" s="10" t="s">
         <v>1590</v>
       </c>
-      <c r="C423" s="34"/>
+      <c r="C423" s="39"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B424" s="10" t="s">
         <v>1424</v>
       </c>
-      <c r="C424" s="34"/>
+      <c r="C424" s="39"/>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B425" s="10" t="s">
         <v>1374</v>
       </c>
-      <c r="C425" s="34"/>
+      <c r="C425" s="39"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B426" s="10" t="s">
         <v>1521</v>
       </c>
-      <c r="C426" s="34"/>
+      <c r="C426" s="39"/>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B427" s="10" t="s">
         <v>1447</v>
       </c>
-      <c r="C427" s="34"/>
+      <c r="C427" s="39"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B428" s="10" t="s">
         <v>1357</v>
       </c>
-      <c r="C428" s="34"/>
+      <c r="C428" s="39"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B429" s="10" t="s">
         <v>1444</v>
       </c>
-      <c r="C429" s="34"/>
+      <c r="C429" s="39"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B430" s="10" t="s">
         <v>1443</v>
       </c>
-      <c r="C430" s="34"/>
+      <c r="C430" s="39"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B431" s="10" t="s">
         <v>1550</v>
       </c>
-      <c r="C431" s="34"/>
+      <c r="C431" s="39"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B432" s="10" t="s">
         <v>1518</v>
       </c>
-      <c r="C432" s="34"/>
+      <c r="C432" s="39"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B433" s="10" t="s">
         <v>1439</v>
       </c>
-      <c r="C433" s="34"/>
+      <c r="C433" s="39"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B434" s="10" t="s">
         <v>1502</v>
       </c>
-      <c r="C434" s="34"/>
+      <c r="C434" s="39"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B435" s="10" t="s">
         <v>1526</v>
       </c>
-      <c r="C435" s="34"/>
+      <c r="C435" s="39"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B436" s="10" t="s">
         <v>1369</v>
       </c>
-      <c r="C436" s="34"/>
+      <c r="C436" s="39"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B437" s="10" t="s">
         <v>1571</v>
       </c>
-      <c r="C437" s="34"/>
+      <c r="C437" s="39"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B438" s="10" t="s">
         <v>1598</v>
       </c>
-      <c r="C438" s="34"/>
+      <c r="C438" s="39"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B439" s="10" t="s">
         <v>1561</v>
       </c>
-      <c r="C439" s="34"/>
+      <c r="C439" s="39"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B440" s="10" t="s">
         <v>1481</v>
       </c>
-      <c r="C440" s="34"/>
+      <c r="C440" s="39"/>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B441" s="10" t="s">
         <v>1564</v>
       </c>
-      <c r="C441" s="34"/>
+      <c r="C441" s="39"/>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B442" s="10" t="s">
         <v>1565</v>
       </c>
-      <c r="C442" s="34"/>
+      <c r="C442" s="39"/>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B443" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="C443" s="34"/>
+      <c r="C443" s="39"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B444" s="10" t="s">
         <v>1535</v>
       </c>
-      <c r="C444" s="34"/>
+      <c r="C444" s="39"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B445" s="10" t="s">
         <v>1372</v>
       </c>
-      <c r="C445" s="34"/>
+      <c r="C445" s="39"/>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B446" s="10" t="s">
         <v>1423</v>
       </c>
-      <c r="C446" s="34"/>
+      <c r="C446" s="39"/>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B447" s="10" t="s">
         <v>1365</v>
       </c>
-      <c r="C447" s="34"/>
+      <c r="C447" s="39"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B448" s="10" t="s">
         <v>1364</v>
       </c>
-      <c r="C448" s="34"/>
+      <c r="C448" s="39"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B449" s="10" t="s">
         <v>1533</v>
       </c>
-      <c r="C449" s="34"/>
+      <c r="C449" s="39"/>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B450" s="10" t="s">
         <v>1451</v>
       </c>
-      <c r="C450" s="34"/>
+      <c r="C450" s="39"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B451" s="10" t="s">
         <v>1434</v>
       </c>
-      <c r="C451" s="34"/>
+      <c r="C451" s="39"/>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B452" s="10" t="s">
         <v>1437</v>
       </c>
-      <c r="C452" s="34"/>
+      <c r="C452" s="39"/>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B453" s="10" t="s">
         <v>1436</v>
       </c>
-      <c r="C453" s="34"/>
+      <c r="C453" s="39"/>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B454" s="10" t="s">
         <v>1433</v>
       </c>
-      <c r="C454" s="34"/>
+      <c r="C454" s="39"/>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B455" s="10" t="s">
         <v>1542</v>
       </c>
-      <c r="C455" s="34"/>
+      <c r="C455" s="39"/>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B456" s="10" t="s">
         <v>1566</v>
       </c>
-      <c r="C456" s="34"/>
+      <c r="C456" s="39"/>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B457" s="10" t="s">
         <v>1336</v>
       </c>
-      <c r="C457" s="34"/>
+      <c r="C457" s="39"/>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B458" s="10" t="s">
         <v>1344</v>
       </c>
-      <c r="C458" s="34"/>
+      <c r="C458" s="39"/>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B459" s="10" t="s">
         <v>1348</v>
       </c>
-      <c r="C459" s="34"/>
+      <c r="C459" s="39"/>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B460" s="10" t="s">
         <v>1346</v>
       </c>
-      <c r="C460" s="34"/>
+      <c r="C460" s="39"/>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B461" s="10" t="s">
         <v>1530</v>
       </c>
-      <c r="C461" s="34"/>
+      <c r="C461" s="39"/>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B462" s="10" t="s">
         <v>1531</v>
       </c>
-      <c r="C462" s="34"/>
+      <c r="C462" s="39"/>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B463" s="10" t="s">
         <v>1580</v>
       </c>
-      <c r="C463" s="34"/>
+      <c r="C463" s="39"/>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B464" s="10" t="s">
         <v>1334</v>
       </c>
-      <c r="C464" s="34"/>
+      <c r="C464" s="39"/>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B465" s="10" t="s">
         <v>1385</v>
       </c>
-      <c r="C465" s="34"/>
+      <c r="C465" s="39"/>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B466" s="10" t="s">
         <v>1601</v>
       </c>
-      <c r="C466" s="34" t="s">
+      <c r="C466" s="39" t="s">
         <v>1648</v>
       </c>
     </row>
@@ -15998,283 +16511,283 @@
       <c r="B467" s="10" t="s">
         <v>1602</v>
       </c>
-      <c r="C467" s="34"/>
+      <c r="C467" s="39"/>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B468" s="10" t="s">
         <v>1603</v>
       </c>
-      <c r="C468" s="34"/>
+      <c r="C468" s="39"/>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B469" s="10" t="s">
         <v>1604</v>
       </c>
-      <c r="C469" s="34"/>
+      <c r="C469" s="39"/>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B470" s="10" t="s">
         <v>1605</v>
       </c>
-      <c r="C470" s="34"/>
+      <c r="C470" s="39"/>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B471" s="10" t="s">
         <v>1606</v>
       </c>
-      <c r="C471" s="34"/>
+      <c r="C471" s="39"/>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B472" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="C472" s="34"/>
+      <c r="C472" s="39"/>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B473" s="10" t="s">
         <v>1608</v>
       </c>
-      <c r="C473" s="34"/>
+      <c r="C473" s="39"/>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B474" s="10" t="s">
         <v>1609</v>
       </c>
-      <c r="C474" s="34"/>
+      <c r="C474" s="39"/>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B475" s="10" t="s">
         <v>1610</v>
       </c>
-      <c r="C475" s="34"/>
+      <c r="C475" s="39"/>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B476" s="10" t="s">
         <v>1611</v>
       </c>
-      <c r="C476" s="34"/>
+      <c r="C476" s="39"/>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B477" s="10" t="s">
         <v>1612</v>
       </c>
-      <c r="C477" s="34"/>
+      <c r="C477" s="39"/>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B478" s="10" t="s">
         <v>1613</v>
       </c>
-      <c r="C478" s="34"/>
+      <c r="C478" s="39"/>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B479" s="10" t="s">
         <v>1614</v>
       </c>
-      <c r="C479" s="34"/>
+      <c r="C479" s="39"/>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B480" s="10" t="s">
         <v>1615</v>
       </c>
-      <c r="C480" s="34"/>
+      <c r="C480" s="39"/>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B481" s="10" t="s">
         <v>1616</v>
       </c>
-      <c r="C481" s="34"/>
+      <c r="C481" s="39"/>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B482" s="10" t="s">
         <v>1617</v>
       </c>
-      <c r="C482" s="34"/>
+      <c r="C482" s="39"/>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B483" s="10" t="s">
         <v>1618</v>
       </c>
-      <c r="C483" s="34"/>
+      <c r="C483" s="39"/>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B484" s="10" t="s">
         <v>1619</v>
       </c>
-      <c r="C484" s="34"/>
+      <c r="C484" s="39"/>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B485" s="10" t="s">
         <v>1620</v>
       </c>
-      <c r="C485" s="34"/>
+      <c r="C485" s="39"/>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B486" s="10" t="s">
         <v>1621</v>
       </c>
-      <c r="C486" s="34"/>
+      <c r="C486" s="39"/>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B487" s="10" t="s">
         <v>1622</v>
       </c>
-      <c r="C487" s="34"/>
+      <c r="C487" s="39"/>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B488" s="10" t="s">
         <v>1623</v>
       </c>
-      <c r="C488" s="34"/>
+      <c r="C488" s="39"/>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B489" s="10" t="s">
         <v>1624</v>
       </c>
-      <c r="C489" s="34"/>
+      <c r="C489" s="39"/>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B490" s="10" t="s">
         <v>1625</v>
       </c>
-      <c r="C490" s="34"/>
+      <c r="C490" s="39"/>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B491" s="10" t="s">
         <v>1626</v>
       </c>
-      <c r="C491" s="34"/>
+      <c r="C491" s="39"/>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B492" s="10" t="s">
         <v>1627</v>
       </c>
-      <c r="C492" s="34"/>
+      <c r="C492" s="39"/>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B493" s="10" t="s">
         <v>1628</v>
       </c>
-      <c r="C493" s="34"/>
+      <c r="C493" s="39"/>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B494" s="10" t="s">
         <v>1629</v>
       </c>
-      <c r="C494" s="34"/>
+      <c r="C494" s="39"/>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B495" s="10" t="s">
         <v>1630</v>
       </c>
-      <c r="C495" s="34"/>
+      <c r="C495" s="39"/>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B496" s="10" t="s">
         <v>1631</v>
       </c>
-      <c r="C496" s="34"/>
+      <c r="C496" s="39"/>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B497" s="10" t="s">
         <v>1632</v>
       </c>
-      <c r="C497" s="34"/>
+      <c r="C497" s="39"/>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B498" s="10" t="s">
         <v>1633</v>
       </c>
-      <c r="C498" s="34"/>
+      <c r="C498" s="39"/>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B499" s="10" t="s">
         <v>1634</v>
       </c>
-      <c r="C499" s="34"/>
+      <c r="C499" s="39"/>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B500" s="10" t="s">
         <v>1635</v>
       </c>
-      <c r="C500" s="34"/>
+      <c r="C500" s="39"/>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B501" s="10" t="s">
         <v>1636</v>
       </c>
-      <c r="C501" s="34"/>
+      <c r="C501" s="39"/>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B502" s="10" t="s">
         <v>1637</v>
       </c>
-      <c r="C502" s="34"/>
+      <c r="C502" s="39"/>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B503" s="10" t="s">
         <v>1638</v>
       </c>
-      <c r="C503" s="34"/>
+      <c r="C503" s="39"/>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B504" s="10" t="s">
         <v>1639</v>
       </c>
-      <c r="C504" s="34"/>
+      <c r="C504" s="39"/>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B505" s="10" t="s">
         <v>1640</v>
       </c>
-      <c r="C505" s="34"/>
+      <c r="C505" s="39"/>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B506" s="10" t="s">
         <v>1641</v>
       </c>
-      <c r="C506" s="34"/>
+      <c r="C506" s="39"/>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B507" s="10" t="s">
         <v>1642</v>
       </c>
-      <c r="C507" s="34"/>
+      <c r="C507" s="39"/>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B508" s="10" t="s">
         <v>1643</v>
       </c>
-      <c r="C508" s="34"/>
+      <c r="C508" s="39"/>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B509" s="10" t="s">
         <v>1644</v>
       </c>
-      <c r="C509" s="34"/>
+      <c r="C509" s="39"/>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B510" s="10" t="s">
         <v>1645</v>
       </c>
-      <c r="C510" s="34"/>
+      <c r="C510" s="39"/>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B511" s="10" t="s">
         <v>1646</v>
       </c>
-      <c r="C511" s="34"/>
+      <c r="C511" s="39"/>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B512" s="10" t="s">
         <v>1647</v>
       </c>
-      <c r="C512" s="34"/>
+      <c r="C512" s="39"/>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B513" s="10" t="s">
         <v>1649</v>
       </c>
-      <c r="C513" s="34" t="s">
+      <c r="C513" s="39" t="s">
         <v>1696</v>
       </c>
     </row>
@@ -16282,283 +16795,283 @@
       <c r="B514" s="10" t="s">
         <v>1650</v>
       </c>
-      <c r="C514" s="34"/>
+      <c r="C514" s="39"/>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B515" s="10" t="s">
         <v>1651</v>
       </c>
-      <c r="C515" s="34"/>
+      <c r="C515" s="39"/>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B516" s="10" t="s">
         <v>1652</v>
       </c>
-      <c r="C516" s="34"/>
+      <c r="C516" s="39"/>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B517" s="10" t="s">
         <v>1653</v>
       </c>
-      <c r="C517" s="34"/>
+      <c r="C517" s="39"/>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B518" s="10" t="s">
         <v>1654</v>
       </c>
-      <c r="C518" s="34"/>
+      <c r="C518" s="39"/>
     </row>
     <row r="519" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B519" s="10" t="s">
         <v>1655</v>
       </c>
-      <c r="C519" s="34"/>
+      <c r="C519" s="39"/>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B520" s="10" t="s">
         <v>1656</v>
       </c>
-      <c r="C520" s="34"/>
+      <c r="C520" s="39"/>
     </row>
     <row r="521" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B521" s="10" t="s">
         <v>1657</v>
       </c>
-      <c r="C521" s="34"/>
+      <c r="C521" s="39"/>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B522" s="10" t="s">
         <v>1658</v>
       </c>
-      <c r="C522" s="34"/>
+      <c r="C522" s="39"/>
     </row>
     <row r="523" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B523" s="10" t="s">
         <v>1659</v>
       </c>
-      <c r="C523" s="34"/>
+      <c r="C523" s="39"/>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B524" s="10" t="s">
         <v>1660</v>
       </c>
-      <c r="C524" s="34"/>
+      <c r="C524" s="39"/>
     </row>
     <row r="525" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B525" s="10" t="s">
         <v>1661</v>
       </c>
-      <c r="C525" s="34"/>
+      <c r="C525" s="39"/>
     </row>
     <row r="526" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B526" s="10" t="s">
         <v>1662</v>
       </c>
-      <c r="C526" s="34"/>
+      <c r="C526" s="39"/>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B527" s="10" t="s">
         <v>1663</v>
       </c>
-      <c r="C527" s="34"/>
+      <c r="C527" s="39"/>
     </row>
     <row r="528" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B528" s="10" t="s">
         <v>1664</v>
       </c>
-      <c r="C528" s="34"/>
+      <c r="C528" s="39"/>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B529" s="10" t="s">
         <v>1665</v>
       </c>
-      <c r="C529" s="34"/>
+      <c r="C529" s="39"/>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B530" s="10" t="s">
         <v>1666</v>
       </c>
-      <c r="C530" s="34"/>
+      <c r="C530" s="39"/>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B531" s="10" t="s">
         <v>1667</v>
       </c>
-      <c r="C531" s="34"/>
+      <c r="C531" s="39"/>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B532" s="10" t="s">
         <v>1668</v>
       </c>
-      <c r="C532" s="34"/>
+      <c r="C532" s="39"/>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B533" s="10" t="s">
         <v>1669</v>
       </c>
-      <c r="C533" s="34"/>
+      <c r="C533" s="39"/>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B534" s="10" t="s">
         <v>1670</v>
       </c>
-      <c r="C534" s="34"/>
+      <c r="C534" s="39"/>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B535" s="10" t="s">
         <v>1671</v>
       </c>
-      <c r="C535" s="34"/>
+      <c r="C535" s="39"/>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B536" s="10" t="s">
         <v>1672</v>
       </c>
-      <c r="C536" s="34"/>
+      <c r="C536" s="39"/>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B537" s="10" t="s">
         <v>1673</v>
       </c>
-      <c r="C537" s="34"/>
+      <c r="C537" s="39"/>
     </row>
     <row r="538" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B538" s="10" t="s">
         <v>1674</v>
       </c>
-      <c r="C538" s="34"/>
+      <c r="C538" s="39"/>
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B539" s="10" t="s">
         <v>1675</v>
       </c>
-      <c r="C539" s="34"/>
+      <c r="C539" s="39"/>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B540" s="10" t="s">
         <v>1676</v>
       </c>
-      <c r="C540" s="34"/>
+      <c r="C540" s="39"/>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B541" s="10" t="s">
         <v>1677</v>
       </c>
-      <c r="C541" s="34"/>
+      <c r="C541" s="39"/>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B542" s="10" t="s">
         <v>1678</v>
       </c>
-      <c r="C542" s="34"/>
+      <c r="C542" s="39"/>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B543" s="10" t="s">
         <v>1679</v>
       </c>
-      <c r="C543" s="34"/>
+      <c r="C543" s="39"/>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B544" s="10" t="s">
         <v>1680</v>
       </c>
-      <c r="C544" s="34"/>
+      <c r="C544" s="39"/>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B545" s="10" t="s">
         <v>1681</v>
       </c>
-      <c r="C545" s="34"/>
+      <c r="C545" s="39"/>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B546" s="10" t="s">
         <v>1682</v>
       </c>
-      <c r="C546" s="34"/>
+      <c r="C546" s="39"/>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B547" s="10" t="s">
         <v>1683</v>
       </c>
-      <c r="C547" s="34"/>
+      <c r="C547" s="39"/>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B548" s="10" t="s">
         <v>1684</v>
       </c>
-      <c r="C548" s="34"/>
+      <c r="C548" s="39"/>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B549" s="10" t="s">
         <v>1685</v>
       </c>
-      <c r="C549" s="34"/>
+      <c r="C549" s="39"/>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B550" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="C550" s="34"/>
+      <c r="C550" s="39"/>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B551" s="10" t="s">
         <v>1687</v>
       </c>
-      <c r="C551" s="34"/>
+      <c r="C551" s="39"/>
     </row>
     <row r="552" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B552" s="10" t="s">
         <v>1688</v>
       </c>
-      <c r="C552" s="34"/>
+      <c r="C552" s="39"/>
     </row>
     <row r="553" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B553" s="10" t="s">
         <v>1689</v>
       </c>
-      <c r="C553" s="34"/>
+      <c r="C553" s="39"/>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B554" s="10" t="s">
         <v>1690</v>
       </c>
-      <c r="C554" s="34"/>
+      <c r="C554" s="39"/>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B555" s="10" t="s">
         <v>1691</v>
       </c>
-      <c r="C555" s="34"/>
+      <c r="C555" s="39"/>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B556" s="10" t="s">
         <v>1692</v>
       </c>
-      <c r="C556" s="34"/>
+      <c r="C556" s="39"/>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B557" s="10" t="s">
         <v>1693</v>
       </c>
-      <c r="C557" s="34"/>
+      <c r="C557" s="39"/>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B558" s="10" t="s">
         <v>1694</v>
       </c>
-      <c r="C558" s="34"/>
+      <c r="C558" s="39"/>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B559" s="10" t="s">
         <v>1695</v>
       </c>
-      <c r="C559" s="34"/>
+      <c r="C559" s="39"/>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B560" s="10" t="s">
         <v>1697</v>
       </c>
-      <c r="C560" s="34" t="s">
+      <c r="C560" s="39" t="s">
         <v>1713</v>
       </c>
     </row>
@@ -16566,97 +17079,97 @@
       <c r="B561" s="10" t="s">
         <v>1698</v>
       </c>
-      <c r="C561" s="34"/>
+      <c r="C561" s="39"/>
     </row>
     <row r="562" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B562" s="10" t="s">
         <v>1699</v>
       </c>
-      <c r="C562" s="34"/>
+      <c r="C562" s="39"/>
     </row>
     <row r="563" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B563" s="10" t="s">
         <v>1700</v>
       </c>
-      <c r="C563" s="34"/>
+      <c r="C563" s="39"/>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B564" s="10" t="s">
         <v>1701</v>
       </c>
-      <c r="C564" s="34"/>
+      <c r="C564" s="39"/>
     </row>
     <row r="565" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B565" s="10" t="s">
         <v>1702</v>
       </c>
-      <c r="C565" s="34"/>
+      <c r="C565" s="39"/>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B566" s="10" t="s">
         <v>1703</v>
       </c>
-      <c r="C566" s="34"/>
+      <c r="C566" s="39"/>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B567" s="10" t="s">
         <v>1704</v>
       </c>
-      <c r="C567" s="34"/>
+      <c r="C567" s="39"/>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B568" s="10" t="s">
         <v>1705</v>
       </c>
-      <c r="C568" s="34"/>
+      <c r="C568" s="39"/>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B569" s="10" t="s">
         <v>1706</v>
       </c>
-      <c r="C569" s="34"/>
+      <c r="C569" s="39"/>
     </row>
     <row r="570" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B570" s="10" t="s">
         <v>1707</v>
       </c>
-      <c r="C570" s="34"/>
+      <c r="C570" s="39"/>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B571" s="10" t="s">
         <v>1708</v>
       </c>
-      <c r="C571" s="34"/>
+      <c r="C571" s="39"/>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B572" s="10" t="s">
         <v>1709</v>
       </c>
-      <c r="C572" s="34"/>
+      <c r="C572" s="39"/>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B573" s="10" t="s">
         <v>1710</v>
       </c>
-      <c r="C573" s="34"/>
+      <c r="C573" s="39"/>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B574" s="10" t="s">
         <v>1711</v>
       </c>
-      <c r="C574" s="34"/>
+      <c r="C574" s="39"/>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B575" s="10" t="s">
         <v>1712</v>
       </c>
-      <c r="C575" s="34"/>
+      <c r="C575" s="39"/>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B576" s="10" t="s">
         <v>1714</v>
       </c>
-      <c r="C576" s="34" t="s">
+      <c r="C576" s="39" t="s">
         <v>1716</v>
       </c>
     </row>
@@ -16664,13 +17177,13 @@
       <c r="B577" s="10" t="s">
         <v>1715</v>
       </c>
-      <c r="C577" s="34"/>
+      <c r="C577" s="39"/>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B578" s="10" t="s">
         <v>1717</v>
       </c>
-      <c r="C578" s="34" t="s">
+      <c r="C578" s="39" t="s">
         <v>1719</v>
       </c>
     </row>
@@ -16678,13 +17191,13 @@
       <c r="B579" s="10" t="s">
         <v>1718</v>
       </c>
-      <c r="C579" s="34"/>
+      <c r="C579" s="39"/>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B580" s="10" t="s">
         <v>1720</v>
       </c>
-      <c r="C580" s="34" t="s">
+      <c r="C580" s="39" t="s">
         <v>1723</v>
       </c>
     </row>
@@ -16692,19 +17205,19 @@
       <c r="B581" s="10" t="s">
         <v>1721</v>
       </c>
-      <c r="C581" s="34"/>
+      <c r="C581" s="39"/>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B582" s="10" t="s">
         <v>1722</v>
       </c>
-      <c r="C582" s="34"/>
+      <c r="C582" s="39"/>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B583" s="10" t="s">
         <v>1724</v>
       </c>
-      <c r="C583" s="34" t="s">
+      <c r="C583" s="39" t="s">
         <v>1730</v>
       </c>
     </row>
@@ -16712,43 +17225,43 @@
       <c r="B584" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="C584" s="34"/>
+      <c r="C584" s="39"/>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B585" s="10" t="s">
         <v>1572</v>
       </c>
-      <c r="C585" s="34"/>
+      <c r="C585" s="39"/>
     </row>
     <row r="586" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B586" s="10" t="s">
         <v>1725</v>
       </c>
-      <c r="C586" s="34"/>
+      <c r="C586" s="39"/>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B587" s="10" t="s">
         <v>1726</v>
       </c>
-      <c r="C587" s="34"/>
+      <c r="C587" s="39"/>
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B588" s="10" t="s">
         <v>1727</v>
       </c>
-      <c r="C588" s="34"/>
+      <c r="C588" s="39"/>
     </row>
     <row r="589" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B589" s="10" t="s">
         <v>1728</v>
       </c>
-      <c r="C589" s="34"/>
+      <c r="C589" s="39"/>
     </row>
     <row r="590" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B590" s="10" t="s">
         <v>1729</v>
       </c>
-      <c r="C590" s="34"/>
+      <c r="C590" s="39"/>
     </row>
     <row r="591" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B591" s="10" t="s">
@@ -16938,7 +17451,7 @@
       <c r="B614" s="10" t="s">
         <v>1766</v>
       </c>
-      <c r="C614" s="34" t="s">
+      <c r="C614" s="39" t="s">
         <v>1768</v>
       </c>
     </row>
@@ -16946,25 +17459,25 @@
       <c r="B615" s="10" t="s">
         <v>1767</v>
       </c>
-      <c r="C615" s="34"/>
+      <c r="C615" s="39"/>
     </row>
     <row r="616" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B616" s="10" t="s">
         <v>1769</v>
       </c>
-      <c r="C616" s="34"/>
+      <c r="C616" s="39"/>
     </row>
     <row r="617" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B617" s="10" t="s">
         <v>1770</v>
       </c>
-      <c r="C617" s="34"/>
+      <c r="C617" s="39"/>
     </row>
     <row r="618" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B618" s="10" t="s">
         <v>1771</v>
       </c>
-      <c r="C618" s="34"/>
+      <c r="C618" s="39"/>
     </row>
     <row r="619" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B619" s="10" t="s">
@@ -16995,7 +17508,7 @@
       <c r="B624" s="10" t="s">
         <v>1777</v>
       </c>
-      <c r="C624" s="35" t="s">
+      <c r="C624" s="40" t="s">
         <v>1780</v>
       </c>
     </row>
@@ -17003,13 +17516,13 @@
       <c r="B625" s="10" t="s">
         <v>1778</v>
       </c>
-      <c r="C625" s="35"/>
+      <c r="C625" s="40"/>
     </row>
     <row r="626" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B626" s="10" t="s">
         <v>1779</v>
       </c>
-      <c r="C626" s="35"/>
+      <c r="C626" s="40"/>
     </row>
     <row r="627" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B627" s="10" t="s">
@@ -17070,20 +17583,20 @@
         <v>1794</v>
       </c>
       <c r="C636" s="10" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="637" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B637" s="21" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="638" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B638" s="21" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="C638" s="10" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="639" spans="2:3" x14ac:dyDescent="0.2">
@@ -18064,7 +18577,7 @@
         <v>2076</v>
       </c>
       <c r="C761" s="10" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="762" spans="2:3" x14ac:dyDescent="0.2">
@@ -18082,133 +18595,133 @@
     </row>
     <row r="764" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B764" s="10" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C764" s="10" t="s">
         <v>2080</v>
-      </c>
-      <c r="C764" s="10" t="s">
-        <v>2081</v>
       </c>
     </row>
     <row r="765" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B765" s="10" t="s">
-        <v>2082</v>
+        <v>2387</v>
       </c>
       <c r="C765" s="10" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="766" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B766" s="10" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="767" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B767" s="10" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="768" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B768" s="10" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="C768" s="10" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="769" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B769" s="10" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="770" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B770" s="10" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="771" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B771" s="10" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="772" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B772" s="10" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="773" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B773" s="10" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="774" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B774" s="10" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="775" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B775" s="10" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="C775" s="10" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="776" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B776" s="10" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="777" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B777" s="10" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="778" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B778" s="10" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="779" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B779" s="10" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="780" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B780" s="10" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="781" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B781" s="10" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="C781" s="10" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="782" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B782" s="10" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="C782" s="10" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="783" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B783" s="10" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="C783" s="10" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="784" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B784" s="10" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B785" s="10" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
@@ -18218,43 +18731,43 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B787" s="10" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B788" s="10" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B789" s="10" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B790" s="10" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B791" s="10" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="C791" s="10" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B792" s="10" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="C792" s="10" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B793" s="10" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
@@ -18262,77 +18775,77 @@
         <v>2045</v>
       </c>
       <c r="C794" s="10" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B795" s="10" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="C795" s="10" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B796" s="10" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B797" s="10" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="C797" s="10" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B798" s="28" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B799" s="28" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="800" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A800" s="27" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="B800" s="10" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="801" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B801" s="10" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="802" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B802" s="10" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="C802" s="10" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="803" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B803" s="10" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="804" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B804" s="10" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C804" s="10" t="s">
         <v>2150</v>
-      </c>
-      <c r="C804" s="10" t="s">
-        <v>2152</v>
       </c>
     </row>
     <row r="805" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B805" s="10" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="806" spans="2:3" x14ac:dyDescent="0.2">
@@ -18342,39 +18855,39 @@
     </row>
     <row r="807" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B807" s="10" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="C807" s="10" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="808" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B808" s="10" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="809" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B809" s="10" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="C809" s="10" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="810" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B810" s="10" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="C810" s="10" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="811" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B811" s="10" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="C811" s="10" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="813" spans="2:3" x14ac:dyDescent="0.2">
@@ -18384,15 +18897,15 @@
     </row>
     <row r="814" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B814" s="10" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="815" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B815" s="10" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="C815" s="10" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="817" spans="2:2" x14ac:dyDescent="0.2">
@@ -18402,27 +18915,27 @@
     </row>
     <row r="818" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B818" s="10" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="819" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B819" s="10" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="820" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B820" s="10" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="821" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B821" s="28" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="822" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B822" s="10" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="823" spans="2:2" x14ac:dyDescent="0.2">
@@ -18437,102 +18950,102 @@
     </row>
     <row r="828" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B828" s="10" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="829" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B829" s="10" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="830" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B830" s="10" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="831" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B831" s="10" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="832" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B832" s="10" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="833" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B833" s="10" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="834" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B834" s="10" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="835" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B835" s="10" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="836" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B836" s="10" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="837" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B837" s="10" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="838" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B838" s="10" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="839" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B839" s="10" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="840" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B840" s="10" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="841" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B841" s="10" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="842" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B842" s="10" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="843" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B843" s="10" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="844" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B844" s="10" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="845" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B845" s="10" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="846" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B846" s="10" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="847" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B847" s="10" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="848" spans="2:2" x14ac:dyDescent="0.2">
@@ -18602,179 +19115,179 @@
     </row>
     <row r="858" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B858" s="10" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="859" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B859" s="10" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="860" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B860" s="10" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="861" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B861" s="10" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="862" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B862" s="10" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="863" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B863" s="10" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="864" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B864" s="10" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="865" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B865" s="10" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="866" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B866" s="10" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="867" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B867" s="10" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="868" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B868" s="10" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="869" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B869" s="10" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="870" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B870" s="10" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="871" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B871" s="10" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C871" s="10" t="s">
         <v>2196</v>
-      </c>
-      <c r="C871" s="10" t="s">
-        <v>2198</v>
       </c>
     </row>
     <row r="872" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B872" s="10" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="873" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B873" s="10" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="874" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B874" s="10" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="875" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B875" s="10" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="876" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B876" s="10" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="877" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B877" s="10" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="878" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B878" s="10" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="879" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B879" s="10" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="880" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B880" s="10" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="881" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B881" s="10" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="882" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B882" s="10" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="883" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B883" s="10" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="884" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B884" s="10" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="885" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B885" s="10" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="886" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B886" s="10" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="887" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B887" s="10" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="888" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B888" s="10" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="889" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B889" s="10" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="890" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B890" s="10" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="891" spans="2:3" x14ac:dyDescent="0.2">
@@ -18782,125 +19295,125 @@
         <v>1100</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="892" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B892" s="10" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="893" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B893" s="10" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="894" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B894" s="10" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="895" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B895" s="10" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="896" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B896" s="10" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="897" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B897" s="10" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="898" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B898" s="10" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="899" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B899" s="10" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="900" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B900" s="10" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="901" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B901" s="10" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="902" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B902" s="10" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="903" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B903" s="10" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="904" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B904" s="10" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="905" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B905" s="10" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C905" s="10" t="s">
         <v>2250</v>
-      </c>
-      <c r="C905" s="10" t="s">
-        <v>2252</v>
       </c>
     </row>
     <row r="906" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B906" s="10" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="907" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B907" s="10" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="908" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B908" s="10" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="909" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B909" s="10" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="910" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B910" s="10" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="911" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B911" s="10" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="912" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B912" s="10" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="913" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B913" s="10" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="914" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B914" s="10" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="915" spans="2:3" x14ac:dyDescent="0.2">
@@ -18910,7 +19423,7 @@
     </row>
     <row r="916" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B916" s="10" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="C916" s="10" t="s">
         <v>610</v>
@@ -18918,284 +19431,284 @@
     </row>
     <row r="917" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B917" s="10" t="s">
-        <v>2262</v>
-      </c>
-      <c r="C917" s="34" t="s">
-        <v>2268</v>
+        <v>2260</v>
+      </c>
+      <c r="C917" s="39" t="s">
+        <v>2266</v>
       </c>
     </row>
     <row r="918" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B918" s="10" t="s">
-        <v>2263</v>
-      </c>
-      <c r="C918" s="34"/>
+        <v>2261</v>
+      </c>
+      <c r="C918" s="39"/>
     </row>
     <row r="919" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B919" s="10" t="s">
-        <v>2264</v>
-      </c>
-      <c r="C919" s="34"/>
+        <v>2262</v>
+      </c>
+      <c r="C919" s="39"/>
     </row>
     <row r="920" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B920" s="10" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C920" s="34"/>
+        <v>2263</v>
+      </c>
+      <c r="C920" s="39"/>
     </row>
     <row r="921" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B921" s="10" t="s">
-        <v>2266</v>
-      </c>
-      <c r="C921" s="34"/>
+        <v>2264</v>
+      </c>
+      <c r="C921" s="39"/>
     </row>
     <row r="922" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B922" s="10" t="s">
-        <v>2267</v>
-      </c>
-      <c r="C922" s="34"/>
+        <v>2265</v>
+      </c>
+      <c r="C922" s="39"/>
     </row>
     <row r="923" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B923" s="10" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="924" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B924" s="10" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="925" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B925" s="10" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="926" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B926" s="10" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="927" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B927" s="10" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="928" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B928" s="10" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="929" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B929" s="10" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="930" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B930" s="10" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="931" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B931" s="10" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="932" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B932" s="10" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="933" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B933" s="10" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="938" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B938" s="10" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="939" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B939" s="10" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="940" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B940" s="10" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="941" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B941" s="10" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="942" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B942" s="10" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="943" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B943" s="10" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="944" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B944" s="10" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="945" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B945" s="10" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="946" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B946" s="10" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="947" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B947" s="10" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="948" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B948" s="10" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="951" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B951" s="10" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="952" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B952" s="10" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="953" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B953" s="10" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="954" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B954" s="10" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="955" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B955" s="10" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="956" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B956" s="10" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="957" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B957" s="10" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="958" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B958" s="10" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="959" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B959" s="10" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="960" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B960" s="10" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="961" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B961" s="10" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="962" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B962" s="10" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="963" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B963" s="10" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="964" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B964" s="10" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="965" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B965" s="10" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="966" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B966" s="10" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="967" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B967" s="10" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="968" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B968" s="10" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="969" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B969" s="10" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C969" s="10" t="s">
         <v>2298</v>
-      </c>
-      <c r="C969" s="10" t="s">
-        <v>2300</v>
       </c>
     </row>
     <row r="970" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B970" s="10" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="971" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B971" s="10" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="C971" s="10" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="972" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B972" s="10" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="C972" s="10" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="973" spans="2:3" x14ac:dyDescent="0.2">
@@ -19205,71 +19718,203 @@
     </row>
     <row r="974" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B974" s="10" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="975" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B975" s="10" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="C975" s="10" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="976" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B976" s="10" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="977" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B977" s="10" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C977" s="10" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="978" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B978" s="10" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="C978" s="10" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="979" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B979" s="10" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="C979" s="10" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="980" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B980" s="10" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="C980" s="10" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="981" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B981" s="10" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="982" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B982" s="10" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="983" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B983" s="10" t="s">
-        <v>2318</v>
-      </c>
+        <v>2316</v>
+      </c>
+      <c r="C983" s="10" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="984" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B984" s="32" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C984" s="39" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="985" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B985" s="32" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C985" s="35"/>
+    </row>
+    <row r="986" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B986" s="32" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C986" s="35"/>
+    </row>
+    <row r="987" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B987" s="32" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C987" s="35"/>
+    </row>
+    <row r="988" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B988" s="32" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C988" s="35"/>
+    </row>
+    <row r="989" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B989" s="32" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C989" s="35"/>
+    </row>
+    <row r="990" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B990" s="32" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C990" s="35"/>
+    </row>
+    <row r="991" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B991" s="32" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C991" s="35"/>
+    </row>
+    <row r="992" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B992" s="32" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C992" s="35"/>
+    </row>
+    <row r="993" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B993" s="32" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C993" s="35"/>
+    </row>
+    <row r="994" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B994" s="32" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C994" s="35"/>
+    </row>
+    <row r="995" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B995" s="32" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C995" s="35"/>
+    </row>
+    <row r="996" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B996" s="32" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C996" s="35"/>
+    </row>
+    <row r="997" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B997" s="31" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C997" s="35"/>
+    </row>
+    <row r="998" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B998" s="10" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="999" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B999" s="10" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C999" s="10" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1000" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1000" s="10" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C1000" s="10" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="1001" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1001" s="10" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="1002" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1002" s="10" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1003" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B1003" s="33" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C1003" s="10" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1004" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="C984:C997"/>
     <mergeCell ref="C917:C922"/>
     <mergeCell ref="C466:C512"/>
     <mergeCell ref="C14:C20"/>
@@ -19295,7 +19940,7 @@
   <dimension ref="A1:K295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A2:A14"/>
+      <selection activeCell="C1" sqref="C1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19312,6 +19957,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
+        <v>2376</v>
+      </c>
       <c r="D1" s="24"/>
       <c r="E1" s="17"/>
       <c r="H1" s="17"/>
@@ -19320,7 +19972,11 @@
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>2222</v>
+        <v>2357</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>2370</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="17"/>
@@ -19330,7 +19986,11 @@
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>2223</v>
+        <v>2358</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
+        <v>2358</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="17"/>
@@ -19342,9 +20002,12 @@
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B4" s="23"/>
+        <v>2359</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>2371</v>
+      </c>
       <c r="D4" s="24"/>
       <c r="E4" s="17"/>
       <c r="F4" s="23"/>
@@ -19355,7 +20018,11 @@
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>2225</v>
+        <v>2360</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
+        <v>2360</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="17"/>
@@ -19366,9 +20033,12 @@
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>2226</v>
-      </c>
-      <c r="B6" s="23"/>
+        <v>2361</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18" t="s">
+        <v>2361</v>
+      </c>
       <c r="D6" s="24"/>
       <c r="E6" s="17"/>
       <c r="F6" s="23"/>
@@ -19378,7 +20048,11 @@
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>2227</v>
+        <v>2362</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
+        <v>2375</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="17"/>
@@ -19388,10 +20062,13 @@
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B8" s="23"/>
+      <c r="A8" s="17" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
+        <v>2363</v>
+      </c>
       <c r="D8" s="24"/>
       <c r="E8" s="17"/>
       <c r="F8" s="23"/>
@@ -19401,7 +20078,11 @@
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>2229</v>
+        <v>2364</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>2372</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="17"/>
@@ -19411,7 +20092,11 @@
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>2230</v>
+        <v>2365</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>2373</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="17"/>
@@ -19421,7 +20106,11 @@
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>2231</v>
+        <v>2366</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
+        <v>2366</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="17"/>
@@ -19431,7 +20120,11 @@
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>2232</v>
+        <v>2367</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18" t="s">
+        <v>2367</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="17"/>
@@ -19441,7 +20134,11 @@
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>2233</v>
+        <v>2368</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="s">
+        <v>2368</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="17"/>
@@ -19452,8 +20149,12 @@
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="30" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2374</v>
+      </c>
       <c r="D14" s="24"/>
       <c r="E14" s="17"/>
       <c r="F14" s="23"/>
@@ -22062,18 +22763,17 @@
     </dataRefs>
   </dataConsolidate>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7" tooltip="Productivity Centre of Kenya"/>
-    <hyperlink ref="A9" r:id="rId8" tooltip="National Human Resource Planning and Department"/>
-    <hyperlink ref="A10" r:id="rId9" tooltip="National Council for Persons With Disabilities"/>
-    <hyperlink ref="A11" r:id="rId10" tooltip="Registrar of Trade Unions"/>
-    <hyperlink ref="A12" r:id="rId11" tooltip="NITA"/>
-    <hyperlink ref="A13" r:id="rId12" tooltip="NSSF"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="Bhimji Depar Shah"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="Naushad Merali"/>
+    <hyperlink ref="A4" r:id="rId3" tooltip="Uhuru Kenyatta"/>
+    <hyperlink ref="A5" r:id="rId4" tooltip="Chris Kirubi"/>
+    <hyperlink ref="A6" r:id="rId5" tooltip="Atul Shah"/>
+    <hyperlink ref="A7" r:id="rId6" location="cite_note-9"/>
+    <hyperlink ref="A9" r:id="rId7" tooltip="James Mwangi"/>
+    <hyperlink ref="A10" r:id="rId8" tooltip="Raila Odinga"/>
+    <hyperlink ref="A11" r:id="rId9" tooltip="Manu Chandaria"/>
+    <hyperlink ref="A12" r:id="rId10" tooltip="Pradeep Paunrana"/>
+    <hyperlink ref="A13" r:id="rId11" tooltip="Baloobhai Patel"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stability Coding.xlsx
+++ b/Stability Coding.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="460" windowWidth="16220" windowHeight="16420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4540" yWindow="460" windowWidth="16220" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3847" uniqueCount="3572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="3580">
   <si>
     <t>Mounties</t>
   </si>
@@ -10830,19 +10830,36 @@
       <t>;</t>
     </r>
   </si>
+  <si>
+    <t>religious freedom</t>
+  </si>
+  <si>
+    <t>liberté de religion</t>
+  </si>
+  <si>
+    <t>uhuru wa dini</t>
+  </si>
+  <si>
+    <t>subsidy</t>
+  </si>
+  <si>
+    <t>ruzuku</t>
+  </si>
+  <si>
+    <t>subvention</t>
+  </si>
+  <si>
+    <t>subventionné</t>
+  </si>
+  <si>
+    <t>subsidized</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10942,30 +10959,30 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -11270,10 +11287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C238"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView topLeftCell="A231" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13668,6 +13685,36 @@
         <v>3555</v>
       </c>
     </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>3574</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>3576</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="3" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>3578</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13677,7 +13724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+    <sheetView topLeftCell="A126" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
